--- a/list/tool.xlsx
+++ b/list/tool.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13305" tabRatio="992" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12375" tabRatio="992"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252">
   <si>
     <t>测试项目</t>
   </si>
@@ -1616,7 +1616,7 @@
     <t>浏览器安装测试</t>
   </si>
   <si>
-    <t>ui-browser-test.yaml</t>
+    <t>ui-browser-test.sh</t>
   </si>
   <si>
     <t>devlibset-4
@@ -1687,6 +1687,9 @@
   <si>
     <t>devtoolset-4-yaml-cpp
 0.5.3</t>
+  </si>
+  <si>
+    <t>devtoolset-4-yaml-cpp.sh</t>
   </si>
   <si>
     <t>devtoolset-6
@@ -2254,11 +2257,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -2303,16 +2306,18 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -2339,22 +2344,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF3C3C3C"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -2372,33 +2363,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2408,22 +2384,105 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2431,83 +2490,29 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2539,25 +2544,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2575,19 +2592,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2599,67 +2688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2677,49 +2706,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2868,11 +2873,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2882,6 +2893,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2901,32 +2942,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2942,21 +2962,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2967,411 +2972,408 @@
     </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="68">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="36" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="36" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="69">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="27" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="27" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="44" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="44" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="27" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="36" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="4" borderId="4" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="4" borderId="4" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="44" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="4" borderId="8" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="4" borderId="8" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="常规" xfId="5"/>
+    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="9" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="11" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="21" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
+    <cellStyle name="Bad" xfId="24" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Output" xfId="27" builtinId="21"/>
+    <cellStyle name="Currency" xfId="28" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
+    <cellStyle name="Note" xfId="30" builtinId="10"/>
+    <cellStyle name="Input" xfId="31" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
+    <cellStyle name="Good" xfId="34" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="37" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="38" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="39" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50"/>
+    <cellStyle name="Title" xfId="41" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="43" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="46" builtinId="17"/>
+    <cellStyle name="Comma" xfId="47" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="48" builtinId="23"/>
+    <cellStyle name="Percent" xfId="49" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -3488,10 +3490,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="212121"/>
+        <a:sysClr val="windowText" lastClr="504D59"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F3F3F3"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3744,24 +3746,24 @@
   <sheetPr/>
   <dimension ref="A1:AMJ141"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L79" sqref="L79"/>
+      <selection pane="bottomLeft" activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.0095238095238" style="33"/>
-    <col min="2" max="2" width="37.2571428571429" style="34"/>
-    <col min="3" max="3" width="6.47619047619048" style="34"/>
-    <col min="4" max="4" width="19.0380952380952" style="33"/>
-    <col min="5" max="5" width="8.77142857142857" style="35"/>
-    <col min="6" max="6" width="12.8285714285714" style="34"/>
+    <col min="1" max="1" width="17.0083333333333" style="33"/>
+    <col min="2" max="2" width="37.2583333333333" style="34"/>
+    <col min="3" max="3" width="6.475" style="34"/>
+    <col min="4" max="4" width="19.0416666666667" style="33"/>
+    <col min="5" max="5" width="8.775" style="35"/>
+    <col min="6" max="6" width="12.825" style="34"/>
     <col min="7" max="7" width="10.9333333333333" style="34"/>
-    <col min="8" max="8" width="8.77142857142857" style="33"/>
+    <col min="8" max="8" width="8.775" style="33"/>
     <col min="9" max="9" width="38.0666666666667" style="34"/>
-    <col min="10" max="1025" width="8.63809523809524" style="34"/>
+    <col min="10" max="1025" width="8.64166666666667" style="34"/>
   </cols>
   <sheetData>
     <row r="1" s="29" customFormat="1" ht="30" customHeight="1" spans="1:9">
@@ -3789,7 +3791,7 @@
       <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="47" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3803,18 +3805,18 @@
       <c r="C2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="16"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="50"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A3" s="38"/>
@@ -3824,16 +3826,16 @@
       <c r="C3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="46" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="16"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="50"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A4" s="38"/>
@@ -3843,16 +3845,16 @@
       <c r="C4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="50"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A5" s="38"/>
@@ -3862,16 +3864,16 @@
       <c r="C5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="16"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="50"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A6" s="38"/>
@@ -3881,16 +3883,16 @@
       <c r="C6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="46" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="16"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="50"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A7" s="38"/>
@@ -3900,16 +3902,16 @@
       <c r="C7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="46" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="16"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="50"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A8" s="38"/>
@@ -3919,28 +3921,28 @@
       <c r="C8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="46" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="16"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="50"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -3955,17 +3957,17 @@
       <c r="H9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="51"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A10" s="7"/>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
         <v>24</v>
       </c>
@@ -3978,17 +3980,17 @@
       <c r="H10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="51"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A11" s="7"/>
-      <c r="B11" s="42" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="41"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
         <v>24</v>
       </c>
@@ -4001,17 +4003,17 @@
       <c r="H11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="51"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A12" s="7"/>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
         <v>24</v>
       </c>
@@ -4024,17 +4026,17 @@
       <c r="H12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="51"/>
+      <c r="I12" s="49"/>
     </row>
     <row r="13" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A13" s="7"/>
-      <c r="B13" s="42" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="41"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
         <v>24</v>
       </c>
@@ -4047,17 +4049,17 @@
       <c r="H13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="51"/>
+      <c r="I13" s="49"/>
     </row>
     <row r="14" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A14" s="7"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="41"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
         <v>24</v>
       </c>
@@ -4070,17 +4072,17 @@
       <c r="H14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="51"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A15" s="7"/>
-      <c r="B15" s="42" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="41"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
         <v>24</v>
       </c>
@@ -4093,17 +4095,17 @@
       <c r="H15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="51"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A16" s="7"/>
-      <c r="B16" s="42" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="14" t="s">
         <v>24</v>
       </c>
@@ -4116,17 +4118,17 @@
       <c r="H16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="51"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A17" s="7"/>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="41"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
         <v>24</v>
       </c>
@@ -4139,17 +4141,17 @@
       <c r="H17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="51"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A18" s="7"/>
-      <c r="B18" s="42" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="41"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="14" t="s">
         <v>24</v>
       </c>
@@ -4162,17 +4164,17 @@
       <c r="H18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="49"/>
     </row>
     <row r="19" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A19" s="7"/>
-      <c r="B19" s="42" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="41"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="14" t="s">
         <v>24</v>
       </c>
@@ -4185,17 +4187,17 @@
       <c r="H19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="51"/>
+      <c r="I19" s="49"/>
     </row>
     <row r="20" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A20" s="7"/>
-      <c r="B20" s="42" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="41"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="14" t="s">
         <v>24</v>
       </c>
@@ -4208,17 +4210,17 @@
       <c r="H20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="51"/>
+      <c r="I20" s="49"/>
     </row>
     <row r="21" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A21" s="7"/>
-      <c r="B21" s="42" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="14" t="s">
         <v>24</v>
       </c>
@@ -4231,7 +4233,7 @@
       <c r="H21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="51"/>
+      <c r="I21" s="49"/>
     </row>
     <row r="22" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A22" s="38" t="s">
@@ -4243,18 +4245,18 @@
       <c r="C22" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="16"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="50"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="48"/>
     </row>
     <row r="23" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A23" s="38"/>
@@ -4264,16 +4266,16 @@
       <c r="C23" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="46" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="16"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="50"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="48"/>
     </row>
     <row r="24" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A24" s="38"/>
@@ -4283,16 +4285,16 @@
       <c r="C24" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="46" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="16"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="50"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="48"/>
     </row>
     <row r="25" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A25" s="38"/>
@@ -4302,16 +4304,16 @@
       <c r="C25" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="46" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="16"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="50"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="48"/>
     </row>
     <row r="26" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A26" s="38"/>
@@ -4321,16 +4323,16 @@
       <c r="C26" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="46" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="16"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="50"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="48"/>
     </row>
     <row r="27" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A27" s="38"/>
@@ -4340,16 +4342,16 @@
       <c r="C27" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="46" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="16"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="50"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="48"/>
     </row>
     <row r="28" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A28" s="38"/>
@@ -4359,16 +4361,16 @@
       <c r="C28" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="46" t="s">
+      <c r="D28" s="13"/>
+      <c r="E28" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="16"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="50"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="48"/>
     </row>
     <row r="29" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A29" s="38"/>
@@ -4378,16 +4380,16 @@
       <c r="C29" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="46" t="s">
+      <c r="D29" s="13"/>
+      <c r="E29" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="16"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="50"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="48"/>
     </row>
     <row r="30" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A30" s="38"/>
@@ -4397,16 +4399,16 @@
       <c r="C30" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="46" t="s">
+      <c r="D30" s="13"/>
+      <c r="E30" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G30" s="16"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="50"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="48"/>
     </row>
     <row r="31" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A31" s="38"/>
@@ -4416,16 +4418,16 @@
       <c r="C31" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="46" t="s">
+      <c r="D31" s="13"/>
+      <c r="E31" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="16"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="50"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="48"/>
     </row>
     <row r="32" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A32" s="38"/>
@@ -4435,16 +4437,16 @@
       <c r="C32" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="46" t="s">
+      <c r="D32" s="13"/>
+      <c r="E32" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G32" s="16"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="50"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="48"/>
     </row>
     <row r="33" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A33" s="38"/>
@@ -4454,28 +4456,28 @@
       <c r="C33" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="46" t="s">
+      <c r="D33" s="13"/>
+      <c r="E33" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="16"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="50"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="48"/>
     </row>
     <row r="34" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="13" t="s">
         <v>55</v>
       </c>
       <c r="E34" s="14" t="s">
@@ -4487,18 +4489,18 @@
       <c r="G34" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="51"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="49"/>
     </row>
     <row r="35" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="41"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="14" t="s">
         <v>56</v>
       </c>
@@ -4508,18 +4510,18 @@
       <c r="G35" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="51"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="49"/>
     </row>
     <row r="36" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="41"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="14" t="s">
         <v>56</v>
       </c>
@@ -4529,18 +4531,18 @@
       <c r="G36" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="51"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="49"/>
     </row>
     <row r="37" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="41"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="14" t="s">
         <v>56</v>
       </c>
@@ -4550,18 +4552,18 @@
       <c r="G37" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="51"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="49"/>
     </row>
     <row r="38" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="41"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="14" t="s">
         <v>56</v>
       </c>
@@ -4571,18 +4573,18 @@
       <c r="G38" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="51"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="49"/>
     </row>
     <row r="39" ht="13" customHeight="1" spans="1:1024">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="41"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="14" t="s">
         <v>56</v>
       </c>
@@ -4592,8 +4594,8 @@
       <c r="G39" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="51"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="49"/>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
@@ -5620,18 +5622,18 @@
       <c r="C40" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G40" s="16"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="50"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="48"/>
     </row>
     <row r="41" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A41" s="38"/>
@@ -5641,16 +5643,16 @@
       <c r="C41" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="46" t="s">
+      <c r="D41" s="13"/>
+      <c r="E41" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="16"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="50"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="48"/>
     </row>
     <row r="42" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A42" s="38"/>
@@ -5660,16 +5662,16 @@
       <c r="C42" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="46" t="s">
+      <c r="D42" s="13"/>
+      <c r="E42" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="16"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="50"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="48"/>
     </row>
     <row r="43" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A43" s="38"/>
@@ -5679,16 +5681,16 @@
       <c r="C43" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="46" t="s">
+      <c r="D43" s="13"/>
+      <c r="E43" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="16"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="50"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="48"/>
     </row>
     <row r="44" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A44" s="38"/>
@@ -5698,16 +5700,16 @@
       <c r="C44" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="46" t="s">
+      <c r="D44" s="13"/>
+      <c r="E44" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="16"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="50"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="48"/>
     </row>
     <row r="45" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A45" s="38"/>
@@ -5717,16 +5719,16 @@
       <c r="C45" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="46" t="s">
+      <c r="D45" s="13"/>
+      <c r="E45" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="16"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="50"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="48"/>
     </row>
     <row r="46" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A46" s="38"/>
@@ -5736,16 +5738,16 @@
       <c r="C46" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="46" t="s">
+      <c r="D46" s="13"/>
+      <c r="E46" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="16"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="50"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="48"/>
     </row>
     <row r="47" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A47" s="38"/>
@@ -5755,16 +5757,16 @@
       <c r="C47" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="46" t="s">
+      <c r="D47" s="13"/>
+      <c r="E47" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="16"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="50"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="48"/>
     </row>
     <row r="48" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A48" s="38"/>
@@ -5774,16 +5776,16 @@
       <c r="C48" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="46" t="s">
+      <c r="D48" s="13"/>
+      <c r="E48" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G48" s="16"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="50"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="48"/>
     </row>
     <row r="49" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A49" s="38"/>
@@ -5793,16 +5795,16 @@
       <c r="C49" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="46" t="s">
+      <c r="D49" s="13"/>
+      <c r="E49" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G49" s="16"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="50"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="48"/>
     </row>
     <row r="50" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A50" s="38"/>
@@ -5812,16 +5814,16 @@
       <c r="C50" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="46" t="s">
+      <c r="D50" s="13"/>
+      <c r="E50" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G50" s="16"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="50"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="48"/>
     </row>
     <row r="51" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A51" s="38"/>
@@ -5831,16 +5833,16 @@
       <c r="C51" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="46" t="s">
+      <c r="D51" s="13"/>
+      <c r="E51" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G51" s="16"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="50"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="48"/>
     </row>
     <row r="52" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A52" s="38"/>
@@ -5850,19 +5852,19 @@
       <c r="C52" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="46" t="s">
+      <c r="D52" s="13"/>
+      <c r="E52" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="16"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="50"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="48"/>
     </row>
     <row r="53" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="42" t="s">
         <v>77</v>
       </c>
       <c r="B53" s="39" t="s">
@@ -5871,569 +5873,569 @@
       <c r="C53" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="44" t="s">
+      <c r="D53" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G53" s="16"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="50"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="48"/>
     </row>
     <row r="54" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A54" s="43"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="39" t="s">
         <v>80</v>
       </c>
       <c r="C54" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="44"/>
-      <c r="E54" s="48" t="s">
+      <c r="D54" s="13"/>
+      <c r="E54" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G54" s="16"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="50"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="48"/>
     </row>
     <row r="55" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A55" s="43"/>
-      <c r="B55" s="45" t="s">
+      <c r="A55" s="42"/>
+      <c r="B55" s="43" t="s">
         <v>81</v>
       </c>
       <c r="C55" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="44"/>
-      <c r="E55" s="48" t="s">
+      <c r="D55" s="13"/>
+      <c r="E55" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G55" s="16"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="50"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="48"/>
     </row>
     <row r="56" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A56" s="43"/>
-      <c r="B56" s="45" t="s">
+      <c r="A56" s="42"/>
+      <c r="B56" s="43" t="s">
         <v>82</v>
       </c>
       <c r="C56" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="44"/>
-      <c r="E56" s="48" t="s">
+      <c r="D56" s="13"/>
+      <c r="E56" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G56" s="16"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="50"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="48"/>
     </row>
     <row r="57" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A57" s="43"/>
-      <c r="B57" s="45" t="s">
+      <c r="A57" s="42"/>
+      <c r="B57" s="43" t="s">
         <v>83</v>
       </c>
       <c r="C57" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="44"/>
-      <c r="E57" s="48" t="s">
+      <c r="D57" s="13"/>
+      <c r="E57" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G57" s="16"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="50"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="48"/>
     </row>
     <row r="58" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A58" s="43"/>
-      <c r="B58" s="45" t="s">
+      <c r="A58" s="42"/>
+      <c r="B58" s="43" t="s">
         <v>84</v>
       </c>
       <c r="C58" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="44"/>
-      <c r="E58" s="48" t="s">
+      <c r="D58" s="13"/>
+      <c r="E58" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G58" s="16"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="50"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="48"/>
     </row>
     <row r="59" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A59" s="43"/>
-      <c r="B59" s="45" t="s">
+      <c r="A59" s="42"/>
+      <c r="B59" s="43" t="s">
         <v>85</v>
       </c>
       <c r="C59" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="44"/>
-      <c r="E59" s="48" t="s">
+      <c r="D59" s="13"/>
+      <c r="E59" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G59" s="16"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="50"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="48"/>
     </row>
     <row r="60" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A60" s="43"/>
-      <c r="B60" s="45" t="s">
+      <c r="A60" s="42"/>
+      <c r="B60" s="43" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="44"/>
-      <c r="E60" s="48" t="s">
+      <c r="D60" s="13"/>
+      <c r="E60" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G60" s="16"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="50"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="48"/>
     </row>
     <row r="61" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A61" s="43"/>
-      <c r="B61" s="45" t="s">
+      <c r="A61" s="42"/>
+      <c r="B61" s="43" t="s">
         <v>87</v>
       </c>
       <c r="C61" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="44"/>
-      <c r="E61" s="48" t="s">
+      <c r="D61" s="13"/>
+      <c r="E61" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F61" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G61" s="16"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="50"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="48"/>
     </row>
     <row r="62" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A62" s="43"/>
-      <c r="B62" s="45" t="s">
+      <c r="A62" s="42"/>
+      <c r="B62" s="43" t="s">
         <v>88</v>
       </c>
       <c r="C62" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="44"/>
-      <c r="E62" s="48" t="s">
+      <c r="D62" s="13"/>
+      <c r="E62" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="16"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="50"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="48"/>
     </row>
     <row r="63" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A63" s="43"/>
-      <c r="B63" s="45" t="s">
+      <c r="A63" s="42"/>
+      <c r="B63" s="43" t="s">
         <v>89</v>
       </c>
       <c r="C63" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="44"/>
-      <c r="E63" s="48" t="s">
+      <c r="D63" s="13"/>
+      <c r="E63" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G63" s="16"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="50"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="48"/>
     </row>
     <row r="64" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A64" s="43"/>
-      <c r="B64" s="45" t="s">
+      <c r="A64" s="42"/>
+      <c r="B64" s="43" t="s">
         <v>90</v>
       </c>
       <c r="C64" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="44"/>
-      <c r="E64" s="48" t="s">
+      <c r="D64" s="13"/>
+      <c r="E64" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G64" s="16"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="50"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="48"/>
     </row>
     <row r="65" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A65" s="43"/>
-      <c r="B65" s="45" t="s">
+      <c r="A65" s="42"/>
+      <c r="B65" s="43" t="s">
         <v>91</v>
       </c>
       <c r="C65" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="44"/>
-      <c r="E65" s="48" t="s">
+      <c r="D65" s="13"/>
+      <c r="E65" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G65" s="16"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="50"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="48"/>
     </row>
     <row r="66" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A66" s="43"/>
-      <c r="B66" s="45" t="s">
+      <c r="A66" s="42"/>
+      <c r="B66" s="43" t="s">
         <v>92</v>
       </c>
       <c r="C66" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="44"/>
-      <c r="E66" s="48" t="s">
+      <c r="D66" s="13"/>
+      <c r="E66" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G66" s="16"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="50"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="48"/>
     </row>
     <row r="67" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A67" s="43"/>
-      <c r="B67" s="45" t="s">
+      <c r="A67" s="42"/>
+      <c r="B67" s="43" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="44"/>
-      <c r="E67" s="48" t="s">
+      <c r="D67" s="13"/>
+      <c r="E67" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G67" s="16"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="50"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="48"/>
     </row>
     <row r="68" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A68" s="43"/>
-      <c r="B68" s="45" t="s">
+      <c r="A68" s="42"/>
+      <c r="B68" s="43" t="s">
         <v>94</v>
       </c>
       <c r="C68" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="44"/>
-      <c r="E68" s="48" t="s">
+      <c r="D68" s="13"/>
+      <c r="E68" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G68" s="16"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="50"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="48"/>
     </row>
     <row r="69" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A69" s="43"/>
-      <c r="B69" s="45" t="s">
+      <c r="A69" s="42"/>
+      <c r="B69" s="43" t="s">
         <v>95</v>
       </c>
       <c r="C69" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="44"/>
-      <c r="E69" s="48" t="s">
+      <c r="D69" s="13"/>
+      <c r="E69" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G69" s="16"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="50"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="48"/>
     </row>
     <row r="70" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A70" s="43"/>
-      <c r="B70" s="45" t="s">
+      <c r="A70" s="42"/>
+      <c r="B70" s="43" t="s">
         <v>96</v>
       </c>
       <c r="C70" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="44"/>
-      <c r="E70" s="48" t="s">
+      <c r="D70" s="13"/>
+      <c r="E70" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G70" s="16"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="50"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="48"/>
     </row>
     <row r="71" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A71" s="43"/>
-      <c r="B71" s="45" t="s">
+      <c r="A71" s="42"/>
+      <c r="B71" s="43" t="s">
         <v>97</v>
       </c>
       <c r="C71" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="44"/>
-      <c r="E71" s="48" t="s">
+      <c r="D71" s="13"/>
+      <c r="E71" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G71" s="16"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="50"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="48"/>
     </row>
     <row r="72" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A72" s="43"/>
-      <c r="B72" s="45" t="s">
+      <c r="A72" s="42"/>
+      <c r="B72" s="43" t="s">
         <v>98</v>
       </c>
       <c r="C72" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="44"/>
-      <c r="E72" s="48" t="s">
+      <c r="D72" s="13"/>
+      <c r="E72" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G72" s="16"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="50"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="48"/>
     </row>
     <row r="73" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A73" s="43"/>
-      <c r="B73" s="45" t="s">
+      <c r="A73" s="42"/>
+      <c r="B73" s="43" t="s">
         <v>99</v>
       </c>
       <c r="C73" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="44"/>
-      <c r="E73" s="48" t="s">
+      <c r="D73" s="13"/>
+      <c r="E73" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G73" s="16"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="50"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="48"/>
     </row>
     <row r="74" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A74" s="43"/>
-      <c r="B74" s="45" t="s">
+      <c r="A74" s="42"/>
+      <c r="B74" s="43" t="s">
         <v>100</v>
       </c>
       <c r="C74" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="44"/>
-      <c r="E74" s="48" t="s">
+      <c r="D74" s="13"/>
+      <c r="E74" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G74" s="16"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="50"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="48"/>
     </row>
     <row r="75" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A75" s="43"/>
-      <c r="B75" s="45" t="s">
+      <c r="A75" s="42"/>
+      <c r="B75" s="43" t="s">
         <v>101</v>
       </c>
       <c r="C75" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="44"/>
-      <c r="E75" s="48" t="s">
+      <c r="D75" s="13"/>
+      <c r="E75" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F75" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G75" s="16"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="50"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="48"/>
     </row>
     <row r="76" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A76" s="43"/>
-      <c r="B76" s="45" t="s">
+      <c r="A76" s="42"/>
+      <c r="B76" s="43" t="s">
         <v>102</v>
       </c>
       <c r="C76" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="44"/>
-      <c r="E76" s="48" t="s">
+      <c r="D76" s="13"/>
+      <c r="E76" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F76" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G76" s="16"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="50"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="48"/>
     </row>
     <row r="77" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A77" s="43"/>
-      <c r="B77" s="45" t="s">
+      <c r="A77" s="42"/>
+      <c r="B77" s="43" t="s">
         <v>103</v>
       </c>
       <c r="C77" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="44"/>
-      <c r="E77" s="48" t="s">
+      <c r="D77" s="13"/>
+      <c r="E77" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F77" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G77" s="16"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="50"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="48"/>
     </row>
     <row r="78" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A78" s="43"/>
-      <c r="B78" s="45" t="s">
+      <c r="A78" s="42"/>
+      <c r="B78" s="43" t="s">
         <v>104</v>
       </c>
       <c r="C78" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="44"/>
-      <c r="E78" s="48" t="s">
+      <c r="D78" s="13"/>
+      <c r="E78" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G78" s="16"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="50"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="48"/>
     </row>
     <row r="79" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A79" s="43"/>
-      <c r="B79" s="45" t="s">
+      <c r="A79" s="42"/>
+      <c r="B79" s="43" t="s">
         <v>105</v>
       </c>
       <c r="C79" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="44"/>
-      <c r="E79" s="48" t="s">
+      <c r="D79" s="13"/>
+      <c r="E79" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G79" s="16"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="50"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="48"/>
     </row>
     <row r="80" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A80" s="43"/>
-      <c r="B80" s="45" t="s">
+      <c r="A80" s="42"/>
+      <c r="B80" s="43" t="s">
         <v>106</v>
       </c>
       <c r="C80" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="44"/>
-      <c r="E80" s="48" t="s">
+      <c r="D80" s="13"/>
+      <c r="E80" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G80" s="16"/>
-      <c r="H80" s="47"/>
-      <c r="I80" s="50"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="48"/>
     </row>
     <row r="81" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A81" s="43"/>
-      <c r="B81" s="45" t="s">
+      <c r="A81" s="42"/>
+      <c r="B81" s="43" t="s">
         <v>107</v>
       </c>
       <c r="C81" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="44"/>
-      <c r="E81" s="48" t="s">
+      <c r="D81" s="13"/>
+      <c r="E81" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F81" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G81" s="16"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="50"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="48"/>
     </row>
     <row r="82" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A82" s="43"/>
-      <c r="B82" s="45" t="s">
+      <c r="A82" s="42"/>
+      <c r="B82" s="43" t="s">
         <v>108</v>
       </c>
       <c r="C82" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="44"/>
-      <c r="E82" s="48" t="s">
+      <c r="D82" s="13"/>
+      <c r="E82" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G82" s="16"/>
-      <c r="H82" s="47"/>
-      <c r="I82" s="50"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="48"/>
     </row>
     <row r="83" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A83" s="38" t="s">
@@ -6445,18 +6447,18 @@
       <c r="C83" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="41" t="s">
+      <c r="D83" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E83" s="46" t="s">
+      <c r="E83" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G83" s="16"/>
-      <c r="H83" s="47"/>
-      <c r="I83" s="50"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="48"/>
     </row>
     <row r="84" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A84" s="38"/>
@@ -6466,28 +6468,28 @@
       <c r="C84" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="41"/>
-      <c r="E84" s="46" t="s">
+      <c r="D84" s="13"/>
+      <c r="E84" s="44" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G84" s="16"/>
-      <c r="H84" s="47"/>
-      <c r="I84" s="50"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="48"/>
     </row>
     <row r="85" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B85" s="52" t="s">
+      <c r="B85" s="50" t="s">
         <v>114</v>
       </c>
       <c r="C85" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="41" t="s">
+      <c r="D85" s="13" t="s">
         <v>115</v>
       </c>
       <c r="E85" s="14" t="s">
@@ -6502,17 +6504,17 @@
       <c r="H85" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I85" s="59"/>
+      <c r="I85" s="58"/>
     </row>
     <row r="86" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A86" s="7"/>
-      <c r="B86" s="52" t="s">
+      <c r="A86" s="6"/>
+      <c r="B86" s="50" t="s">
         <v>117</v>
       </c>
       <c r="C86" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="41"/>
+      <c r="D86" s="13"/>
       <c r="E86" s="14" t="s">
         <v>116</v>
       </c>
@@ -6525,17 +6527,17 @@
       <c r="H86" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I86" s="59"/>
+      <c r="I86" s="58"/>
     </row>
     <row r="87" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A87" s="7"/>
-      <c r="B87" s="52" t="s">
+      <c r="A87" s="6"/>
+      <c r="B87" s="50" t="s">
         <v>118</v>
       </c>
       <c r="C87" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="41"/>
+      <c r="D87" s="13"/>
       <c r="E87" s="14" t="s">
         <v>116</v>
       </c>
@@ -6548,17 +6550,17 @@
       <c r="H87" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I87" s="59"/>
+      <c r="I87" s="58"/>
     </row>
     <row r="88" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A88" s="7"/>
-      <c r="B88" s="52" t="s">
+      <c r="A88" s="6"/>
+      <c r="B88" s="50" t="s">
         <v>119</v>
       </c>
       <c r="C88" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="41"/>
+      <c r="D88" s="13"/>
       <c r="E88" s="14" t="s">
         <v>116</v>
       </c>
@@ -6571,17 +6573,17 @@
       <c r="H88" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I88" s="59"/>
+      <c r="I88" s="58"/>
     </row>
     <row r="89" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A89" s="7"/>
-      <c r="B89" s="52" t="s">
+      <c r="A89" s="6"/>
+      <c r="B89" s="50" t="s">
         <v>120</v>
       </c>
       <c r="C89" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="41"/>
+      <c r="D89" s="13"/>
       <c r="E89" s="14" t="s">
         <v>116</v>
       </c>
@@ -6594,17 +6596,17 @@
       <c r="H89" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I89" s="59"/>
+      <c r="I89" s="58"/>
     </row>
     <row r="90" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A90" s="7"/>
-      <c r="B90" s="52" t="s">
+      <c r="A90" s="6"/>
+      <c r="B90" s="50" t="s">
         <v>121</v>
       </c>
       <c r="C90" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="41"/>
+      <c r="D90" s="13"/>
       <c r="E90" s="14" t="s">
         <v>116</v>
       </c>
@@ -6617,17 +6619,17 @@
       <c r="H90" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I90" s="59"/>
+      <c r="I90" s="58"/>
     </row>
     <row r="91" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A91" s="7"/>
-      <c r="B91" s="52" t="s">
+      <c r="A91" s="6"/>
+      <c r="B91" s="50" t="s">
         <v>122</v>
       </c>
       <c r="C91" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="41"/>
+      <c r="D91" s="13"/>
       <c r="E91" s="14" t="s">
         <v>116</v>
       </c>
@@ -6640,17 +6642,17 @@
       <c r="H91" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I91" s="59"/>
+      <c r="I91" s="58"/>
     </row>
     <row r="92" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A92" s="7"/>
-      <c r="B92" s="52" t="s">
+      <c r="A92" s="6"/>
+      <c r="B92" s="50" t="s">
         <v>123</v>
       </c>
       <c r="C92" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="41"/>
+      <c r="D92" s="13"/>
       <c r="E92" s="14" t="s">
         <v>116</v>
       </c>
@@ -6663,17 +6665,17 @@
       <c r="H92" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I92" s="59"/>
+      <c r="I92" s="58"/>
     </row>
     <row r="93" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A93" s="7"/>
-      <c r="B93" s="52" t="s">
+      <c r="A93" s="6"/>
+      <c r="B93" s="50" t="s">
         <v>124</v>
       </c>
       <c r="C93" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="41"/>
+      <c r="D93" s="13"/>
       <c r="E93" s="14" t="s">
         <v>116</v>
       </c>
@@ -6686,17 +6688,17 @@
       <c r="H93" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I93" s="59"/>
+      <c r="I93" s="58"/>
     </row>
     <row r="94" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A94" s="7"/>
-      <c r="B94" s="52" t="s">
+      <c r="A94" s="6"/>
+      <c r="B94" s="50" t="s">
         <v>125</v>
       </c>
       <c r="C94" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="41"/>
+      <c r="D94" s="13"/>
       <c r="E94" s="14" t="s">
         <v>116</v>
       </c>
@@ -6709,17 +6711,17 @@
       <c r="H94" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I94" s="59"/>
+      <c r="I94" s="58"/>
     </row>
     <row r="95" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A95" s="7"/>
-      <c r="B95" s="52" t="s">
+      <c r="A95" s="6"/>
+      <c r="B95" s="50" t="s">
         <v>126</v>
       </c>
       <c r="C95" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="41"/>
+      <c r="D95" s="13"/>
       <c r="E95" s="14" t="s">
         <v>116</v>
       </c>
@@ -6732,17 +6734,17 @@
       <c r="H95" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I95" s="59"/>
+      <c r="I95" s="58"/>
     </row>
     <row r="96" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A96" s="7"/>
-      <c r="B96" s="52" t="s">
+      <c r="A96" s="6"/>
+      <c r="B96" s="50" t="s">
         <v>127</v>
       </c>
       <c r="C96" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="41"/>
+      <c r="D96" s="13"/>
       <c r="E96" s="14" t="s">
         <v>116</v>
       </c>
@@ -6755,17 +6757,17 @@
       <c r="H96" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I96" s="59"/>
+      <c r="I96" s="58"/>
     </row>
     <row r="97" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A97" s="7"/>
-      <c r="B97" s="52" t="s">
+      <c r="A97" s="6"/>
+      <c r="B97" s="50" t="s">
         <v>128</v>
       </c>
       <c r="C97" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="41"/>
+      <c r="D97" s="13"/>
       <c r="E97" s="14" t="s">
         <v>116</v>
       </c>
@@ -6778,17 +6780,17 @@
       <c r="H97" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I97" s="59"/>
+      <c r="I97" s="58"/>
     </row>
     <row r="98" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A98" s="7"/>
-      <c r="B98" s="52" t="s">
+      <c r="A98" s="6"/>
+      <c r="B98" s="50" t="s">
         <v>129</v>
       </c>
       <c r="C98" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="41"/>
+      <c r="D98" s="13"/>
       <c r="E98" s="14" t="s">
         <v>116</v>
       </c>
@@ -6801,17 +6803,17 @@
       <c r="H98" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I98" s="59"/>
+      <c r="I98" s="58"/>
     </row>
     <row r="99" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A99" s="7"/>
-      <c r="B99" s="52" t="s">
+      <c r="A99" s="6"/>
+      <c r="B99" s="50" t="s">
         <v>130</v>
       </c>
       <c r="C99" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="41"/>
+      <c r="D99" s="13"/>
       <c r="E99" s="14" t="s">
         <v>116</v>
       </c>
@@ -6824,17 +6826,17 @@
       <c r="H99" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I99" s="59"/>
+      <c r="I99" s="58"/>
     </row>
     <row r="100" ht="13" customHeight="1" spans="1:1024">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B100" s="52"/>
+      <c r="B100" s="50"/>
       <c r="C100" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="53"/>
+      <c r="D100" s="51"/>
       <c r="E100" s="14" t="s">
         <v>24</v>
       </c>
@@ -6843,7 +6845,7 @@
       </c>
       <c r="G100" s="16"/>
       <c r="H100" s="40"/>
-      <c r="I100" s="59"/>
+      <c r="I100" s="58"/>
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100"/>
@@ -7861,16 +7863,16 @@
       <c r="AMJ100"/>
     </row>
     <row r="101" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B101" s="54" t="s">
+      <c r="B101" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D101" s="44" t="s">
+      <c r="D101" s="13" t="s">
         <v>134</v>
       </c>
       <c r="E101" s="14" t="s">
@@ -7880,18 +7882,18 @@
         <v>25</v>
       </c>
       <c r="G101" s="16"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="51"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="49"/>
     </row>
     <row r="102" ht="13" customHeight="1" spans="1:1024">
-      <c r="A102" s="7"/>
-      <c r="B102" s="54" t="s">
+      <c r="A102" s="6"/>
+      <c r="B102" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="44"/>
+      <c r="D102" s="13"/>
       <c r="E102" s="14" t="s">
         <v>13</v>
       </c>
@@ -7899,8 +7901,8 @@
         <v>25</v>
       </c>
       <c r="G102" s="16"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="51"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="49"/>
       <c r="J102"/>
       <c r="K102"/>
       <c r="L102"/>
@@ -8918,14 +8920,14 @@
       <c r="AMJ102"/>
     </row>
     <row r="103" ht="13" customHeight="1" spans="1:1024">
-      <c r="A103" s="7"/>
-      <c r="B103" s="54" t="s">
+      <c r="A103" s="6"/>
+      <c r="B103" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="44"/>
+      <c r="D103" s="13"/>
       <c r="E103" s="14" t="s">
         <v>13</v>
       </c>
@@ -8933,8 +8935,8 @@
         <v>25</v>
       </c>
       <c r="G103" s="16"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="51"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="49"/>
       <c r="J103"/>
       <c r="K103"/>
       <c r="L103"/>
@@ -9952,14 +9954,14 @@
       <c r="AMJ103"/>
     </row>
     <row r="104" ht="13" customHeight="1" spans="1:1024">
-      <c r="A104" s="7"/>
-      <c r="B104" s="55" t="s">
+      <c r="A104" s="6"/>
+      <c r="B104" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="44"/>
+      <c r="D104" s="13"/>
       <c r="E104" s="14" t="s">
         <v>13</v>
       </c>
@@ -9967,8 +9969,8 @@
         <v>25</v>
       </c>
       <c r="G104" s="16"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="51"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="49"/>
       <c r="J104"/>
       <c r="K104"/>
       <c r="L104"/>
@@ -10986,16 +10988,16 @@
       <c r="AMJ104"/>
     </row>
     <row r="105" ht="13" customHeight="1" spans="1:1024">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B105" s="54" t="s">
+      <c r="B105" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="56" t="s">
+      <c r="D105" s="54" t="s">
         <v>140</v>
       </c>
       <c r="E105" s="14" t="s">
@@ -11010,7 +11012,7 @@
       <c r="H105" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I105" s="51" t="s">
+      <c r="I105" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J105"/>
@@ -12030,14 +12032,14 @@
       <c r="AMJ105"/>
     </row>
     <row r="106" ht="13" customHeight="1" spans="1:1024">
-      <c r="A106" s="7"/>
-      <c r="B106" s="54" t="s">
+      <c r="A106" s="6"/>
+      <c r="B106" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="56"/>
+      <c r="D106" s="54"/>
       <c r="E106" s="14" t="s">
         <v>13</v>
       </c>
@@ -12050,7 +12052,7 @@
       <c r="H106" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I106" s="51" t="s">
+      <c r="I106" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J106"/>
@@ -13070,14 +13072,14 @@
       <c r="AMJ106"/>
     </row>
     <row r="107" ht="13" customHeight="1" spans="1:1024">
-      <c r="A107" s="7"/>
-      <c r="B107" s="42" t="s">
+      <c r="A107" s="6"/>
+      <c r="B107" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="56"/>
+      <c r="D107" s="54"/>
       <c r="E107" s="14" t="s">
         <v>13</v>
       </c>
@@ -13090,7 +13092,7 @@
       <c r="H107" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I107" s="51" t="s">
+      <c r="I107" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J107"/>
@@ -14110,14 +14112,14 @@
       <c r="AMJ107"/>
     </row>
     <row r="108" ht="13" customHeight="1" spans="1:1024">
-      <c r="A108" s="7"/>
-      <c r="B108" s="42" t="s">
+      <c r="A108" s="6"/>
+      <c r="B108" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="56"/>
+      <c r="D108" s="54"/>
       <c r="E108" s="14" t="s">
         <v>13</v>
       </c>
@@ -14130,7 +14132,7 @@
       <c r="H108" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I108" s="51" t="s">
+      <c r="I108" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J108"/>
@@ -15150,14 +15152,14 @@
       <c r="AMJ108"/>
     </row>
     <row r="109" ht="13" customHeight="1" spans="1:1024">
-      <c r="A109" s="7"/>
-      <c r="B109" s="42" t="s">
+      <c r="A109" s="6"/>
+      <c r="B109" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D109" s="56"/>
+      <c r="D109" s="54"/>
       <c r="E109" s="14" t="s">
         <v>13</v>
       </c>
@@ -15170,7 +15172,7 @@
       <c r="H109" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I109" s="51" t="s">
+      <c r="I109" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J109"/>
@@ -16190,14 +16192,14 @@
       <c r="AMJ109"/>
     </row>
     <row r="110" ht="13" customHeight="1" spans="1:1024">
-      <c r="A110" s="7"/>
-      <c r="B110" s="42" t="s">
+      <c r="A110" s="6"/>
+      <c r="B110" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="56"/>
+      <c r="D110" s="54"/>
       <c r="E110" s="14" t="s">
         <v>13</v>
       </c>
@@ -16210,7 +16212,7 @@
       <c r="H110" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I110" s="51" t="s">
+      <c r="I110" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J110"/>
@@ -17230,14 +17232,14 @@
       <c r="AMJ110"/>
     </row>
     <row r="111" ht="13" customHeight="1" spans="1:1024">
-      <c r="A111" s="7"/>
-      <c r="B111" s="42" t="s">
+      <c r="A111" s="6"/>
+      <c r="B111" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D111" s="56"/>
+      <c r="D111" s="54"/>
       <c r="E111" s="14" t="s">
         <v>13</v>
       </c>
@@ -17250,7 +17252,7 @@
       <c r="H111" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I111" s="51" t="s">
+      <c r="I111" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J111"/>
@@ -18270,14 +18272,14 @@
       <c r="AMJ111"/>
     </row>
     <row r="112" ht="13" customHeight="1" spans="1:1024">
-      <c r="A112" s="7"/>
-      <c r="B112" s="42" t="s">
+      <c r="A112" s="6"/>
+      <c r="B112" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D112" s="56"/>
+      <c r="D112" s="54"/>
       <c r="E112" s="14" t="s">
         <v>13</v>
       </c>
@@ -18290,7 +18292,7 @@
       <c r="H112" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I112" s="51" t="s">
+      <c r="I112" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J112"/>
@@ -19310,14 +19312,14 @@
       <c r="AMJ112"/>
     </row>
     <row r="113" ht="13" customHeight="1" spans="1:1024">
-      <c r="A113" s="7"/>
-      <c r="B113" s="42" t="s">
+      <c r="A113" s="6"/>
+      <c r="B113" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="56"/>
+      <c r="D113" s="54"/>
       <c r="E113" s="14" t="s">
         <v>13</v>
       </c>
@@ -19330,7 +19332,7 @@
       <c r="H113" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I113" s="51" t="s">
+      <c r="I113" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J113"/>
@@ -20350,14 +20352,14 @@
       <c r="AMJ113"/>
     </row>
     <row r="114" ht="13" customHeight="1" spans="1:1024">
-      <c r="A114" s="7"/>
-      <c r="B114" s="42" t="s">
+      <c r="A114" s="6"/>
+      <c r="B114" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D114" s="56"/>
+      <c r="D114" s="54"/>
       <c r="E114" s="14" t="s">
         <v>13</v>
       </c>
@@ -20370,7 +20372,7 @@
       <c r="H114" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I114" s="51" t="s">
+      <c r="I114" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J114"/>
@@ -21390,14 +21392,14 @@
       <c r="AMJ114"/>
     </row>
     <row r="115" ht="13" customHeight="1" spans="1:1024">
-      <c r="A115" s="7"/>
-      <c r="B115" s="42" t="s">
+      <c r="A115" s="6"/>
+      <c r="B115" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D115" s="56"/>
+      <c r="D115" s="54"/>
       <c r="E115" s="14" t="s">
         <v>13</v>
       </c>
@@ -21410,7 +21412,7 @@
       <c r="H115" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I115" s="51" t="s">
+      <c r="I115" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J115"/>
@@ -22430,14 +22432,14 @@
       <c r="AMJ115"/>
     </row>
     <row r="116" ht="13" customHeight="1" spans="1:1024">
-      <c r="A116" s="7"/>
-      <c r="B116" s="42" t="s">
+      <c r="A116" s="6"/>
+      <c r="B116" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D116" s="56"/>
+      <c r="D116" s="54"/>
       <c r="E116" s="14" t="s">
         <v>13</v>
       </c>
@@ -22450,7 +22452,7 @@
       <c r="H116" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I116" s="51" t="s">
+      <c r="I116" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J116"/>
@@ -23470,14 +23472,14 @@
       <c r="AMJ116"/>
     </row>
     <row r="117" ht="13" customHeight="1" spans="1:1024">
-      <c r="A117" s="7"/>
-      <c r="B117" s="42" t="s">
+      <c r="A117" s="6"/>
+      <c r="B117" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="56"/>
+      <c r="D117" s="54"/>
       <c r="E117" s="14" t="s">
         <v>13</v>
       </c>
@@ -23490,7 +23492,7 @@
       <c r="H117" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I117" s="51" t="s">
+      <c r="I117" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J117"/>
@@ -24510,14 +24512,14 @@
       <c r="AMJ117"/>
     </row>
     <row r="118" ht="13" customHeight="1" spans="1:1024">
-      <c r="A118" s="7"/>
-      <c r="B118" s="54" t="s">
+      <c r="A118" s="6"/>
+      <c r="B118" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="56"/>
+      <c r="D118" s="54"/>
       <c r="E118" s="14" t="s">
         <v>13</v>
       </c>
@@ -24530,7 +24532,7 @@
       <c r="H118" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I118" s="51" t="s">
+      <c r="I118" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J118"/>
@@ -25550,14 +25552,14 @@
       <c r="AMJ118"/>
     </row>
     <row r="119" ht="13" customHeight="1" spans="1:1024">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B119" s="57"/>
-      <c r="C119" s="9" t="s">
+      <c r="B119" s="55"/>
+      <c r="C119" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D119" s="41"/>
+      <c r="D119" s="56"/>
       <c r="E119" s="14" t="s">
         <v>13</v>
       </c>
@@ -25565,8 +25567,8 @@
         <v>25</v>
       </c>
       <c r="G119" s="16"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="51"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="49"/>
       <c r="J119"/>
       <c r="K119"/>
       <c r="L119"/>
@@ -26584,16 +26586,16 @@
       <c r="AMJ119"/>
     </row>
     <row r="120" ht="13" customHeight="1" spans="1:1024">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="41" t="s">
+      <c r="D120" s="13" t="s">
         <v>159</v>
       </c>
       <c r="E120" s="14" t="s">
@@ -26603,8 +26605,8 @@
         <v>25</v>
       </c>
       <c r="G120" s="16"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="51"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="49"/>
       <c r="J120"/>
       <c r="K120"/>
       <c r="L120"/>
@@ -27622,14 +27624,14 @@
       <c r="AMJ120"/>
     </row>
     <row r="121" ht="13" customHeight="1" spans="1:1024">
-      <c r="A121" s="7"/>
-      <c r="B121" s="8" t="s">
+      <c r="A121" s="6"/>
+      <c r="B121" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="41"/>
+      <c r="D121" s="13"/>
       <c r="E121" s="14" t="s">
         <v>13</v>
       </c>
@@ -27637,8 +27639,8 @@
         <v>25</v>
       </c>
       <c r="G121" s="16"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="51"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="49"/>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121"/>
@@ -28656,14 +28658,14 @@
       <c r="AMJ121"/>
     </row>
     <row r="122" ht="13" customHeight="1" spans="1:1024">
-      <c r="A122" s="7"/>
-      <c r="B122" s="8" t="s">
+      <c r="A122" s="6"/>
+      <c r="B122" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D122" s="41"/>
+      <c r="D122" s="13"/>
       <c r="E122" s="14" t="s">
         <v>13</v>
       </c>
@@ -28671,8 +28673,8 @@
         <v>25</v>
       </c>
       <c r="G122" s="16"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="51"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="49"/>
       <c r="J122"/>
       <c r="K122"/>
       <c r="L122"/>
@@ -29690,14 +29692,14 @@
       <c r="AMJ122"/>
     </row>
     <row r="123" ht="13" customHeight="1" spans="1:1024">
-      <c r="A123" s="7"/>
+      <c r="A123" s="6"/>
       <c r="B123" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D123" s="41"/>
+      <c r="D123" s="13"/>
       <c r="E123" s="14" t="s">
         <v>13</v>
       </c>
@@ -29705,8 +29707,8 @@
         <v>25</v>
       </c>
       <c r="G123" s="16"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="51"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="49"/>
       <c r="J123"/>
       <c r="K123"/>
       <c r="L123"/>
@@ -30724,16 +30726,16 @@
       <c r="AMJ123"/>
     </row>
     <row r="124" ht="13" customHeight="1" spans="1:1024">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B124" s="54" t="s">
+      <c r="B124" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D124" s="44" t="s">
+      <c r="D124" s="13" t="s">
         <v>165</v>
       </c>
       <c r="E124" s="14" t="s">
@@ -30748,7 +30750,7 @@
       <c r="H124" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I124" s="51" t="s">
+      <c r="I124" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J124"/>
@@ -31768,14 +31770,14 @@
       <c r="AMJ124"/>
     </row>
     <row r="125" ht="13" customHeight="1" spans="1:1024">
-      <c r="A125" s="7"/>
-      <c r="B125" s="42" t="s">
+      <c r="A125" s="6"/>
+      <c r="B125" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D125" s="44"/>
+      <c r="D125" s="13"/>
       <c r="E125" s="14" t="s">
         <v>13</v>
       </c>
@@ -31788,7 +31790,7 @@
       <c r="H125" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I125" s="51" t="s">
+      <c r="I125" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J125"/>
@@ -32808,14 +32810,14 @@
       <c r="AMJ125"/>
     </row>
     <row r="126" ht="13" customHeight="1" spans="1:1024">
-      <c r="A126" s="7"/>
-      <c r="B126" s="42" t="s">
+      <c r="A126" s="6"/>
+      <c r="B126" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D126" s="44"/>
+      <c r="D126" s="13"/>
       <c r="E126" s="14" t="s">
         <v>13</v>
       </c>
@@ -32828,7 +32830,7 @@
       <c r="H126" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I126" s="51" t="s">
+      <c r="I126" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J126"/>
@@ -33848,14 +33850,14 @@
       <c r="AMJ126"/>
     </row>
     <row r="127" ht="13" customHeight="1" spans="1:1024">
-      <c r="A127" s="7"/>
-      <c r="B127" s="58" t="s">
+      <c r="A127" s="6"/>
+      <c r="B127" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="44"/>
+      <c r="D127" s="13"/>
       <c r="E127" s="14" t="s">
         <v>13</v>
       </c>
@@ -33868,7 +33870,7 @@
       <c r="H127" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I127" s="51" t="s">
+      <c r="I127" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J127"/>
@@ -34888,14 +34890,14 @@
       <c r="AMJ127"/>
     </row>
     <row r="128" ht="13" customHeight="1" spans="1:1024">
-      <c r="A128" s="7"/>
-      <c r="B128" s="58" t="s">
+      <c r="A128" s="6"/>
+      <c r="B128" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D128" s="44"/>
+      <c r="D128" s="13"/>
       <c r="E128" s="14" t="s">
         <v>13</v>
       </c>
@@ -34908,7 +34910,7 @@
       <c r="H128" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I128" s="51" t="s">
+      <c r="I128" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J128"/>
@@ -35928,14 +35930,14 @@
       <c r="AMJ128"/>
     </row>
     <row r="129" ht="13" customHeight="1" spans="1:1024">
-      <c r="A129" s="7"/>
-      <c r="B129" s="58" t="s">
+      <c r="A129" s="6"/>
+      <c r="B129" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D129" s="44"/>
+      <c r="D129" s="13"/>
       <c r="E129" s="14" t="s">
         <v>13</v>
       </c>
@@ -35948,7 +35950,7 @@
       <c r="H129" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I129" s="51" t="s">
+      <c r="I129" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J129"/>
@@ -36968,14 +36970,14 @@
       <c r="AMJ129"/>
     </row>
     <row r="130" ht="13" customHeight="1" spans="1:1024">
-      <c r="A130" s="7"/>
-      <c r="B130" s="58" t="s">
+      <c r="A130" s="6"/>
+      <c r="B130" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D130" s="44"/>
+      <c r="D130" s="13"/>
       <c r="E130" s="14" t="s">
         <v>13</v>
       </c>
@@ -36988,7 +36990,7 @@
       <c r="H130" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I130" s="51" t="s">
+      <c r="I130" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J130"/>
@@ -38008,14 +38010,14 @@
       <c r="AMJ130"/>
     </row>
     <row r="131" ht="13" customHeight="1" spans="1:1024">
-      <c r="A131" s="7"/>
-      <c r="B131" s="58" t="s">
+      <c r="A131" s="6"/>
+      <c r="B131" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="44"/>
+      <c r="D131" s="13"/>
       <c r="E131" s="14" t="s">
         <v>13</v>
       </c>
@@ -38028,7 +38030,7 @@
       <c r="H131" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I131" s="51" t="s">
+      <c r="I131" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J131"/>
@@ -39048,14 +39050,14 @@
       <c r="AMJ131"/>
     </row>
     <row r="132" ht="13" customHeight="1" spans="1:1024">
-      <c r="A132" s="7"/>
-      <c r="B132" s="58" t="s">
+      <c r="A132" s="6"/>
+      <c r="B132" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="44"/>
+      <c r="D132" s="13"/>
       <c r="E132" s="14" t="s">
         <v>13</v>
       </c>
@@ -39068,7 +39070,7 @@
       <c r="H132" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I132" s="51" t="s">
+      <c r="I132" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J132"/>
@@ -40088,14 +40090,14 @@
       <c r="AMJ132"/>
     </row>
     <row r="133" ht="13" customHeight="1" spans="1:1024">
-      <c r="A133" s="7"/>
-      <c r="B133" s="58" t="s">
+      <c r="A133" s="6"/>
+      <c r="B133" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C133" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="44"/>
+      <c r="D133" s="13"/>
       <c r="E133" s="14" t="s">
         <v>13</v>
       </c>
@@ -40108,7 +40110,7 @@
       <c r="H133" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I133" s="51" t="s">
+      <c r="I133" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J133"/>
@@ -41128,14 +41130,14 @@
       <c r="AMJ133"/>
     </row>
     <row r="134" ht="13" customHeight="1" spans="1:1024">
-      <c r="A134" s="7"/>
-      <c r="B134" s="58" t="s">
+      <c r="A134" s="6"/>
+      <c r="B134" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="44"/>
+      <c r="D134" s="13"/>
       <c r="E134" s="14" t="s">
         <v>13</v>
       </c>
@@ -41148,7 +41150,7 @@
       <c r="H134" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I134" s="51" t="s">
+      <c r="I134" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J134"/>
@@ -42168,14 +42170,14 @@
       <c r="AMJ134"/>
     </row>
     <row r="135" ht="13" customHeight="1" spans="1:1024">
-      <c r="A135" s="7"/>
-      <c r="B135" s="60" t="s">
+      <c r="A135" s="6"/>
+      <c r="B135" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="C135" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="44"/>
+      <c r="D135" s="13"/>
       <c r="E135" s="14" t="s">
         <v>13</v>
       </c>
@@ -42188,7 +42190,7 @@
       <c r="H135" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I135" s="51" t="s">
+      <c r="I135" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J135"/>
@@ -43208,14 +43210,14 @@
       <c r="AMJ135"/>
     </row>
     <row r="136" ht="13" customHeight="1" spans="1:1024">
-      <c r="A136" s="7"/>
-      <c r="B136" s="60" t="s">
+      <c r="A136" s="6"/>
+      <c r="B136" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D136" s="44"/>
+      <c r="D136" s="13"/>
       <c r="E136" s="14" t="s">
         <v>13</v>
       </c>
@@ -43228,7 +43230,7 @@
       <c r="H136" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I136" s="51" t="s">
+      <c r="I136" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J136"/>
@@ -44248,14 +44250,14 @@
       <c r="AMJ136"/>
     </row>
     <row r="137" ht="13" customHeight="1" spans="1:1024">
-      <c r="A137" s="7"/>
-      <c r="B137" s="60" t="s">
+      <c r="A137" s="6"/>
+      <c r="B137" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="44"/>
+      <c r="D137" s="13"/>
       <c r="E137" s="14" t="s">
         <v>13</v>
       </c>
@@ -44268,7 +44270,7 @@
       <c r="H137" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I137" s="51" t="s">
+      <c r="I137" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J137"/>
@@ -45288,14 +45290,14 @@
       <c r="AMJ137"/>
     </row>
     <row r="138" ht="13" customHeight="1" spans="1:1024">
-      <c r="A138" s="7"/>
-      <c r="B138" s="60" t="s">
+      <c r="A138" s="6"/>
+      <c r="B138" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D138" s="44"/>
+      <c r="D138" s="13"/>
       <c r="E138" s="14" t="s">
         <v>13</v>
       </c>
@@ -45308,7 +45310,7 @@
       <c r="H138" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I138" s="51" t="s">
+      <c r="I138" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J138"/>
@@ -46328,14 +46330,14 @@
       <c r="AMJ138"/>
     </row>
     <row r="139" ht="13" customHeight="1" spans="1:1024">
-      <c r="A139" s="7"/>
-      <c r="B139" s="54" t="s">
+      <c r="A139" s="6"/>
+      <c r="B139" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D139" s="44"/>
+      <c r="D139" s="13"/>
       <c r="E139" s="14" t="s">
         <v>13</v>
       </c>
@@ -46348,7 +46350,7 @@
       <c r="H139" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I139" s="51" t="s">
+      <c r="I139" s="49" t="s">
         <v>142</v>
       </c>
       <c r="J139"/>
@@ -47368,19 +47370,19 @@
       <c r="AMJ139"/>
     </row>
     <row r="140" ht="13" customHeight="1" spans="1:1024">
-      <c r="A140" s="7" t="s">
+      <c r="A140" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B140" s="52"/>
-      <c r="C140" s="9" t="s">
+      <c r="B140" s="50"/>
+      <c r="C140" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D140" s="41"/>
+      <c r="D140" s="56"/>
       <c r="E140" s="40"/>
       <c r="F140" s="15"/>
       <c r="G140" s="16"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="51"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="49"/>
       <c r="J140"/>
       <c r="K140"/>
       <c r="L140"/>
@@ -48398,27 +48400,27 @@
       <c r="AMJ140"/>
     </row>
     <row r="141" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A141" s="61" t="s">
+      <c r="A141" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="B141" s="62" t="s">
+      <c r="B141" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="C141" s="63" t="s">
+      <c r="C141" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D141" s="64" t="s">
+      <c r="D141" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="E141" s="65" t="s">
+      <c r="E141" s="64" t="s">
         <v>13</v>
       </c>
       <c r="F141" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G141" s="66"/>
-      <c r="H141" s="67"/>
-      <c r="I141" s="68"/>
+      <c r="G141" s="65"/>
+      <c r="H141" s="66"/>
+      <c r="I141" s="67"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I141"/>
@@ -48479,9 +48481,21 @@
     <hyperlink ref="D105" r:id="rId11" display="lttng-modules.sh"/>
     <hyperlink ref="D120" r:id="rId12" display="grafana.sh"/>
     <hyperlink ref="D124" r:id="rId13" display="ktap.md"/>
-    <hyperlink ref="D141" r:id="rId14" display="ui-browser-test.yaml"/>
+    <hyperlink ref="D141" r:id="rId14" display="ui-browser-test.sh"/>
+    <hyperlink ref="D2:D8" r:id="rId15" display="strace.md"/>
+    <hyperlink ref="D9:D21" r:id="rId16" display="ltrace.sh"/>
+    <hyperlink ref="D22:D33" r:id="rId17" display="ftrace.md"/>
+    <hyperlink ref="D34:D39" r:id="rId18" display="blktrace.sh"/>
+    <hyperlink ref="D40:D52" r:id="rId19" display="gdb.md"/>
+    <hyperlink ref="D53:D82" r:id="rId20" display="pointer-tagging-tests.sh"/>
+    <hyperlink ref="D83:D84" r:id="rId21" display="toolchain-smoke.sh"/>
+    <hyperlink ref="D85:D99" r:id="rId22" display="bazel.sh"/>
+    <hyperlink ref="D101:D104" r:id="rId23" display="source-highlight.sh"/>
+    <hyperlink ref="D105:D118" r:id="rId24" display="lttng-modules.sh"/>
+    <hyperlink ref="D120:D123" r:id="rId25" display="grafana.sh"/>
+    <hyperlink ref="D124:D139" r:id="rId26" display="ktap.md"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -48492,66 +48506,66 @@
   <sheetPr/>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98:D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.1142857142857" style="3"/>
-    <col min="2" max="2" width="24.4380952380952"/>
-    <col min="3" max="3" width="6.75238095238095"/>
-    <col min="4" max="4" width="22.0095238095238" style="3"/>
-    <col min="5" max="5" width="15.1428571428571" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.2" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.1166666666667" style="2"/>
+    <col min="2" max="2" width="24.4416666666667"/>
+    <col min="3" max="3" width="6.75"/>
+    <col min="4" max="4" width="22.0083333333333" style="2"/>
+    <col min="5" max="5" width="15.1416666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.2" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.6666666666667"/>
-    <col min="8" max="8" width="15.1428571428571" customWidth="1"/>
-    <col min="9" max="9" width="30.3714285714286"/>
-    <col min="10" max="1025" width="8.63809523809524"/>
+    <col min="8" max="8" width="15.1416666666667" customWidth="1"/>
+    <col min="9" max="9" width="30.375"/>
+    <col min="10" max="1025" width="8.64166666666667"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A2" s="7" t="s">
+    <row r="2" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>186</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -48568,12 +48582,12 @@
       </c>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D3" s="10"/>
@@ -48591,12 +48605,12 @@
       </c>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D4" s="10"/>
@@ -48614,8 +48628,8 @@
       </c>
       <c r="I4" s="18"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A5" s="7"/>
+    <row r="5" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A5" s="6"/>
       <c r="B5" s="11" t="s">
         <v>162</v>
       </c>
@@ -48637,17 +48651,17 @@
       </c>
       <c r="I5" s="18"/>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A6" s="7" t="s">
+    <row r="6" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A6" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="13" t="s">
         <v>188</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -48664,15 +48678,15 @@
       </c>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+    <row r="7" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
         <v>56</v>
       </c>
@@ -48687,15 +48701,15 @@
       </c>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+    <row r="8" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
         <v>56</v>
       </c>
@@ -48710,15 +48724,15 @@
       </c>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A9" s="7"/>
+    <row r="9" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
         <v>56</v>
       </c>
@@ -48733,14 +48747,14 @@
       </c>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="7" t="s">
+    <row r="10" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A10" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -48760,12 +48774,12 @@
       </c>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" ht="12" spans="1:9">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D11" s="13"/>
@@ -48783,12 +48797,12 @@
       </c>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" ht="12" spans="1:9">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D12" s="13"/>
@@ -48806,8 +48820,8 @@
       </c>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" ht="12" spans="1:9">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6"/>
       <c r="B13" s="11" t="s">
         <v>162</v>
       </c>
@@ -48829,17 +48843,17 @@
       </c>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="7" t="s">
+    <row r="14" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A14" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="13" t="s">
         <v>192</v>
       </c>
       <c r="E14" s="14" t="s">
@@ -48856,15 +48870,15 @@
       </c>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" ht="12" spans="1:9">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
         <v>56</v>
       </c>
@@ -48879,15 +48893,15 @@
       </c>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" ht="12" spans="1:9">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="14" t="s">
         <v>56</v>
       </c>
@@ -48902,15 +48916,15 @@
       </c>
       <c r="I16" s="18"/>
     </row>
-    <row r="17" ht="12" spans="1:9">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6"/>
       <c r="B17" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
         <v>56</v>
       </c>
@@ -48925,17 +48939,17 @@
       </c>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="7" t="s">
+    <row r="18" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A18" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="13" t="s">
         <v>194</v>
       </c>
       <c r="E18" s="14" t="s">
@@ -48952,15 +48966,15 @@
       </c>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" ht="12" spans="1:9">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="14" t="s">
         <v>56</v>
       </c>
@@ -48975,15 +48989,15 @@
       </c>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" ht="12" spans="1:9">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="14" t="s">
         <v>56</v>
       </c>
@@ -48998,15 +49012,15 @@
       </c>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" ht="12" spans="1:9">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:9">
+      <c r="A21" s="6"/>
       <c r="B21" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="14" t="s">
         <v>56</v>
       </c>
@@ -49021,17 +49035,17 @@
       </c>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="7" t="s">
+    <row r="22" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A22" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="13" t="s">
         <v>196</v>
       </c>
       <c r="E22" s="14" t="s">
@@ -49048,15 +49062,15 @@
       </c>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" ht="12" spans="1:9">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="14" t="s">
         <v>56</v>
       </c>
@@ -49071,15 +49085,15 @@
       </c>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" ht="12" spans="1:9">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="14" t="s">
         <v>56</v>
       </c>
@@ -49094,15 +49108,15 @@
       </c>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" ht="12" spans="1:9">
-      <c r="A25" s="7"/>
+    <row r="25" spans="1:9">
+      <c r="A25" s="6"/>
       <c r="B25" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="14" t="s">
         <v>56</v>
       </c>
@@ -49117,17 +49131,17 @@
       </c>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="7" t="s">
+    <row r="26" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A26" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="13" t="s">
         <v>198</v>
       </c>
       <c r="E26" s="14" t="s">
@@ -49144,15 +49158,15 @@
       </c>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" ht="12" spans="1:9">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="14" t="s">
         <v>56</v>
       </c>
@@ -49167,15 +49181,15 @@
       </c>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" ht="12" spans="1:9">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="14" t="s">
         <v>56</v>
       </c>
@@ -49190,15 +49204,15 @@
       </c>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" ht="12" spans="1:9">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:9">
+      <c r="A29" s="6"/>
       <c r="B29" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="14" t="s">
         <v>56</v>
       </c>
@@ -49213,17 +49227,17 @@
       </c>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="7" t="s">
+    <row r="30" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A30" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="13" t="s">
         <v>200</v>
       </c>
       <c r="E30" s="14" t="s">
@@ -49240,15 +49254,15 @@
       </c>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" ht="12" spans="1:9">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="14" t="s">
         <v>56</v>
       </c>
@@ -49263,15 +49277,15 @@
       </c>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" ht="12" spans="1:9">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="14" t="s">
         <v>56</v>
       </c>
@@ -49286,15 +49300,15 @@
       </c>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" ht="12" spans="1:9">
-      <c r="A33" s="7"/>
+    <row r="33" spans="1:9">
+      <c r="A33" s="6"/>
       <c r="B33" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="14" t="s">
         <v>56</v>
       </c>
@@ -49309,17 +49323,17 @@
       </c>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="7" t="s">
+    <row r="34" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A34" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E34" s="14" t="s">
@@ -49336,15 +49350,15 @@
       </c>
       <c r="I34" s="18"/>
     </row>
-    <row r="35" ht="12" spans="1:9">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8" t="s">
+    <row r="35" spans="1:9">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="14" t="s">
         <v>56</v>
       </c>
@@ -49359,15 +49373,15 @@
       </c>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" ht="12" spans="1:9">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8" t="s">
+    <row r="36" spans="1:9">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="14" t="s">
         <v>56</v>
       </c>
@@ -49382,15 +49396,15 @@
       </c>
       <c r="I36" s="18"/>
     </row>
-    <row r="37" ht="12" spans="1:9">
-      <c r="A37" s="7"/>
+    <row r="37" spans="1:9">
+      <c r="A37" s="6"/>
       <c r="B37" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="14" t="s">
         <v>56</v>
       </c>
@@ -49405,18 +49419,18 @@
       </c>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="7" t="s">
+    <row r="38" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A38" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>202</v>
+      <c r="D38" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>56</v>
@@ -49432,12 +49446,12 @@
       </c>
       <c r="I38" s="18"/>
     </row>
-    <row r="39" ht="12" spans="1:9">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D39" s="10"/>
@@ -49455,12 +49469,12 @@
       </c>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" ht="12" spans="1:9">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8" t="s">
+    <row r="40" spans="1:9">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D40" s="10"/>
@@ -49478,8 +49492,8 @@
       </c>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" ht="12" spans="1:9">
-      <c r="A41" s="7"/>
+    <row r="41" spans="1:9">
+      <c r="A41" s="6"/>
       <c r="B41" s="11" t="s">
         <v>162</v>
       </c>
@@ -49501,18 +49515,18 @@
       </c>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B42" s="8" t="s">
+    <row r="42" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A42" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>205</v>
+      <c r="D42" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>56</v>
@@ -49528,15 +49542,15 @@
       </c>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" ht="12" spans="1:9">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8" t="s">
+    <row r="43" spans="1:9">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D43" s="10"/>
+      <c r="D43" s="13"/>
       <c r="E43" s="14" t="s">
         <v>56</v>
       </c>
@@ -49551,15 +49565,15 @@
       </c>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" ht="12" spans="1:9">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8" t="s">
+    <row r="44" spans="1:9">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D44" s="10"/>
+      <c r="D44" s="13"/>
       <c r="E44" s="14" t="s">
         <v>56</v>
       </c>
@@ -49574,15 +49588,15 @@
       </c>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" ht="12" spans="1:9">
-      <c r="A45" s="7"/>
+    <row r="45" spans="1:9">
+      <c r="A45" s="6"/>
       <c r="B45" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D45" s="10"/>
+      <c r="D45" s="13"/>
       <c r="E45" s="14" t="s">
         <v>56</v>
       </c>
@@ -49597,18 +49611,18 @@
       </c>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" customHeight="1" spans="1:9">
-      <c r="A46" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B46" s="8" t="s">
+    <row r="46" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A46" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>207</v>
+      <c r="D46" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>56</v>
@@ -49624,15 +49638,15 @@
       </c>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" ht="12" spans="1:9">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8" t="s">
+    <row r="47" spans="1:9">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="10"/>
+      <c r="D47" s="13"/>
       <c r="E47" s="14" t="s">
         <v>56</v>
       </c>
@@ -49647,15 +49661,15 @@
       </c>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" ht="12" spans="1:9">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8" t="s">
+    <row r="48" spans="1:9">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D48" s="10"/>
+      <c r="D48" s="13"/>
       <c r="E48" s="14" t="s">
         <v>56</v>
       </c>
@@ -49670,15 +49684,15 @@
       </c>
       <c r="I48" s="18"/>
     </row>
-    <row r="49" ht="12" spans="1:9">
-      <c r="A49" s="7"/>
+    <row r="49" spans="1:9">
+      <c r="A49" s="6"/>
       <c r="B49" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D49" s="10"/>
+      <c r="D49" s="13"/>
       <c r="E49" s="14" t="s">
         <v>56</v>
       </c>
@@ -49693,18 +49707,18 @@
       </c>
       <c r="I49" s="18"/>
     </row>
-    <row r="50" customHeight="1" spans="1:9">
-      <c r="A50" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B50" s="8" t="s">
+    <row r="50" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A50" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>209</v>
+      <c r="D50" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>56</v>
@@ -49720,15 +49734,15 @@
       </c>
       <c r="I50" s="18"/>
     </row>
-    <row r="51" ht="12" spans="1:9">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8" t="s">
+    <row r="51" spans="1:9">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D51" s="10"/>
+      <c r="D51" s="13"/>
       <c r="E51" s="14" t="s">
         <v>56</v>
       </c>
@@ -49743,15 +49757,15 @@
       </c>
       <c r="I51" s="18"/>
     </row>
-    <row r="52" ht="12" spans="1:9">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8" t="s">
+    <row r="52" spans="1:9">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D52" s="10"/>
+      <c r="D52" s="13"/>
       <c r="E52" s="14" t="s">
         <v>56</v>
       </c>
@@ -49766,15 +49780,15 @@
       </c>
       <c r="I52" s="18"/>
     </row>
-    <row r="53" ht="12" spans="1:9">
-      <c r="A53" s="7"/>
+    <row r="53" spans="1:9">
+      <c r="A53" s="6"/>
       <c r="B53" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D53" s="10"/>
+      <c r="D53" s="13"/>
       <c r="E53" s="14" t="s">
         <v>56</v>
       </c>
@@ -49789,18 +49803,18 @@
       </c>
       <c r="I53" s="18"/>
     </row>
-    <row r="54" customHeight="1" spans="1:9">
-      <c r="A54" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B54" s="8" t="s">
+    <row r="54" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A54" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>211</v>
+      <c r="D54" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>56</v>
@@ -49816,15 +49830,15 @@
       </c>
       <c r="I54" s="18"/>
     </row>
-    <row r="55" ht="12" spans="1:9">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8" t="s">
+    <row r="55" spans="1:9">
+      <c r="A55" s="6"/>
+      <c r="B55" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D55" s="10"/>
+      <c r="D55" s="13"/>
       <c r="E55" s="14" t="s">
         <v>56</v>
       </c>
@@ -49839,15 +49853,15 @@
       </c>
       <c r="I55" s="18"/>
     </row>
-    <row r="56" ht="12" spans="1:9">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8" t="s">
+    <row r="56" spans="1:9">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D56" s="10"/>
+      <c r="D56" s="13"/>
       <c r="E56" s="14" t="s">
         <v>56</v>
       </c>
@@ -49862,15 +49876,15 @@
       </c>
       <c r="I56" s="18"/>
     </row>
-    <row r="57" ht="12" spans="1:9">
-      <c r="A57" s="7"/>
+    <row r="57" spans="1:9">
+      <c r="A57" s="6"/>
       <c r="B57" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D57" s="10"/>
+      <c r="D57" s="13"/>
       <c r="E57" s="14" t="s">
         <v>56</v>
       </c>
@@ -49885,18 +49899,18 @@
       </c>
       <c r="I57" s="18"/>
     </row>
-    <row r="58" customHeight="1" spans="1:9">
-      <c r="A58" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B58" s="8" t="s">
+    <row r="58" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A58" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D58" s="10" t="s">
-        <v>213</v>
+      <c r="D58" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>56</v>
@@ -49912,15 +49926,15 @@
       </c>
       <c r="I58" s="18"/>
     </row>
-    <row r="59" ht="12" spans="1:9">
-      <c r="A59" s="7"/>
-      <c r="B59" s="8" t="s">
+    <row r="59" spans="1:9">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="10"/>
+      <c r="D59" s="13"/>
       <c r="E59" s="14" t="s">
         <v>56</v>
       </c>
@@ -49935,15 +49949,15 @@
       </c>
       <c r="I59" s="18"/>
     </row>
-    <row r="60" ht="12" spans="1:9">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8" t="s">
+    <row r="60" spans="1:9">
+      <c r="A60" s="6"/>
+      <c r="B60" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D60" s="10"/>
+      <c r="D60" s="13"/>
       <c r="E60" s="14" t="s">
         <v>56</v>
       </c>
@@ -49958,15 +49972,15 @@
       </c>
       <c r="I60" s="18"/>
     </row>
-    <row r="61" ht="12" spans="1:9">
-      <c r="A61" s="7"/>
+    <row r="61" spans="1:9">
+      <c r="A61" s="6"/>
       <c r="B61" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D61" s="10"/>
+      <c r="D61" s="13"/>
       <c r="E61" s="14" t="s">
         <v>56</v>
       </c>
@@ -49981,18 +49995,18 @@
       </c>
       <c r="I61" s="18"/>
     </row>
-    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A62" s="7" t="s">
-        <v>214</v>
+    <row r="62" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A62" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>185</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E62" s="14" t="s">
         <v>56</v>
@@ -50008,8 +50022,8 @@
       </c>
       <c r="I62" s="19"/>
     </row>
-    <row r="63" ht="12" spans="1:9">
-      <c r="A63" s="7"/>
+    <row r="63" spans="1:9">
+      <c r="A63" s="6"/>
       <c r="B63" s="11" t="s">
         <v>160</v>
       </c>
@@ -50031,8 +50045,8 @@
       </c>
       <c r="I63" s="19"/>
     </row>
-    <row r="64" ht="12" spans="1:9">
-      <c r="A64" s="7"/>
+    <row r="64" spans="1:9">
+      <c r="A64" s="6"/>
       <c r="B64" s="11" t="s">
         <v>161</v>
       </c>
@@ -50054,10 +50068,10 @@
       </c>
       <c r="I64" s="19"/>
     </row>
-    <row r="65" ht="12" spans="1:9">
-      <c r="A65" s="7"/>
+    <row r="65" spans="1:9">
+      <c r="A65" s="6"/>
       <c r="B65" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>185</v>
@@ -50077,10 +50091,10 @@
       </c>
       <c r="I65" s="19"/>
     </row>
-    <row r="66" ht="12" spans="1:9">
-      <c r="A66" s="7"/>
+    <row r="66" spans="1:9">
+      <c r="A66" s="6"/>
       <c r="B66" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>185</v>
@@ -50100,10 +50114,10 @@
       </c>
       <c r="I66" s="19"/>
     </row>
-    <row r="67" ht="12" spans="1:9">
-      <c r="A67" s="7"/>
+    <row r="67" spans="1:9">
+      <c r="A67" s="6"/>
       <c r="B67" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>185</v>
@@ -50123,10 +50137,10 @@
       </c>
       <c r="I67" s="19"/>
     </row>
-    <row r="68" ht="12" spans="1:9">
-      <c r="A68" s="7"/>
+    <row r="68" spans="1:9">
+      <c r="A68" s="6"/>
       <c r="B68" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>185</v>
@@ -50146,10 +50160,10 @@
       </c>
       <c r="I68" s="19"/>
     </row>
-    <row r="69" ht="12" spans="1:9">
-      <c r="A69" s="7"/>
+    <row r="69" spans="1:9">
+      <c r="A69" s="6"/>
       <c r="B69" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>185</v>
@@ -50169,10 +50183,10 @@
       </c>
       <c r="I69" s="19"/>
     </row>
-    <row r="70" ht="12" spans="1:9">
-      <c r="A70" s="7"/>
+    <row r="70" spans="1:9">
+      <c r="A70" s="6"/>
       <c r="B70" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>185</v>
@@ -50192,10 +50206,10 @@
       </c>
       <c r="I70" s="19"/>
     </row>
-    <row r="71" ht="12" spans="1:9">
-      <c r="A71" s="7"/>
+    <row r="71" spans="1:9">
+      <c r="A71" s="6"/>
       <c r="B71" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>185</v>
@@ -50215,10 +50229,10 @@
       </c>
       <c r="I71" s="19"/>
     </row>
-    <row r="72" ht="12" spans="1:9">
-      <c r="A72" s="7"/>
+    <row r="72" spans="1:9">
+      <c r="A72" s="6"/>
       <c r="B72" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>185</v>
@@ -50238,18 +50252,18 @@
       </c>
       <c r="I72" s="19"/>
     </row>
-    <row r="73" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A73" s="7" t="s">
-        <v>225</v>
+    <row r="73" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A73" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C73" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D73" s="10" t="s">
-        <v>227</v>
+      <c r="D73" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="E73" s="14" t="s">
         <v>56</v>
@@ -50265,15 +50279,15 @@
       </c>
       <c r="I73" s="18"/>
     </row>
-    <row r="74" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A74" s="7"/>
+    <row r="74" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A74" s="6"/>
       <c r="B74" s="20" t="s">
         <v>160</v>
       </c>
       <c r="C74" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D74" s="10"/>
+      <c r="D74" s="13"/>
       <c r="E74" s="14" t="s">
         <v>56</v>
       </c>
@@ -50288,15 +50302,15 @@
       </c>
       <c r="I74" s="18"/>
     </row>
-    <row r="75" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A75" s="7"/>
+    <row r="75" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A75" s="6"/>
       <c r="B75" s="20" t="s">
         <v>161</v>
       </c>
       <c r="C75" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D75" s="10"/>
+      <c r="D75" s="13"/>
       <c r="E75" s="14" t="s">
         <v>56</v>
       </c>
@@ -50311,15 +50325,15 @@
       </c>
       <c r="I75" s="18"/>
     </row>
-    <row r="76" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A76" s="7"/>
+    <row r="76" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A76" s="6"/>
       <c r="B76" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C76" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D76" s="10"/>
+      <c r="D76" s="13"/>
       <c r="E76" s="14" t="s">
         <v>56</v>
       </c>
@@ -50334,15 +50348,15 @@
       </c>
       <c r="I76" s="18"/>
     </row>
-    <row r="77" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A77" s="7"/>
+    <row r="77" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A77" s="6"/>
       <c r="B77" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C77" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D77" s="10"/>
+      <c r="D77" s="13"/>
       <c r="E77" s="14" t="s">
         <v>56</v>
       </c>
@@ -50357,15 +50371,15 @@
       </c>
       <c r="I77" s="18"/>
     </row>
-    <row r="78" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A78" s="7"/>
+    <row r="78" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A78" s="6"/>
       <c r="B78" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C78" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D78" s="10"/>
+      <c r="D78" s="13"/>
       <c r="E78" s="14" t="s">
         <v>56</v>
       </c>
@@ -50380,15 +50394,15 @@
       </c>
       <c r="I78" s="18"/>
     </row>
-    <row r="79" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A79" s="7"/>
+    <row r="79" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A79" s="6"/>
       <c r="B79" s="20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C79" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D79" s="10"/>
+      <c r="D79" s="13"/>
       <c r="E79" s="14" t="s">
         <v>56</v>
       </c>
@@ -50403,15 +50417,15 @@
       </c>
       <c r="I79" s="18"/>
     </row>
-    <row r="80" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A80" s="7"/>
+    <row r="80" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A80" s="6"/>
       <c r="B80" s="20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C80" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D80" s="10"/>
+      <c r="D80" s="13"/>
       <c r="E80" s="14" t="s">
         <v>56</v>
       </c>
@@ -50426,18 +50440,18 @@
       </c>
       <c r="I80" s="18"/>
     </row>
-    <row r="81" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A81" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B81" s="8" t="s">
+    <row r="81" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A81" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E81" s="14" t="s">
         <v>56</v>
@@ -50453,12 +50467,12 @@
       </c>
       <c r="I81" s="18"/>
     </row>
-    <row r="82" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8" t="s">
+    <row r="82" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A82" s="6"/>
+      <c r="B82" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D82" s="13"/>
@@ -50476,12 +50490,12 @@
       </c>
       <c r="I82" s="18"/>
     </row>
-    <row r="83" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A83" s="7"/>
-      <c r="B83" s="8" t="s">
+    <row r="83" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A83" s="6"/>
+      <c r="B83" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D83" s="13"/>
@@ -50499,8 +50513,8 @@
       </c>
       <c r="I83" s="18"/>
     </row>
-    <row r="84" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A84" s="7"/>
+    <row r="84" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A84" s="6"/>
       <c r="B84" s="11" t="s">
         <v>162</v>
       </c>
@@ -50522,18 +50536,18 @@
       </c>
       <c r="I84" s="18"/>
     </row>
-    <row r="85" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A85" s="7" t="s">
-        <v>235</v>
+    <row r="85" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A85" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D85" s="10" t="s">
-        <v>237</v>
+      <c r="D85" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="E85" s="14" t="s">
         <v>56</v>
@@ -50549,15 +50563,15 @@
       </c>
       <c r="I85" s="18"/>
     </row>
-    <row r="86" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A86" s="7"/>
+    <row r="86" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A86" s="6"/>
       <c r="B86" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D86" s="10"/>
+      <c r="D86" s="13"/>
       <c r="E86" s="14" t="s">
         <v>56</v>
       </c>
@@ -50572,15 +50586,15 @@
       </c>
       <c r="I86" s="18"/>
     </row>
-    <row r="87" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A87" s="7"/>
-      <c r="B87" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C87" s="9" t="s">
+    <row r="87" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A87" s="6"/>
+      <c r="B87" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D87" s="10"/>
+      <c r="D87" s="13"/>
       <c r="E87" s="14" t="s">
         <v>56</v>
       </c>
@@ -50595,15 +50609,15 @@
       </c>
       <c r="I87" s="18"/>
     </row>
-    <row r="88" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A88" s="7"/>
-      <c r="B88" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C88" s="9" t="s">
+    <row r="88" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A88" s="6"/>
+      <c r="B88" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D88" s="10"/>
+      <c r="D88" s="13"/>
       <c r="E88" s="14" t="s">
         <v>56</v>
       </c>
@@ -50618,15 +50632,15 @@
       </c>
       <c r="I88" s="18"/>
     </row>
-    <row r="89" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A89" s="7"/>
+    <row r="89" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A89" s="6"/>
       <c r="B89" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D89" s="10"/>
+      <c r="D89" s="13"/>
       <c r="E89" s="14" t="s">
         <v>56</v>
       </c>
@@ -50641,15 +50655,15 @@
       </c>
       <c r="I89" s="18"/>
     </row>
-    <row r="90" ht="12" spans="1:9">
-      <c r="A90" s="7"/>
+    <row r="90" spans="1:9">
+      <c r="A90" s="6"/>
       <c r="B90" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D90" s="10"/>
+      <c r="D90" s="13"/>
       <c r="E90" s="14" t="s">
         <v>56</v>
       </c>
@@ -50664,15 +50678,15 @@
       </c>
       <c r="I90" s="18"/>
     </row>
-    <row r="91" ht="12" spans="1:9">
-      <c r="A91" s="7"/>
+    <row r="91" spans="1:9">
+      <c r="A91" s="6"/>
       <c r="B91" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D91" s="10"/>
+      <c r="D91" s="13"/>
       <c r="E91" s="14" t="s">
         <v>56</v>
       </c>
@@ -50687,15 +50701,15 @@
       </c>
       <c r="I91" s="18"/>
     </row>
-    <row r="92" ht="12" spans="1:9">
-      <c r="A92" s="7"/>
+    <row r="92" spans="1:9">
+      <c r="A92" s="6"/>
       <c r="B92" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D92" s="10"/>
+      <c r="D92" s="13"/>
       <c r="E92" s="14" t="s">
         <v>56</v>
       </c>
@@ -50710,15 +50724,15 @@
       </c>
       <c r="I92" s="18"/>
     </row>
-    <row r="93" ht="12" spans="1:9">
-      <c r="A93" s="7"/>
+    <row r="93" spans="1:9">
+      <c r="A93" s="6"/>
       <c r="B93" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D93" s="10"/>
+      <c r="D93" s="13"/>
       <c r="E93" s="14" t="s">
         <v>56</v>
       </c>
@@ -50733,18 +50747,18 @@
       </c>
       <c r="I93" s="18"/>
     </row>
-    <row r="94" customHeight="1" spans="1:9">
-      <c r="A94" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B94" s="8" t="s">
+    <row r="94" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A94" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E94" s="14" t="s">
         <v>56</v>
@@ -50759,15 +50773,15 @@
         <v>56</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="95" ht="12" spans="1:9">
-      <c r="A95" s="7"/>
-      <c r="B95" s="8" t="s">
+    <row r="95" spans="1:9">
+      <c r="A95" s="6"/>
+      <c r="B95" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D95" s="13"/>
@@ -50784,15 +50798,15 @@
         <v>56</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="96" ht="12" spans="1:9">
-      <c r="A96" s="7"/>
-      <c r="B96" s="8" t="s">
+    <row r="96" spans="1:9">
+      <c r="A96" s="6"/>
+      <c r="B96" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D96" s="13"/>
@@ -50809,11 +50823,11 @@
         <v>56</v>
       </c>
       <c r="I96" s="18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="97" ht="12" spans="1:9">
-      <c r="A97" s="7"/>
+    <row r="97" spans="1:9">
+      <c r="A97" s="6"/>
       <c r="B97" s="11" t="s">
         <v>162</v>
       </c>
@@ -50834,21 +50848,21 @@
         <v>56</v>
       </c>
       <c r="I97" s="18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="1:9">
+    <row r="98" ht="13.5" customHeight="1" spans="1:9">
       <c r="A98" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="B98" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E98" s="14" t="s">
         <v>56</v>
@@ -50864,12 +50878,12 @@
       </c>
       <c r="I98" s="18"/>
     </row>
-    <row r="99" ht="12.75" spans="1:9">
+    <row r="99" spans="1:9">
       <c r="A99" s="22"/>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D99" s="23"/>
@@ -50887,12 +50901,12 @@
       </c>
       <c r="I99" s="18"/>
     </row>
-    <row r="100" ht="12.75" spans="1:9">
+    <row r="100" spans="1:9">
       <c r="A100" s="22"/>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D100" s="23"/>
@@ -50910,7 +50924,7 @@
       </c>
       <c r="I100" s="18"/>
     </row>
-    <row r="101" ht="12.75" spans="1:9">
+    <row r="101" spans="1:9">
       <c r="A101" s="22"/>
       <c r="B101" s="24" t="s">
         <v>162</v>
@@ -51005,7 +51019,7 @@
     <hyperlink ref="D26" r:id="rId7" display="devtoolset-4-gdb.sh"/>
     <hyperlink ref="D30" r:id="rId8" display="devtoolset-4-golang.sh"/>
     <hyperlink ref="D34" r:id="rId9" display="devtoolset-4-llvm.sh"/>
-    <hyperlink ref="D38" r:id="rId9" display="devtoolset-4-llvm.sh"/>
+    <hyperlink ref="D38" r:id="rId9" display="devtoolset-4-yaml-cpp.sh"/>
     <hyperlink ref="D42" r:id="rId10" display="devtoolset-6.sh"/>
     <hyperlink ref="D46" r:id="rId11" display="devtoolset-6-binutils.sh"/>
     <hyperlink ref="D50" r:id="rId12" display="devtoolset-6-gcc.sh"/>
@@ -51017,8 +51031,29 @@
     <hyperlink ref="D85" r:id="rId18" display="nicstat.sh"/>
     <hyperlink ref="D94" r:id="rId19" display="open-lldp.sh"/>
     <hyperlink ref="D98" r:id="rId20" display="packETHcli.sh"/>
+    <hyperlink ref="D2:D5" r:id="rId21" display="devlibset-4.sh"/>
+    <hyperlink ref="D6:D9" r:id="rId22" display="devlibset-4-glibc.sh"/>
+    <hyperlink ref="D10:D13" r:id="rId23" display="devtoolset-4.sh"/>
+    <hyperlink ref="D14:D17" r:id="rId24" display="devtoolset-4-binutils.sh"/>
+    <hyperlink ref="D18:D21" r:id="rId25" display="devtoolset-4-boost.sh"/>
+    <hyperlink ref="D22:D25" r:id="rId26" display="devtoolset-4-gcc.sh"/>
+    <hyperlink ref="D26:D29" r:id="rId27" display="devtoolset-4-gdb.sh"/>
+    <hyperlink ref="D30:D33" r:id="rId28" display="devtoolset-4-golang.sh"/>
+    <hyperlink ref="D34:D37" r:id="rId29" display="devtoolset-4-llvm.sh"/>
+    <hyperlink ref="D38:D41" r:id="rId30" display="devtoolset-4-yaml-cpp.sh"/>
+    <hyperlink ref="D42:D45" r:id="rId31" display="devtoolset-6.sh"/>
+    <hyperlink ref="D46:D49" r:id="rId32" display="devtoolset-6-binutils.sh"/>
+    <hyperlink ref="D50:D53" r:id="rId33" display="devtoolset-6-gcc.sh"/>
+    <hyperlink ref="D54:D57" r:id="rId34" display="devtoolset-6-gdb.sh"/>
+    <hyperlink ref="D58:D61" r:id="rId35" display="devtoolset-6-make.sh"/>
+    <hyperlink ref="D62:D72" r:id="rId36" display="ethtool.sh"/>
+    <hyperlink ref="D73:D80" r:id="rId37" display="fio-test.sh"/>
+    <hyperlink ref="D81:D84" r:id="rId38" display="isl.sh"/>
+    <hyperlink ref="D85:D93" r:id="rId39" display="nicstat.sh"/>
+    <hyperlink ref="D94:D97" r:id="rId40" display="open-lldp.sh"/>
+    <hyperlink ref="D98:D101" r:id="rId41" display="packETHcli.sh"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/list/tool.xlsx
+++ b/list/tool.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$166</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$I$101</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278">
   <si>
     <t>测试项目</t>
   </si>
@@ -1444,10 +1444,6 @@
     </r>
   </si>
   <si>
-    <t>lttng-modules
- 2.5.1</t>
-  </si>
-  <si>
     <t>grafana
 4.4.1</t>
   </si>
@@ -1609,10 +1605,6 @@
     </r>
   </si>
   <si>
-    <t>ktap
-0.4+git20150927</t>
-  </si>
-  <si>
     <t>ui-browser-test</t>
   </si>
   <si>
@@ -1620,6 +1612,600 @@
   </si>
   <si>
     <t>ui-browser-test.sh</t>
+  </si>
+  <si>
+    <t>memwatch</t>
+  </si>
+  <si>
+    <t>pidstat</t>
+  </si>
+  <si>
+    <r>
+      <t>执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pidstat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，将输出系统启动后所有活动进程的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cpu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统计信息：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pidstat</t>
+    </r>
+  </si>
+  <si>
+    <t>pidstat主要用于监控全部或指定进程占用系统资源的情况，如CPU，内存、设备IO、任务切换、线程等</t>
+  </si>
+  <si>
+    <r>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒为采样周期，输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cpu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用统计信息：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pidstat 2 10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>显示各活动进程的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cpu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: pidstat -u 1 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>显示各活动进程的内存使用统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: pidstat -r 1 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选项，查看进程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的统计信息：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pidstat -d 1 2</t>
+    </r>
+  </si>
+  <si>
+    <t>使用-p选项，查看特定进程的系统资源使用情况：pidstat -p 1 1</t>
+  </si>
+  <si>
+    <t>setpci</t>
+  </si>
+  <si>
+    <r>
+      <t>列出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pci</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备的地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: lspci</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pci</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备的属性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pci</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备的属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: sudo setpci -s 00:02.0 F4.B=FF
+  -s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示接下来输入的是设备的地址。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+  00:02.0 VGA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设备地址（&lt;总线&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">功能&gt;）。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  F4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要修改的属性的地址，这里应该表示“亮度”。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> .B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改的长度（B应该是字节（Byt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），还有w（应该是Wor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，两个字节）、L（应该是Lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">个字节））。
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">=FF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要修改的值（可以改）</t>
+    </r>
+  </si>
+  <si>
+    <t>swapon</t>
+  </si>
+  <si>
+    <t>sysdig</t>
+  </si>
+  <si>
+    <t>1.install package: yum install -y kernel-devel* dkms sysdig</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看占用网络带宽最多的进程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: sysdig -c topprocs_net</t>
+    </r>
+  </si>
+  <si>
+    <t>valgrind</t>
+  </si>
+  <si>
+    <t>overlayfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oprofile </t>
+  </si>
+  <si>
+    <t>lldptool</t>
+  </si>
+  <si>
+    <t>1. install lldptool: yum install -y lldpad</t>
+  </si>
+  <si>
+    <t>2. Run the LLDP Daemon: lldpad -d</t>
+  </si>
+  <si>
+    <t>3. Run the following script:
+for i in `ls /sys/class/net/ | grep 'eth\|ens\|eno'` ;
+      do echo "enabling lldp for interface: $i" ;
+      lldptool set-lldp -i $i adminStatus=rxtx  ;
+      lldptool -T -i $i -V  sysName enableTx=yes;
+      lldptool -T -i $i -V  portDesc enableTx=yes ;
+      lldptool -T -i $i -V  sysDesc enableTx=yes;
+      lldptool -T -i $i -V sysCap enableTx=yes;
+      lldptool -T -i $i -V mngAddr enableTx=yes;
+done</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看端口所连接详细信息：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lldptool -t -i eth0</t>
+    </r>
+  </si>
+  <si>
+    <t>5. remove lldptool: yum remove -y lldpad</t>
+  </si>
+  <si>
+    <t>wlan-smoke</t>
   </si>
   <si>
     <t>devlibset-4
@@ -2266,7 +2852,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -2368,15 +2954,19 @@
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2547,6 +3137,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2685,12 +3281,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2732,7 +3322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2876,6 +3466,82 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2978,145 +3644,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3285,12 +3951,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3299,31 +3959,91 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="36" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="36" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="36" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="4" borderId="8" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="4" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -3747,25 +4467,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMJ142"/>
+  <dimension ref="A1:AMJ166"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.0083333333333" style="33"/>
-    <col min="2" max="2" width="37.2583333333333" style="34"/>
+    <col min="2" max="2" width="58.875" style="34" customWidth="1"/>
     <col min="3" max="3" width="6.475" style="34"/>
     <col min="4" max="4" width="19.0416666666667" style="33"/>
     <col min="5" max="5" width="8.775" style="35"/>
     <col min="6" max="6" width="12.825" style="34"/>
     <col min="7" max="7" width="10.9333333333333" style="34"/>
     <col min="8" max="8" width="8.775" style="33"/>
-    <col min="9" max="9" width="38.0666666666667" style="34"/>
+    <col min="9" max="9" width="77.125" style="34" customWidth="1"/>
     <col min="10" max="1025" width="8.64166666666667" style="34"/>
   </cols>
   <sheetData>
@@ -3808,7 +4528,7 @@
       <c r="C2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="44" t="s">
@@ -3829,7 +4549,7 @@
       <c r="C3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="44" t="s">
         <v>13</v>
       </c>
@@ -3848,7 +4568,7 @@
       <c r="C4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="44" t="s">
         <v>13</v>
       </c>
@@ -3867,7 +4587,7 @@
       <c r="C5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="44" t="s">
         <v>13</v>
       </c>
@@ -3886,7 +4606,7 @@
       <c r="C6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="44" t="s">
         <v>13</v>
       </c>
@@ -3905,7 +4625,7 @@
       <c r="C7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="44" t="s">
         <v>13</v>
       </c>
@@ -3924,7 +4644,7 @@
       <c r="C8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="44" t="s">
         <v>13</v>
       </c>
@@ -3943,7 +4663,7 @@
       <c r="C9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="44" t="s">
         <v>13</v>
       </c>
@@ -3964,7 +4684,7 @@
       <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -3989,7 +4709,7 @@
       <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="14" t="s">
         <v>25</v>
       </c>
@@ -4012,7 +4732,7 @@
       <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="14" t="s">
         <v>25</v>
       </c>
@@ -4035,7 +4755,7 @@
       <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="14" t="s">
         <v>25</v>
       </c>
@@ -4058,7 +4778,7 @@
       <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="14" t="s">
         <v>25</v>
       </c>
@@ -4081,7 +4801,7 @@
       <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="14" t="s">
         <v>25</v>
       </c>
@@ -4104,7 +4824,7 @@
       <c r="C16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="14" t="s">
         <v>25</v>
       </c>
@@ -4127,7 +4847,7 @@
       <c r="C17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="14" t="s">
         <v>25</v>
       </c>
@@ -4150,7 +4870,7 @@
       <c r="C18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="14" t="s">
         <v>25</v>
       </c>
@@ -4173,7 +4893,7 @@
       <c r="C19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="14" t="s">
         <v>25</v>
       </c>
@@ -4196,7 +4916,7 @@
       <c r="C20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="14" t="s">
         <v>25</v>
       </c>
@@ -4219,7 +4939,7 @@
       <c r="C21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="14" t="s">
         <v>25</v>
       </c>
@@ -4242,7 +4962,7 @@
       <c r="C22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="14" t="s">
         <v>25</v>
       </c>
@@ -6526,7 +7246,7 @@
       <c r="H86" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I86" s="58"/>
+      <c r="I86" s="56"/>
     </row>
     <row r="87" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A87" s="6"/>
@@ -6549,7 +7269,7 @@
       <c r="H87" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I87" s="58"/>
+      <c r="I87" s="56"/>
     </row>
     <row r="88" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A88" s="6"/>
@@ -6572,7 +7292,7 @@
       <c r="H88" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I88" s="58"/>
+      <c r="I88" s="56"/>
     </row>
     <row r="89" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A89" s="6"/>
@@ -6595,7 +7315,7 @@
       <c r="H89" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I89" s="58"/>
+      <c r="I89" s="56"/>
     </row>
     <row r="90" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A90" s="6"/>
@@ -6618,7 +7338,7 @@
       <c r="H90" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I90" s="58"/>
+      <c r="I90" s="56"/>
     </row>
     <row r="91" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A91" s="6"/>
@@ -6641,7 +7361,7 @@
       <c r="H91" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I91" s="58"/>
+      <c r="I91" s="56"/>
     </row>
     <row r="92" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A92" s="6"/>
@@ -6664,7 +7384,7 @@
       <c r="H92" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I92" s="58"/>
+      <c r="I92" s="56"/>
     </row>
     <row r="93" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A93" s="6"/>
@@ -6687,7 +7407,7 @@
       <c r="H93" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I93" s="58"/>
+      <c r="I93" s="56"/>
     </row>
     <row r="94" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A94" s="6"/>
@@ -6710,7 +7430,7 @@
       <c r="H94" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I94" s="58"/>
+      <c r="I94" s="56"/>
     </row>
     <row r="95" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A95" s="6"/>
@@ -6733,7 +7453,7 @@
       <c r="H95" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I95" s="58"/>
+      <c r="I95" s="56"/>
     </row>
     <row r="96" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A96" s="6"/>
@@ -6756,7 +7476,7 @@
       <c r="H96" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I96" s="58"/>
+      <c r="I96" s="56"/>
     </row>
     <row r="97" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A97" s="6"/>
@@ -6779,7 +7499,7 @@
       <c r="H97" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I97" s="58"/>
+      <c r="I97" s="56"/>
     </row>
     <row r="98" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A98" s="6"/>
@@ -6802,7 +7522,7 @@
       <c r="H98" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I98" s="58"/>
+      <c r="I98" s="56"/>
     </row>
     <row r="99" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A99" s="6"/>
@@ -6825,7 +7545,7 @@
       <c r="H99" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I99" s="58"/>
+      <c r="I99" s="56"/>
     </row>
     <row r="100" s="32" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A100" s="6"/>
@@ -6848,7 +7568,7 @@
       <c r="H100" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I100" s="58"/>
+      <c r="I100" s="56"/>
     </row>
     <row r="101" ht="13" customHeight="1" spans="1:1024">
       <c r="A101" s="6" t="s">
@@ -6867,7 +7587,7 @@
       </c>
       <c r="G101" s="16"/>
       <c r="H101" s="40"/>
-      <c r="I101" s="58"/>
+      <c r="I101" s="56"/>
       <c r="J101"/>
       <c r="K101"/>
       <c r="L101"/>
@@ -25577,11 +26297,15 @@
       <c r="A120" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B120" s="55"/>
+      <c r="B120" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="C120" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="56"/>
+      <c r="D120" s="13" t="s">
+        <v>159</v>
+      </c>
       <c r="E120" s="14" t="s">
         <v>43</v>
       </c>
@@ -26608,18 +27332,14 @@
       <c r="AMJ120"/>
     </row>
     <row r="121" ht="13" customHeight="1" spans="1:1024">
-      <c r="A121" s="6" t="s">
-        <v>158</v>
-      </c>
+      <c r="A121" s="6"/>
       <c r="B121" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="13" t="s">
-        <v>160</v>
-      </c>
+      <c r="D121" s="13"/>
       <c r="E121" s="14" t="s">
         <v>43</v>
       </c>
@@ -28681,7 +29401,7 @@
     </row>
     <row r="123" ht="13" customHeight="1" spans="1:1024">
       <c r="A123" s="6"/>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C123" s="8" t="s">
@@ -29714,23 +30434,33 @@
       <c r="AMJ123"/>
     </row>
     <row r="124" ht="13" customHeight="1" spans="1:1024">
-      <c r="A124" s="6"/>
-      <c r="B124" s="11" t="s">
+      <c r="A124" s="6" t="s">
         <v>163</v>
+      </c>
+      <c r="B124" s="52" t="s">
+        <v>164</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D124" s="13"/>
+      <c r="D124" s="13" t="s">
+        <v>165</v>
+      </c>
       <c r="E124" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F124" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G124" s="16"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="49"/>
+        <v>14</v>
+      </c>
+      <c r="G124" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H124" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I124" s="49" t="s">
+        <v>143</v>
+      </c>
       <c r="J124"/>
       <c r="K124"/>
       <c r="L124"/>
@@ -30748,18 +31478,14 @@
       <c r="AMJ124"/>
     </row>
     <row r="125" ht="13" customHeight="1" spans="1:1024">
-      <c r="A125" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B125" s="52" t="s">
-        <v>165</v>
+      <c r="A125" s="6"/>
+      <c r="B125" s="41" t="s">
+        <v>166</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D125" s="13" t="s">
-        <v>166</v>
-      </c>
+      <c r="D125" s="13"/>
       <c r="E125" s="14" t="s">
         <v>43</v>
       </c>
@@ -31794,7 +32520,7 @@
     <row r="126" ht="13" customHeight="1" spans="1:1024">
       <c r="A126" s="6"/>
       <c r="B126" s="41" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>11</v>
@@ -32833,8 +33559,8 @@
     </row>
     <row r="127" ht="13" customHeight="1" spans="1:1024">
       <c r="A127" s="6"/>
-      <c r="B127" s="41" t="s">
-        <v>145</v>
+      <c r="B127" s="55" t="s">
+        <v>167</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>11</v>
@@ -33873,7 +34599,7 @@
     </row>
     <row r="128" ht="13" customHeight="1" spans="1:1024">
       <c r="A128" s="6"/>
-      <c r="B128" s="57" t="s">
+      <c r="B128" s="55" t="s">
         <v>168</v>
       </c>
       <c r="C128" s="8" t="s">
@@ -34913,7 +35639,7 @@
     </row>
     <row r="129" ht="13" customHeight="1" spans="1:1024">
       <c r="A129" s="6"/>
-      <c r="B129" s="57" t="s">
+      <c r="B129" s="55" t="s">
         <v>169</v>
       </c>
       <c r="C129" s="8" t="s">
@@ -35953,7 +36679,7 @@
     </row>
     <row r="130" ht="13" customHeight="1" spans="1:1024">
       <c r="A130" s="6"/>
-      <c r="B130" s="57" t="s">
+      <c r="B130" s="55" t="s">
         <v>170</v>
       </c>
       <c r="C130" s="8" t="s">
@@ -36993,7 +37719,7 @@
     </row>
     <row r="131" ht="13" customHeight="1" spans="1:1024">
       <c r="A131" s="6"/>
-      <c r="B131" s="57" t="s">
+      <c r="B131" s="55" t="s">
         <v>171</v>
       </c>
       <c r="C131" s="8" t="s">
@@ -38033,7 +38759,7 @@
     </row>
     <row r="132" ht="13" customHeight="1" spans="1:1024">
       <c r="A132" s="6"/>
-      <c r="B132" s="57" t="s">
+      <c r="B132" s="55" t="s">
         <v>172</v>
       </c>
       <c r="C132" s="8" t="s">
@@ -39073,7 +39799,7 @@
     </row>
     <row r="133" ht="13" customHeight="1" spans="1:1024">
       <c r="A133" s="6"/>
-      <c r="B133" s="57" t="s">
+      <c r="B133" s="55" t="s">
         <v>173</v>
       </c>
       <c r="C133" s="8" t="s">
@@ -40113,7 +40839,7 @@
     </row>
     <row r="134" ht="13" customHeight="1" spans="1:1024">
       <c r="A134" s="6"/>
-      <c r="B134" s="57" t="s">
+      <c r="B134" s="55" t="s">
         <v>174</v>
       </c>
       <c r="C134" s="8" t="s">
@@ -42193,7 +42919,7 @@
     </row>
     <row r="136" ht="13" customHeight="1" spans="1:1024">
       <c r="A136" s="6"/>
-      <c r="B136" s="59" t="s">
+      <c r="B136" s="57" t="s">
         <v>176</v>
       </c>
       <c r="C136" s="8" t="s">
@@ -43233,7 +43959,7 @@
     </row>
     <row r="137" ht="13" customHeight="1" spans="1:1024">
       <c r="A137" s="6"/>
-      <c r="B137" s="59" t="s">
+      <c r="B137" s="57" t="s">
         <v>177</v>
       </c>
       <c r="C137" s="8" t="s">
@@ -44273,7 +44999,7 @@
     </row>
     <row r="138" ht="13" customHeight="1" spans="1:1024">
       <c r="A138" s="6"/>
-      <c r="B138" s="59" t="s">
+      <c r="B138" s="57" t="s">
         <v>178</v>
       </c>
       <c r="C138" s="8" t="s">
@@ -45313,7 +46039,7 @@
     </row>
     <row r="139" ht="13" customHeight="1" spans="1:1024">
       <c r="A139" s="6"/>
-      <c r="B139" s="59" t="s">
+      <c r="B139" s="52" t="s">
         <v>179</v>
       </c>
       <c r="C139" s="8" t="s">
@@ -46351,2102 +47077,450 @@
       <c r="AMI139"/>
       <c r="AMJ139"/>
     </row>
-    <row r="140" ht="13" customHeight="1" spans="1:1024">
-      <c r="A140" s="6"/>
-      <c r="B140" s="52" t="s">
+    <row r="140" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
+      <c r="A140" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="B140" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="C140" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D140" s="13"/>
-      <c r="E140" s="14" t="s">
+      <c r="D140" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="E140" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="F140" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="H140" s="15" t="s">
+      <c r="F140" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="G140" s="77"/>
+      <c r="H140" s="78"/>
+      <c r="I140" s="81"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B141" s="63"/>
+      <c r="C141" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="64"/>
+      <c r="E141" s="79"/>
+      <c r="F141" s="63"/>
+      <c r="G141" s="63"/>
+      <c r="H141" s="64"/>
+      <c r="I141" s="63"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="B142" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="C142" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="64"/>
+      <c r="E142" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="I140" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="J140"/>
-      <c r="K140"/>
-      <c r="L140"/>
-      <c r="M140"/>
-      <c r="N140"/>
-      <c r="O140"/>
-      <c r="P140"/>
-      <c r="Q140"/>
-      <c r="R140"/>
-      <c r="S140"/>
-      <c r="T140"/>
-      <c r="U140"/>
-      <c r="V140"/>
-      <c r="W140"/>
-      <c r="X140"/>
-      <c r="Y140"/>
-      <c r="Z140"/>
-      <c r="AA140"/>
-      <c r="AB140"/>
-      <c r="AC140"/>
-      <c r="AD140"/>
-      <c r="AE140"/>
-      <c r="AF140"/>
-      <c r="AG140"/>
-      <c r="AH140"/>
-      <c r="AI140"/>
-      <c r="AJ140"/>
-      <c r="AK140"/>
-      <c r="AL140"/>
-      <c r="AM140"/>
-      <c r="AN140"/>
-      <c r="AO140"/>
-      <c r="AP140"/>
-      <c r="AQ140"/>
-      <c r="AR140"/>
-      <c r="AS140"/>
-      <c r="AT140"/>
-      <c r="AU140"/>
-      <c r="AV140"/>
-      <c r="AW140"/>
-      <c r="AX140"/>
-      <c r="AY140"/>
-      <c r="AZ140"/>
-      <c r="BA140"/>
-      <c r="BB140"/>
-      <c r="BC140"/>
-      <c r="BD140"/>
-      <c r="BE140"/>
-      <c r="BF140"/>
-      <c r="BG140"/>
-      <c r="BH140"/>
-      <c r="BI140"/>
-      <c r="BJ140"/>
-      <c r="BK140"/>
-      <c r="BL140"/>
-      <c r="BM140"/>
-      <c r="BN140"/>
-      <c r="BO140"/>
-      <c r="BP140"/>
-      <c r="BQ140"/>
-      <c r="BR140"/>
-      <c r="BS140"/>
-      <c r="BT140"/>
-      <c r="BU140"/>
-      <c r="BV140"/>
-      <c r="BW140"/>
-      <c r="BX140"/>
-      <c r="BY140"/>
-      <c r="BZ140"/>
-      <c r="CA140"/>
-      <c r="CB140"/>
-      <c r="CC140"/>
-      <c r="CD140"/>
-      <c r="CE140"/>
-      <c r="CF140"/>
-      <c r="CG140"/>
-      <c r="CH140"/>
-      <c r="CI140"/>
-      <c r="CJ140"/>
-      <c r="CK140"/>
-      <c r="CL140"/>
-      <c r="CM140"/>
-      <c r="CN140"/>
-      <c r="CO140"/>
-      <c r="CP140"/>
-      <c r="CQ140"/>
-      <c r="CR140"/>
-      <c r="CS140"/>
-      <c r="CT140"/>
-      <c r="CU140"/>
-      <c r="CV140"/>
-      <c r="CW140"/>
-      <c r="CX140"/>
-      <c r="CY140"/>
-      <c r="CZ140"/>
-      <c r="DA140"/>
-      <c r="DB140"/>
-      <c r="DC140"/>
-      <c r="DD140"/>
-      <c r="DE140"/>
-      <c r="DF140"/>
-      <c r="DG140"/>
-      <c r="DH140"/>
-      <c r="DI140"/>
-      <c r="DJ140"/>
-      <c r="DK140"/>
-      <c r="DL140"/>
-      <c r="DM140"/>
-      <c r="DN140"/>
-      <c r="DO140"/>
-      <c r="DP140"/>
-      <c r="DQ140"/>
-      <c r="DR140"/>
-      <c r="DS140"/>
-      <c r="DT140"/>
-      <c r="DU140"/>
-      <c r="DV140"/>
-      <c r="DW140"/>
-      <c r="DX140"/>
-      <c r="DY140"/>
-      <c r="DZ140"/>
-      <c r="EA140"/>
-      <c r="EB140"/>
-      <c r="EC140"/>
-      <c r="ED140"/>
-      <c r="EE140"/>
-      <c r="EF140"/>
-      <c r="EG140"/>
-      <c r="EH140"/>
-      <c r="EI140"/>
-      <c r="EJ140"/>
-      <c r="EK140"/>
-      <c r="EL140"/>
-      <c r="EM140"/>
-      <c r="EN140"/>
-      <c r="EO140"/>
-      <c r="EP140"/>
-      <c r="EQ140"/>
-      <c r="ER140"/>
-      <c r="ES140"/>
-      <c r="ET140"/>
-      <c r="EU140"/>
-      <c r="EV140"/>
-      <c r="EW140"/>
-      <c r="EX140"/>
-      <c r="EY140"/>
-      <c r="EZ140"/>
-      <c r="FA140"/>
-      <c r="FB140"/>
-      <c r="FC140"/>
-      <c r="FD140"/>
-      <c r="FE140"/>
-      <c r="FF140"/>
-      <c r="FG140"/>
-      <c r="FH140"/>
-      <c r="FI140"/>
-      <c r="FJ140"/>
-      <c r="FK140"/>
-      <c r="FL140"/>
-      <c r="FM140"/>
-      <c r="FN140"/>
-      <c r="FO140"/>
-      <c r="FP140"/>
-      <c r="FQ140"/>
-      <c r="FR140"/>
-      <c r="FS140"/>
-      <c r="FT140"/>
-      <c r="FU140"/>
-      <c r="FV140"/>
-      <c r="FW140"/>
-      <c r="FX140"/>
-      <c r="FY140"/>
-      <c r="FZ140"/>
-      <c r="GA140"/>
-      <c r="GB140"/>
-      <c r="GC140"/>
-      <c r="GD140"/>
-      <c r="GE140"/>
-      <c r="GF140"/>
-      <c r="GG140"/>
-      <c r="GH140"/>
-      <c r="GI140"/>
-      <c r="GJ140"/>
-      <c r="GK140"/>
-      <c r="GL140"/>
-      <c r="GM140"/>
-      <c r="GN140"/>
-      <c r="GO140"/>
-      <c r="GP140"/>
-      <c r="GQ140"/>
-      <c r="GR140"/>
-      <c r="GS140"/>
-      <c r="GT140"/>
-      <c r="GU140"/>
-      <c r="GV140"/>
-      <c r="GW140"/>
-      <c r="GX140"/>
-      <c r="GY140"/>
-      <c r="GZ140"/>
-      <c r="HA140"/>
-      <c r="HB140"/>
-      <c r="HC140"/>
-      <c r="HD140"/>
-      <c r="HE140"/>
-      <c r="HF140"/>
-      <c r="HG140"/>
-      <c r="HH140"/>
-      <c r="HI140"/>
-      <c r="HJ140"/>
-      <c r="HK140"/>
-      <c r="HL140"/>
-      <c r="HM140"/>
-      <c r="HN140"/>
-      <c r="HO140"/>
-      <c r="HP140"/>
-      <c r="HQ140"/>
-      <c r="HR140"/>
-      <c r="HS140"/>
-      <c r="HT140"/>
-      <c r="HU140"/>
-      <c r="HV140"/>
-      <c r="HW140"/>
-      <c r="HX140"/>
-      <c r="HY140"/>
-      <c r="HZ140"/>
-      <c r="IA140"/>
-      <c r="IB140"/>
-      <c r="IC140"/>
-      <c r="ID140"/>
-      <c r="IE140"/>
-      <c r="IF140"/>
-      <c r="IG140"/>
-      <c r="IH140"/>
-      <c r="II140"/>
-      <c r="IJ140"/>
-      <c r="IK140"/>
-      <c r="IL140"/>
-      <c r="IM140"/>
-      <c r="IN140"/>
-      <c r="IO140"/>
-      <c r="IP140"/>
-      <c r="IQ140"/>
-      <c r="IR140"/>
-      <c r="IS140"/>
-      <c r="IT140"/>
-      <c r="IU140"/>
-      <c r="IV140"/>
-      <c r="IW140"/>
-      <c r="IX140"/>
-      <c r="IY140"/>
-      <c r="IZ140"/>
-      <c r="JA140"/>
-      <c r="JB140"/>
-      <c r="JC140"/>
-      <c r="JD140"/>
-      <c r="JE140"/>
-      <c r="JF140"/>
-      <c r="JG140"/>
-      <c r="JH140"/>
-      <c r="JI140"/>
-      <c r="JJ140"/>
-      <c r="JK140"/>
-      <c r="JL140"/>
-      <c r="JM140"/>
-      <c r="JN140"/>
-      <c r="JO140"/>
-      <c r="JP140"/>
-      <c r="JQ140"/>
-      <c r="JR140"/>
-      <c r="JS140"/>
-      <c r="JT140"/>
-      <c r="JU140"/>
-      <c r="JV140"/>
-      <c r="JW140"/>
-      <c r="JX140"/>
-      <c r="JY140"/>
-      <c r="JZ140"/>
-      <c r="KA140"/>
-      <c r="KB140"/>
-      <c r="KC140"/>
-      <c r="KD140"/>
-      <c r="KE140"/>
-      <c r="KF140"/>
-      <c r="KG140"/>
-      <c r="KH140"/>
-      <c r="KI140"/>
-      <c r="KJ140"/>
-      <c r="KK140"/>
-      <c r="KL140"/>
-      <c r="KM140"/>
-      <c r="KN140"/>
-      <c r="KO140"/>
-      <c r="KP140"/>
-      <c r="KQ140"/>
-      <c r="KR140"/>
-      <c r="KS140"/>
-      <c r="KT140"/>
-      <c r="KU140"/>
-      <c r="KV140"/>
-      <c r="KW140"/>
-      <c r="KX140"/>
-      <c r="KY140"/>
-      <c r="KZ140"/>
-      <c r="LA140"/>
-      <c r="LB140"/>
-      <c r="LC140"/>
-      <c r="LD140"/>
-      <c r="LE140"/>
-      <c r="LF140"/>
-      <c r="LG140"/>
-      <c r="LH140"/>
-      <c r="LI140"/>
-      <c r="LJ140"/>
-      <c r="LK140"/>
-      <c r="LL140"/>
-      <c r="LM140"/>
-      <c r="LN140"/>
-      <c r="LO140"/>
-      <c r="LP140"/>
-      <c r="LQ140"/>
-      <c r="LR140"/>
-      <c r="LS140"/>
-      <c r="LT140"/>
-      <c r="LU140"/>
-      <c r="LV140"/>
-      <c r="LW140"/>
-      <c r="LX140"/>
-      <c r="LY140"/>
-      <c r="LZ140"/>
-      <c r="MA140"/>
-      <c r="MB140"/>
-      <c r="MC140"/>
-      <c r="MD140"/>
-      <c r="ME140"/>
-      <c r="MF140"/>
-      <c r="MG140"/>
-      <c r="MH140"/>
-      <c r="MI140"/>
-      <c r="MJ140"/>
-      <c r="MK140"/>
-      <c r="ML140"/>
-      <c r="MM140"/>
-      <c r="MN140"/>
-      <c r="MO140"/>
-      <c r="MP140"/>
-      <c r="MQ140"/>
-      <c r="MR140"/>
-      <c r="MS140"/>
-      <c r="MT140"/>
-      <c r="MU140"/>
-      <c r="MV140"/>
-      <c r="MW140"/>
-      <c r="MX140"/>
-      <c r="MY140"/>
-      <c r="MZ140"/>
-      <c r="NA140"/>
-      <c r="NB140"/>
-      <c r="NC140"/>
-      <c r="ND140"/>
-      <c r="NE140"/>
-      <c r="NF140"/>
-      <c r="NG140"/>
-      <c r="NH140"/>
-      <c r="NI140"/>
-      <c r="NJ140"/>
-      <c r="NK140"/>
-      <c r="NL140"/>
-      <c r="NM140"/>
-      <c r="NN140"/>
-      <c r="NO140"/>
-      <c r="NP140"/>
-      <c r="NQ140"/>
-      <c r="NR140"/>
-      <c r="NS140"/>
-      <c r="NT140"/>
-      <c r="NU140"/>
-      <c r="NV140"/>
-      <c r="NW140"/>
-      <c r="NX140"/>
-      <c r="NY140"/>
-      <c r="NZ140"/>
-      <c r="OA140"/>
-      <c r="OB140"/>
-      <c r="OC140"/>
-      <c r="OD140"/>
-      <c r="OE140"/>
-      <c r="OF140"/>
-      <c r="OG140"/>
-      <c r="OH140"/>
-      <c r="OI140"/>
-      <c r="OJ140"/>
-      <c r="OK140"/>
-      <c r="OL140"/>
-      <c r="OM140"/>
-      <c r="ON140"/>
-      <c r="OO140"/>
-      <c r="OP140"/>
-      <c r="OQ140"/>
-      <c r="OR140"/>
-      <c r="OS140"/>
-      <c r="OT140"/>
-      <c r="OU140"/>
-      <c r="OV140"/>
-      <c r="OW140"/>
-      <c r="OX140"/>
-      <c r="OY140"/>
-      <c r="OZ140"/>
-      <c r="PA140"/>
-      <c r="PB140"/>
-      <c r="PC140"/>
-      <c r="PD140"/>
-      <c r="PE140"/>
-      <c r="PF140"/>
-      <c r="PG140"/>
-      <c r="PH140"/>
-      <c r="PI140"/>
-      <c r="PJ140"/>
-      <c r="PK140"/>
-      <c r="PL140"/>
-      <c r="PM140"/>
-      <c r="PN140"/>
-      <c r="PO140"/>
-      <c r="PP140"/>
-      <c r="PQ140"/>
-      <c r="PR140"/>
-      <c r="PS140"/>
-      <c r="PT140"/>
-      <c r="PU140"/>
-      <c r="PV140"/>
-      <c r="PW140"/>
-      <c r="PX140"/>
-      <c r="PY140"/>
-      <c r="PZ140"/>
-      <c r="QA140"/>
-      <c r="QB140"/>
-      <c r="QC140"/>
-      <c r="QD140"/>
-      <c r="QE140"/>
-      <c r="QF140"/>
-      <c r="QG140"/>
-      <c r="QH140"/>
-      <c r="QI140"/>
-      <c r="QJ140"/>
-      <c r="QK140"/>
-      <c r="QL140"/>
-      <c r="QM140"/>
-      <c r="QN140"/>
-      <c r="QO140"/>
-      <c r="QP140"/>
-      <c r="QQ140"/>
-      <c r="QR140"/>
-      <c r="QS140"/>
-      <c r="QT140"/>
-      <c r="QU140"/>
-      <c r="QV140"/>
-      <c r="QW140"/>
-      <c r="QX140"/>
-      <c r="QY140"/>
-      <c r="QZ140"/>
-      <c r="RA140"/>
-      <c r="RB140"/>
-      <c r="RC140"/>
-      <c r="RD140"/>
-      <c r="RE140"/>
-      <c r="RF140"/>
-      <c r="RG140"/>
-      <c r="RH140"/>
-      <c r="RI140"/>
-      <c r="RJ140"/>
-      <c r="RK140"/>
-      <c r="RL140"/>
-      <c r="RM140"/>
-      <c r="RN140"/>
-      <c r="RO140"/>
-      <c r="RP140"/>
-      <c r="RQ140"/>
-      <c r="RR140"/>
-      <c r="RS140"/>
-      <c r="RT140"/>
-      <c r="RU140"/>
-      <c r="RV140"/>
-      <c r="RW140"/>
-      <c r="RX140"/>
-      <c r="RY140"/>
-      <c r="RZ140"/>
-      <c r="SA140"/>
-      <c r="SB140"/>
-      <c r="SC140"/>
-      <c r="SD140"/>
-      <c r="SE140"/>
-      <c r="SF140"/>
-      <c r="SG140"/>
-      <c r="SH140"/>
-      <c r="SI140"/>
-      <c r="SJ140"/>
-      <c r="SK140"/>
-      <c r="SL140"/>
-      <c r="SM140"/>
-      <c r="SN140"/>
-      <c r="SO140"/>
-      <c r="SP140"/>
-      <c r="SQ140"/>
-      <c r="SR140"/>
-      <c r="SS140"/>
-      <c r="ST140"/>
-      <c r="SU140"/>
-      <c r="SV140"/>
-      <c r="SW140"/>
-      <c r="SX140"/>
-      <c r="SY140"/>
-      <c r="SZ140"/>
-      <c r="TA140"/>
-      <c r="TB140"/>
-      <c r="TC140"/>
-      <c r="TD140"/>
-      <c r="TE140"/>
-      <c r="TF140"/>
-      <c r="TG140"/>
-      <c r="TH140"/>
-      <c r="TI140"/>
-      <c r="TJ140"/>
-      <c r="TK140"/>
-      <c r="TL140"/>
-      <c r="TM140"/>
-      <c r="TN140"/>
-      <c r="TO140"/>
-      <c r="TP140"/>
-      <c r="TQ140"/>
-      <c r="TR140"/>
-      <c r="TS140"/>
-      <c r="TT140"/>
-      <c r="TU140"/>
-      <c r="TV140"/>
-      <c r="TW140"/>
-      <c r="TX140"/>
-      <c r="TY140"/>
-      <c r="TZ140"/>
-      <c r="UA140"/>
-      <c r="UB140"/>
-      <c r="UC140"/>
-      <c r="UD140"/>
-      <c r="UE140"/>
-      <c r="UF140"/>
-      <c r="UG140"/>
-      <c r="UH140"/>
-      <c r="UI140"/>
-      <c r="UJ140"/>
-      <c r="UK140"/>
-      <c r="UL140"/>
-      <c r="UM140"/>
-      <c r="UN140"/>
-      <c r="UO140"/>
-      <c r="UP140"/>
-      <c r="UQ140"/>
-      <c r="UR140"/>
-      <c r="US140"/>
-      <c r="UT140"/>
-      <c r="UU140"/>
-      <c r="UV140"/>
-      <c r="UW140"/>
-      <c r="UX140"/>
-      <c r="UY140"/>
-      <c r="UZ140"/>
-      <c r="VA140"/>
-      <c r="VB140"/>
-      <c r="VC140"/>
-      <c r="VD140"/>
-      <c r="VE140"/>
-      <c r="VF140"/>
-      <c r="VG140"/>
-      <c r="VH140"/>
-      <c r="VI140"/>
-      <c r="VJ140"/>
-      <c r="VK140"/>
-      <c r="VL140"/>
-      <c r="VM140"/>
-      <c r="VN140"/>
-      <c r="VO140"/>
-      <c r="VP140"/>
-      <c r="VQ140"/>
-      <c r="VR140"/>
-      <c r="VS140"/>
-      <c r="VT140"/>
-      <c r="VU140"/>
-      <c r="VV140"/>
-      <c r="VW140"/>
-      <c r="VX140"/>
-      <c r="VY140"/>
-      <c r="VZ140"/>
-      <c r="WA140"/>
-      <c r="WB140"/>
-      <c r="WC140"/>
-      <c r="WD140"/>
-      <c r="WE140"/>
-      <c r="WF140"/>
-      <c r="WG140"/>
-      <c r="WH140"/>
-      <c r="WI140"/>
-      <c r="WJ140"/>
-      <c r="WK140"/>
-      <c r="WL140"/>
-      <c r="WM140"/>
-      <c r="WN140"/>
-      <c r="WO140"/>
-      <c r="WP140"/>
-      <c r="WQ140"/>
-      <c r="WR140"/>
-      <c r="WS140"/>
-      <c r="WT140"/>
-      <c r="WU140"/>
-      <c r="WV140"/>
-      <c r="WW140"/>
-      <c r="WX140"/>
-      <c r="WY140"/>
-      <c r="WZ140"/>
-      <c r="XA140"/>
-      <c r="XB140"/>
-      <c r="XC140"/>
-      <c r="XD140"/>
-      <c r="XE140"/>
-      <c r="XF140"/>
-      <c r="XG140"/>
-      <c r="XH140"/>
-      <c r="XI140"/>
-      <c r="XJ140"/>
-      <c r="XK140"/>
-      <c r="XL140"/>
-      <c r="XM140"/>
-      <c r="XN140"/>
-      <c r="XO140"/>
-      <c r="XP140"/>
-      <c r="XQ140"/>
-      <c r="XR140"/>
-      <c r="XS140"/>
-      <c r="XT140"/>
-      <c r="XU140"/>
-      <c r="XV140"/>
-      <c r="XW140"/>
-      <c r="XX140"/>
-      <c r="XY140"/>
-      <c r="XZ140"/>
-      <c r="YA140"/>
-      <c r="YB140"/>
-      <c r="YC140"/>
-      <c r="YD140"/>
-      <c r="YE140"/>
-      <c r="YF140"/>
-      <c r="YG140"/>
-      <c r="YH140"/>
-      <c r="YI140"/>
-      <c r="YJ140"/>
-      <c r="YK140"/>
-      <c r="YL140"/>
-      <c r="YM140"/>
-      <c r="YN140"/>
-      <c r="YO140"/>
-      <c r="YP140"/>
-      <c r="YQ140"/>
-      <c r="YR140"/>
-      <c r="YS140"/>
-      <c r="YT140"/>
-      <c r="YU140"/>
-      <c r="YV140"/>
-      <c r="YW140"/>
-      <c r="YX140"/>
-      <c r="YY140"/>
-      <c r="YZ140"/>
-      <c r="ZA140"/>
-      <c r="ZB140"/>
-      <c r="ZC140"/>
-      <c r="ZD140"/>
-      <c r="ZE140"/>
-      <c r="ZF140"/>
-      <c r="ZG140"/>
-      <c r="ZH140"/>
-      <c r="ZI140"/>
-      <c r="ZJ140"/>
-      <c r="ZK140"/>
-      <c r="ZL140"/>
-      <c r="ZM140"/>
-      <c r="ZN140"/>
-      <c r="ZO140"/>
-      <c r="ZP140"/>
-      <c r="ZQ140"/>
-      <c r="ZR140"/>
-      <c r="ZS140"/>
-      <c r="ZT140"/>
-      <c r="ZU140"/>
-      <c r="ZV140"/>
-      <c r="ZW140"/>
-      <c r="ZX140"/>
-      <c r="ZY140"/>
-      <c r="ZZ140"/>
-      <c r="AAA140"/>
-      <c r="AAB140"/>
-      <c r="AAC140"/>
-      <c r="AAD140"/>
-      <c r="AAE140"/>
-      <c r="AAF140"/>
-      <c r="AAG140"/>
-      <c r="AAH140"/>
-      <c r="AAI140"/>
-      <c r="AAJ140"/>
-      <c r="AAK140"/>
-      <c r="AAL140"/>
-      <c r="AAM140"/>
-      <c r="AAN140"/>
-      <c r="AAO140"/>
-      <c r="AAP140"/>
-      <c r="AAQ140"/>
-      <c r="AAR140"/>
-      <c r="AAS140"/>
-      <c r="AAT140"/>
-      <c r="AAU140"/>
-      <c r="AAV140"/>
-      <c r="AAW140"/>
-      <c r="AAX140"/>
-      <c r="AAY140"/>
-      <c r="AAZ140"/>
-      <c r="ABA140"/>
-      <c r="ABB140"/>
-      <c r="ABC140"/>
-      <c r="ABD140"/>
-      <c r="ABE140"/>
-      <c r="ABF140"/>
-      <c r="ABG140"/>
-      <c r="ABH140"/>
-      <c r="ABI140"/>
-      <c r="ABJ140"/>
-      <c r="ABK140"/>
-      <c r="ABL140"/>
-      <c r="ABM140"/>
-      <c r="ABN140"/>
-      <c r="ABO140"/>
-      <c r="ABP140"/>
-      <c r="ABQ140"/>
-      <c r="ABR140"/>
-      <c r="ABS140"/>
-      <c r="ABT140"/>
-      <c r="ABU140"/>
-      <c r="ABV140"/>
-      <c r="ABW140"/>
-      <c r="ABX140"/>
-      <c r="ABY140"/>
-      <c r="ABZ140"/>
-      <c r="ACA140"/>
-      <c r="ACB140"/>
-      <c r="ACC140"/>
-      <c r="ACD140"/>
-      <c r="ACE140"/>
-      <c r="ACF140"/>
-      <c r="ACG140"/>
-      <c r="ACH140"/>
-      <c r="ACI140"/>
-      <c r="ACJ140"/>
-      <c r="ACK140"/>
-      <c r="ACL140"/>
-      <c r="ACM140"/>
-      <c r="ACN140"/>
-      <c r="ACO140"/>
-      <c r="ACP140"/>
-      <c r="ACQ140"/>
-      <c r="ACR140"/>
-      <c r="ACS140"/>
-      <c r="ACT140"/>
-      <c r="ACU140"/>
-      <c r="ACV140"/>
-      <c r="ACW140"/>
-      <c r="ACX140"/>
-      <c r="ACY140"/>
-      <c r="ACZ140"/>
-      <c r="ADA140"/>
-      <c r="ADB140"/>
-      <c r="ADC140"/>
-      <c r="ADD140"/>
-      <c r="ADE140"/>
-      <c r="ADF140"/>
-      <c r="ADG140"/>
-      <c r="ADH140"/>
-      <c r="ADI140"/>
-      <c r="ADJ140"/>
-      <c r="ADK140"/>
-      <c r="ADL140"/>
-      <c r="ADM140"/>
-      <c r="ADN140"/>
-      <c r="ADO140"/>
-      <c r="ADP140"/>
-      <c r="ADQ140"/>
-      <c r="ADR140"/>
-      <c r="ADS140"/>
-      <c r="ADT140"/>
-      <c r="ADU140"/>
-      <c r="ADV140"/>
-      <c r="ADW140"/>
-      <c r="ADX140"/>
-      <c r="ADY140"/>
-      <c r="ADZ140"/>
-      <c r="AEA140"/>
-      <c r="AEB140"/>
-      <c r="AEC140"/>
-      <c r="AED140"/>
-      <c r="AEE140"/>
-      <c r="AEF140"/>
-      <c r="AEG140"/>
-      <c r="AEH140"/>
-      <c r="AEI140"/>
-      <c r="AEJ140"/>
-      <c r="AEK140"/>
-      <c r="AEL140"/>
-      <c r="AEM140"/>
-      <c r="AEN140"/>
-      <c r="AEO140"/>
-      <c r="AEP140"/>
-      <c r="AEQ140"/>
-      <c r="AER140"/>
-      <c r="AES140"/>
-      <c r="AET140"/>
-      <c r="AEU140"/>
-      <c r="AEV140"/>
-      <c r="AEW140"/>
-      <c r="AEX140"/>
-      <c r="AEY140"/>
-      <c r="AEZ140"/>
-      <c r="AFA140"/>
-      <c r="AFB140"/>
-      <c r="AFC140"/>
-      <c r="AFD140"/>
-      <c r="AFE140"/>
-      <c r="AFF140"/>
-      <c r="AFG140"/>
-      <c r="AFH140"/>
-      <c r="AFI140"/>
-      <c r="AFJ140"/>
-      <c r="AFK140"/>
-      <c r="AFL140"/>
-      <c r="AFM140"/>
-      <c r="AFN140"/>
-      <c r="AFO140"/>
-      <c r="AFP140"/>
-      <c r="AFQ140"/>
-      <c r="AFR140"/>
-      <c r="AFS140"/>
-      <c r="AFT140"/>
-      <c r="AFU140"/>
-      <c r="AFV140"/>
-      <c r="AFW140"/>
-      <c r="AFX140"/>
-      <c r="AFY140"/>
-      <c r="AFZ140"/>
-      <c r="AGA140"/>
-      <c r="AGB140"/>
-      <c r="AGC140"/>
-      <c r="AGD140"/>
-      <c r="AGE140"/>
-      <c r="AGF140"/>
-      <c r="AGG140"/>
-      <c r="AGH140"/>
-      <c r="AGI140"/>
-      <c r="AGJ140"/>
-      <c r="AGK140"/>
-      <c r="AGL140"/>
-      <c r="AGM140"/>
-      <c r="AGN140"/>
-      <c r="AGO140"/>
-      <c r="AGP140"/>
-      <c r="AGQ140"/>
-      <c r="AGR140"/>
-      <c r="AGS140"/>
-      <c r="AGT140"/>
-      <c r="AGU140"/>
-      <c r="AGV140"/>
-      <c r="AGW140"/>
-      <c r="AGX140"/>
-      <c r="AGY140"/>
-      <c r="AGZ140"/>
-      <c r="AHA140"/>
-      <c r="AHB140"/>
-      <c r="AHC140"/>
-      <c r="AHD140"/>
-      <c r="AHE140"/>
-      <c r="AHF140"/>
-      <c r="AHG140"/>
-      <c r="AHH140"/>
-      <c r="AHI140"/>
-      <c r="AHJ140"/>
-      <c r="AHK140"/>
-      <c r="AHL140"/>
-      <c r="AHM140"/>
-      <c r="AHN140"/>
-      <c r="AHO140"/>
-      <c r="AHP140"/>
-      <c r="AHQ140"/>
-      <c r="AHR140"/>
-      <c r="AHS140"/>
-      <c r="AHT140"/>
-      <c r="AHU140"/>
-      <c r="AHV140"/>
-      <c r="AHW140"/>
-      <c r="AHX140"/>
-      <c r="AHY140"/>
-      <c r="AHZ140"/>
-      <c r="AIA140"/>
-      <c r="AIB140"/>
-      <c r="AIC140"/>
-      <c r="AID140"/>
-      <c r="AIE140"/>
-      <c r="AIF140"/>
-      <c r="AIG140"/>
-      <c r="AIH140"/>
-      <c r="AII140"/>
-      <c r="AIJ140"/>
-      <c r="AIK140"/>
-      <c r="AIL140"/>
-      <c r="AIM140"/>
-      <c r="AIN140"/>
-      <c r="AIO140"/>
-      <c r="AIP140"/>
-      <c r="AIQ140"/>
-      <c r="AIR140"/>
-      <c r="AIS140"/>
-      <c r="AIT140"/>
-      <c r="AIU140"/>
-      <c r="AIV140"/>
-      <c r="AIW140"/>
-      <c r="AIX140"/>
-      <c r="AIY140"/>
-      <c r="AIZ140"/>
-      <c r="AJA140"/>
-      <c r="AJB140"/>
-      <c r="AJC140"/>
-      <c r="AJD140"/>
-      <c r="AJE140"/>
-      <c r="AJF140"/>
-      <c r="AJG140"/>
-      <c r="AJH140"/>
-      <c r="AJI140"/>
-      <c r="AJJ140"/>
-      <c r="AJK140"/>
-      <c r="AJL140"/>
-      <c r="AJM140"/>
-      <c r="AJN140"/>
-      <c r="AJO140"/>
-      <c r="AJP140"/>
-      <c r="AJQ140"/>
-      <c r="AJR140"/>
-      <c r="AJS140"/>
-      <c r="AJT140"/>
-      <c r="AJU140"/>
-      <c r="AJV140"/>
-      <c r="AJW140"/>
-      <c r="AJX140"/>
-      <c r="AJY140"/>
-      <c r="AJZ140"/>
-      <c r="AKA140"/>
-      <c r="AKB140"/>
-      <c r="AKC140"/>
-      <c r="AKD140"/>
-      <c r="AKE140"/>
-      <c r="AKF140"/>
-      <c r="AKG140"/>
-      <c r="AKH140"/>
-      <c r="AKI140"/>
-      <c r="AKJ140"/>
-      <c r="AKK140"/>
-      <c r="AKL140"/>
-      <c r="AKM140"/>
-      <c r="AKN140"/>
-      <c r="AKO140"/>
-      <c r="AKP140"/>
-      <c r="AKQ140"/>
-      <c r="AKR140"/>
-      <c r="AKS140"/>
-      <c r="AKT140"/>
-      <c r="AKU140"/>
-      <c r="AKV140"/>
-      <c r="AKW140"/>
-      <c r="AKX140"/>
-      <c r="AKY140"/>
-      <c r="AKZ140"/>
-      <c r="ALA140"/>
-      <c r="ALB140"/>
-      <c r="ALC140"/>
-      <c r="ALD140"/>
-      <c r="ALE140"/>
-      <c r="ALF140"/>
-      <c r="ALG140"/>
-      <c r="ALH140"/>
-      <c r="ALI140"/>
-      <c r="ALJ140"/>
-      <c r="ALK140"/>
-      <c r="ALL140"/>
-      <c r="ALM140"/>
-      <c r="ALN140"/>
-      <c r="ALO140"/>
-      <c r="ALP140"/>
-      <c r="ALQ140"/>
-      <c r="ALR140"/>
-      <c r="ALS140"/>
-      <c r="ALT140"/>
-      <c r="ALU140"/>
-      <c r="ALV140"/>
-      <c r="ALW140"/>
-      <c r="ALX140"/>
-      <c r="ALY140"/>
-      <c r="ALZ140"/>
-      <c r="AMA140"/>
-      <c r="AMB140"/>
-      <c r="AMC140"/>
-      <c r="AMD140"/>
-      <c r="AME140"/>
-      <c r="AMF140"/>
-      <c r="AMG140"/>
-      <c r="AMH140"/>
-      <c r="AMI140"/>
-      <c r="AMJ140"/>
+      <c r="F142" s="63"/>
+      <c r="G142" s="63"/>
+      <c r="H142" s="64"/>
+      <c r="I142" s="82" t="s">
+        <v>186</v>
+      </c>
     </row>
-    <row r="141" ht="13" customHeight="1" spans="1:1024">
-      <c r="A141" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B141" s="50"/>
-      <c r="C141" s="8" t="s">
+    <row r="143" spans="1:9">
+      <c r="A143" s="65"/>
+      <c r="B143" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="C143" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D141" s="56"/>
-      <c r="E141" s="40"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="16"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="49"/>
-      <c r="J141"/>
-      <c r="K141"/>
-      <c r="L141"/>
-      <c r="M141"/>
-      <c r="N141"/>
-      <c r="O141"/>
-      <c r="P141"/>
-      <c r="Q141"/>
-      <c r="R141"/>
-      <c r="S141"/>
-      <c r="T141"/>
-      <c r="U141"/>
-      <c r="V141"/>
-      <c r="W141"/>
-      <c r="X141"/>
-      <c r="Y141"/>
-      <c r="Z141"/>
-      <c r="AA141"/>
-      <c r="AB141"/>
-      <c r="AC141"/>
-      <c r="AD141"/>
-      <c r="AE141"/>
-      <c r="AF141"/>
-      <c r="AG141"/>
-      <c r="AH141"/>
-      <c r="AI141"/>
-      <c r="AJ141"/>
-      <c r="AK141"/>
-      <c r="AL141"/>
-      <c r="AM141"/>
-      <c r="AN141"/>
-      <c r="AO141"/>
-      <c r="AP141"/>
-      <c r="AQ141"/>
-      <c r="AR141"/>
-      <c r="AS141"/>
-      <c r="AT141"/>
-      <c r="AU141"/>
-      <c r="AV141"/>
-      <c r="AW141"/>
-      <c r="AX141"/>
-      <c r="AY141"/>
-      <c r="AZ141"/>
-      <c r="BA141"/>
-      <c r="BB141"/>
-      <c r="BC141"/>
-      <c r="BD141"/>
-      <c r="BE141"/>
-      <c r="BF141"/>
-      <c r="BG141"/>
-      <c r="BH141"/>
-      <c r="BI141"/>
-      <c r="BJ141"/>
-      <c r="BK141"/>
-      <c r="BL141"/>
-      <c r="BM141"/>
-      <c r="BN141"/>
-      <c r="BO141"/>
-      <c r="BP141"/>
-      <c r="BQ141"/>
-      <c r="BR141"/>
-      <c r="BS141"/>
-      <c r="BT141"/>
-      <c r="BU141"/>
-      <c r="BV141"/>
-      <c r="BW141"/>
-      <c r="BX141"/>
-      <c r="BY141"/>
-      <c r="BZ141"/>
-      <c r="CA141"/>
-      <c r="CB141"/>
-      <c r="CC141"/>
-      <c r="CD141"/>
-      <c r="CE141"/>
-      <c r="CF141"/>
-      <c r="CG141"/>
-      <c r="CH141"/>
-      <c r="CI141"/>
-      <c r="CJ141"/>
-      <c r="CK141"/>
-      <c r="CL141"/>
-      <c r="CM141"/>
-      <c r="CN141"/>
-      <c r="CO141"/>
-      <c r="CP141"/>
-      <c r="CQ141"/>
-      <c r="CR141"/>
-      <c r="CS141"/>
-      <c r="CT141"/>
-      <c r="CU141"/>
-      <c r="CV141"/>
-      <c r="CW141"/>
-      <c r="CX141"/>
-      <c r="CY141"/>
-      <c r="CZ141"/>
-      <c r="DA141"/>
-      <c r="DB141"/>
-      <c r="DC141"/>
-      <c r="DD141"/>
-      <c r="DE141"/>
-      <c r="DF141"/>
-      <c r="DG141"/>
-      <c r="DH141"/>
-      <c r="DI141"/>
-      <c r="DJ141"/>
-      <c r="DK141"/>
-      <c r="DL141"/>
-      <c r="DM141"/>
-      <c r="DN141"/>
-      <c r="DO141"/>
-      <c r="DP141"/>
-      <c r="DQ141"/>
-      <c r="DR141"/>
-      <c r="DS141"/>
-      <c r="DT141"/>
-      <c r="DU141"/>
-      <c r="DV141"/>
-      <c r="DW141"/>
-      <c r="DX141"/>
-      <c r="DY141"/>
-      <c r="DZ141"/>
-      <c r="EA141"/>
-      <c r="EB141"/>
-      <c r="EC141"/>
-      <c r="ED141"/>
-      <c r="EE141"/>
-      <c r="EF141"/>
-      <c r="EG141"/>
-      <c r="EH141"/>
-      <c r="EI141"/>
-      <c r="EJ141"/>
-      <c r="EK141"/>
-      <c r="EL141"/>
-      <c r="EM141"/>
-      <c r="EN141"/>
-      <c r="EO141"/>
-      <c r="EP141"/>
-      <c r="EQ141"/>
-      <c r="ER141"/>
-      <c r="ES141"/>
-      <c r="ET141"/>
-      <c r="EU141"/>
-      <c r="EV141"/>
-      <c r="EW141"/>
-      <c r="EX141"/>
-      <c r="EY141"/>
-      <c r="EZ141"/>
-      <c r="FA141"/>
-      <c r="FB141"/>
-      <c r="FC141"/>
-      <c r="FD141"/>
-      <c r="FE141"/>
-      <c r="FF141"/>
-      <c r="FG141"/>
-      <c r="FH141"/>
-      <c r="FI141"/>
-      <c r="FJ141"/>
-      <c r="FK141"/>
-      <c r="FL141"/>
-      <c r="FM141"/>
-      <c r="FN141"/>
-      <c r="FO141"/>
-      <c r="FP141"/>
-      <c r="FQ141"/>
-      <c r="FR141"/>
-      <c r="FS141"/>
-      <c r="FT141"/>
-      <c r="FU141"/>
-      <c r="FV141"/>
-      <c r="FW141"/>
-      <c r="FX141"/>
-      <c r="FY141"/>
-      <c r="FZ141"/>
-      <c r="GA141"/>
-      <c r="GB141"/>
-      <c r="GC141"/>
-      <c r="GD141"/>
-      <c r="GE141"/>
-      <c r="GF141"/>
-      <c r="GG141"/>
-      <c r="GH141"/>
-      <c r="GI141"/>
-      <c r="GJ141"/>
-      <c r="GK141"/>
-      <c r="GL141"/>
-      <c r="GM141"/>
-      <c r="GN141"/>
-      <c r="GO141"/>
-      <c r="GP141"/>
-      <c r="GQ141"/>
-      <c r="GR141"/>
-      <c r="GS141"/>
-      <c r="GT141"/>
-      <c r="GU141"/>
-      <c r="GV141"/>
-      <c r="GW141"/>
-      <c r="GX141"/>
-      <c r="GY141"/>
-      <c r="GZ141"/>
-      <c r="HA141"/>
-      <c r="HB141"/>
-      <c r="HC141"/>
-      <c r="HD141"/>
-      <c r="HE141"/>
-      <c r="HF141"/>
-      <c r="HG141"/>
-      <c r="HH141"/>
-      <c r="HI141"/>
-      <c r="HJ141"/>
-      <c r="HK141"/>
-      <c r="HL141"/>
-      <c r="HM141"/>
-      <c r="HN141"/>
-      <c r="HO141"/>
-      <c r="HP141"/>
-      <c r="HQ141"/>
-      <c r="HR141"/>
-      <c r="HS141"/>
-      <c r="HT141"/>
-      <c r="HU141"/>
-      <c r="HV141"/>
-      <c r="HW141"/>
-      <c r="HX141"/>
-      <c r="HY141"/>
-      <c r="HZ141"/>
-      <c r="IA141"/>
-      <c r="IB141"/>
-      <c r="IC141"/>
-      <c r="ID141"/>
-      <c r="IE141"/>
-      <c r="IF141"/>
-      <c r="IG141"/>
-      <c r="IH141"/>
-      <c r="II141"/>
-      <c r="IJ141"/>
-      <c r="IK141"/>
-      <c r="IL141"/>
-      <c r="IM141"/>
-      <c r="IN141"/>
-      <c r="IO141"/>
-      <c r="IP141"/>
-      <c r="IQ141"/>
-      <c r="IR141"/>
-      <c r="IS141"/>
-      <c r="IT141"/>
-      <c r="IU141"/>
-      <c r="IV141"/>
-      <c r="IW141"/>
-      <c r="IX141"/>
-      <c r="IY141"/>
-      <c r="IZ141"/>
-      <c r="JA141"/>
-      <c r="JB141"/>
-      <c r="JC141"/>
-      <c r="JD141"/>
-      <c r="JE141"/>
-      <c r="JF141"/>
-      <c r="JG141"/>
-      <c r="JH141"/>
-      <c r="JI141"/>
-      <c r="JJ141"/>
-      <c r="JK141"/>
-      <c r="JL141"/>
-      <c r="JM141"/>
-      <c r="JN141"/>
-      <c r="JO141"/>
-      <c r="JP141"/>
-      <c r="JQ141"/>
-      <c r="JR141"/>
-      <c r="JS141"/>
-      <c r="JT141"/>
-      <c r="JU141"/>
-      <c r="JV141"/>
-      <c r="JW141"/>
-      <c r="JX141"/>
-      <c r="JY141"/>
-      <c r="JZ141"/>
-      <c r="KA141"/>
-      <c r="KB141"/>
-      <c r="KC141"/>
-      <c r="KD141"/>
-      <c r="KE141"/>
-      <c r="KF141"/>
-      <c r="KG141"/>
-      <c r="KH141"/>
-      <c r="KI141"/>
-      <c r="KJ141"/>
-      <c r="KK141"/>
-      <c r="KL141"/>
-      <c r="KM141"/>
-      <c r="KN141"/>
-      <c r="KO141"/>
-      <c r="KP141"/>
-      <c r="KQ141"/>
-      <c r="KR141"/>
-      <c r="KS141"/>
-      <c r="KT141"/>
-      <c r="KU141"/>
-      <c r="KV141"/>
-      <c r="KW141"/>
-      <c r="KX141"/>
-      <c r="KY141"/>
-      <c r="KZ141"/>
-      <c r="LA141"/>
-      <c r="LB141"/>
-      <c r="LC141"/>
-      <c r="LD141"/>
-      <c r="LE141"/>
-      <c r="LF141"/>
-      <c r="LG141"/>
-      <c r="LH141"/>
-      <c r="LI141"/>
-      <c r="LJ141"/>
-      <c r="LK141"/>
-      <c r="LL141"/>
-      <c r="LM141"/>
-      <c r="LN141"/>
-      <c r="LO141"/>
-      <c r="LP141"/>
-      <c r="LQ141"/>
-      <c r="LR141"/>
-      <c r="LS141"/>
-      <c r="LT141"/>
-      <c r="LU141"/>
-      <c r="LV141"/>
-      <c r="LW141"/>
-      <c r="LX141"/>
-      <c r="LY141"/>
-      <c r="LZ141"/>
-      <c r="MA141"/>
-      <c r="MB141"/>
-      <c r="MC141"/>
-      <c r="MD141"/>
-      <c r="ME141"/>
-      <c r="MF141"/>
-      <c r="MG141"/>
-      <c r="MH141"/>
-      <c r="MI141"/>
-      <c r="MJ141"/>
-      <c r="MK141"/>
-      <c r="ML141"/>
-      <c r="MM141"/>
-      <c r="MN141"/>
-      <c r="MO141"/>
-      <c r="MP141"/>
-      <c r="MQ141"/>
-      <c r="MR141"/>
-      <c r="MS141"/>
-      <c r="MT141"/>
-      <c r="MU141"/>
-      <c r="MV141"/>
-      <c r="MW141"/>
-      <c r="MX141"/>
-      <c r="MY141"/>
-      <c r="MZ141"/>
-      <c r="NA141"/>
-      <c r="NB141"/>
-      <c r="NC141"/>
-      <c r="ND141"/>
-      <c r="NE141"/>
-      <c r="NF141"/>
-      <c r="NG141"/>
-      <c r="NH141"/>
-      <c r="NI141"/>
-      <c r="NJ141"/>
-      <c r="NK141"/>
-      <c r="NL141"/>
-      <c r="NM141"/>
-      <c r="NN141"/>
-      <c r="NO141"/>
-      <c r="NP141"/>
-      <c r="NQ141"/>
-      <c r="NR141"/>
-      <c r="NS141"/>
-      <c r="NT141"/>
-      <c r="NU141"/>
-      <c r="NV141"/>
-      <c r="NW141"/>
-      <c r="NX141"/>
-      <c r="NY141"/>
-      <c r="NZ141"/>
-      <c r="OA141"/>
-      <c r="OB141"/>
-      <c r="OC141"/>
-      <c r="OD141"/>
-      <c r="OE141"/>
-      <c r="OF141"/>
-      <c r="OG141"/>
-      <c r="OH141"/>
-      <c r="OI141"/>
-      <c r="OJ141"/>
-      <c r="OK141"/>
-      <c r="OL141"/>
-      <c r="OM141"/>
-      <c r="ON141"/>
-      <c r="OO141"/>
-      <c r="OP141"/>
-      <c r="OQ141"/>
-      <c r="OR141"/>
-      <c r="OS141"/>
-      <c r="OT141"/>
-      <c r="OU141"/>
-      <c r="OV141"/>
-      <c r="OW141"/>
-      <c r="OX141"/>
-      <c r="OY141"/>
-      <c r="OZ141"/>
-      <c r="PA141"/>
-      <c r="PB141"/>
-      <c r="PC141"/>
-      <c r="PD141"/>
-      <c r="PE141"/>
-      <c r="PF141"/>
-      <c r="PG141"/>
-      <c r="PH141"/>
-      <c r="PI141"/>
-      <c r="PJ141"/>
-      <c r="PK141"/>
-      <c r="PL141"/>
-      <c r="PM141"/>
-      <c r="PN141"/>
-      <c r="PO141"/>
-      <c r="PP141"/>
-      <c r="PQ141"/>
-      <c r="PR141"/>
-      <c r="PS141"/>
-      <c r="PT141"/>
-      <c r="PU141"/>
-      <c r="PV141"/>
-      <c r="PW141"/>
-      <c r="PX141"/>
-      <c r="PY141"/>
-      <c r="PZ141"/>
-      <c r="QA141"/>
-      <c r="QB141"/>
-      <c r="QC141"/>
-      <c r="QD141"/>
-      <c r="QE141"/>
-      <c r="QF141"/>
-      <c r="QG141"/>
-      <c r="QH141"/>
-      <c r="QI141"/>
-      <c r="QJ141"/>
-      <c r="QK141"/>
-      <c r="QL141"/>
-      <c r="QM141"/>
-      <c r="QN141"/>
-      <c r="QO141"/>
-      <c r="QP141"/>
-      <c r="QQ141"/>
-      <c r="QR141"/>
-      <c r="QS141"/>
-      <c r="QT141"/>
-      <c r="QU141"/>
-      <c r="QV141"/>
-      <c r="QW141"/>
-      <c r="QX141"/>
-      <c r="QY141"/>
-      <c r="QZ141"/>
-      <c r="RA141"/>
-      <c r="RB141"/>
-      <c r="RC141"/>
-      <c r="RD141"/>
-      <c r="RE141"/>
-      <c r="RF141"/>
-      <c r="RG141"/>
-      <c r="RH141"/>
-      <c r="RI141"/>
-      <c r="RJ141"/>
-      <c r="RK141"/>
-      <c r="RL141"/>
-      <c r="RM141"/>
-      <c r="RN141"/>
-      <c r="RO141"/>
-      <c r="RP141"/>
-      <c r="RQ141"/>
-      <c r="RR141"/>
-      <c r="RS141"/>
-      <c r="RT141"/>
-      <c r="RU141"/>
-      <c r="RV141"/>
-      <c r="RW141"/>
-      <c r="RX141"/>
-      <c r="RY141"/>
-      <c r="RZ141"/>
-      <c r="SA141"/>
-      <c r="SB141"/>
-      <c r="SC141"/>
-      <c r="SD141"/>
-      <c r="SE141"/>
-      <c r="SF141"/>
-      <c r="SG141"/>
-      <c r="SH141"/>
-      <c r="SI141"/>
-      <c r="SJ141"/>
-      <c r="SK141"/>
-      <c r="SL141"/>
-      <c r="SM141"/>
-      <c r="SN141"/>
-      <c r="SO141"/>
-      <c r="SP141"/>
-      <c r="SQ141"/>
-      <c r="SR141"/>
-      <c r="SS141"/>
-      <c r="ST141"/>
-      <c r="SU141"/>
-      <c r="SV141"/>
-      <c r="SW141"/>
-      <c r="SX141"/>
-      <c r="SY141"/>
-      <c r="SZ141"/>
-      <c r="TA141"/>
-      <c r="TB141"/>
-      <c r="TC141"/>
-      <c r="TD141"/>
-      <c r="TE141"/>
-      <c r="TF141"/>
-      <c r="TG141"/>
-      <c r="TH141"/>
-      <c r="TI141"/>
-      <c r="TJ141"/>
-      <c r="TK141"/>
-      <c r="TL141"/>
-      <c r="TM141"/>
-      <c r="TN141"/>
-      <c r="TO141"/>
-      <c r="TP141"/>
-      <c r="TQ141"/>
-      <c r="TR141"/>
-      <c r="TS141"/>
-      <c r="TT141"/>
-      <c r="TU141"/>
-      <c r="TV141"/>
-      <c r="TW141"/>
-      <c r="TX141"/>
-      <c r="TY141"/>
-      <c r="TZ141"/>
-      <c r="UA141"/>
-      <c r="UB141"/>
-      <c r="UC141"/>
-      <c r="UD141"/>
-      <c r="UE141"/>
-      <c r="UF141"/>
-      <c r="UG141"/>
-      <c r="UH141"/>
-      <c r="UI141"/>
-      <c r="UJ141"/>
-      <c r="UK141"/>
-      <c r="UL141"/>
-      <c r="UM141"/>
-      <c r="UN141"/>
-      <c r="UO141"/>
-      <c r="UP141"/>
-      <c r="UQ141"/>
-      <c r="UR141"/>
-      <c r="US141"/>
-      <c r="UT141"/>
-      <c r="UU141"/>
-      <c r="UV141"/>
-      <c r="UW141"/>
-      <c r="UX141"/>
-      <c r="UY141"/>
-      <c r="UZ141"/>
-      <c r="VA141"/>
-      <c r="VB141"/>
-      <c r="VC141"/>
-      <c r="VD141"/>
-      <c r="VE141"/>
-      <c r="VF141"/>
-      <c r="VG141"/>
-      <c r="VH141"/>
-      <c r="VI141"/>
-      <c r="VJ141"/>
-      <c r="VK141"/>
-      <c r="VL141"/>
-      <c r="VM141"/>
-      <c r="VN141"/>
-      <c r="VO141"/>
-      <c r="VP141"/>
-      <c r="VQ141"/>
-      <c r="VR141"/>
-      <c r="VS141"/>
-      <c r="VT141"/>
-      <c r="VU141"/>
-      <c r="VV141"/>
-      <c r="VW141"/>
-      <c r="VX141"/>
-      <c r="VY141"/>
-      <c r="VZ141"/>
-      <c r="WA141"/>
-      <c r="WB141"/>
-      <c r="WC141"/>
-      <c r="WD141"/>
-      <c r="WE141"/>
-      <c r="WF141"/>
-      <c r="WG141"/>
-      <c r="WH141"/>
-      <c r="WI141"/>
-      <c r="WJ141"/>
-      <c r="WK141"/>
-      <c r="WL141"/>
-      <c r="WM141"/>
-      <c r="WN141"/>
-      <c r="WO141"/>
-      <c r="WP141"/>
-      <c r="WQ141"/>
-      <c r="WR141"/>
-      <c r="WS141"/>
-      <c r="WT141"/>
-      <c r="WU141"/>
-      <c r="WV141"/>
-      <c r="WW141"/>
-      <c r="WX141"/>
-      <c r="WY141"/>
-      <c r="WZ141"/>
-      <c r="XA141"/>
-      <c r="XB141"/>
-      <c r="XC141"/>
-      <c r="XD141"/>
-      <c r="XE141"/>
-      <c r="XF141"/>
-      <c r="XG141"/>
-      <c r="XH141"/>
-      <c r="XI141"/>
-      <c r="XJ141"/>
-      <c r="XK141"/>
-      <c r="XL141"/>
-      <c r="XM141"/>
-      <c r="XN141"/>
-      <c r="XO141"/>
-      <c r="XP141"/>
-      <c r="XQ141"/>
-      <c r="XR141"/>
-      <c r="XS141"/>
-      <c r="XT141"/>
-      <c r="XU141"/>
-      <c r="XV141"/>
-      <c r="XW141"/>
-      <c r="XX141"/>
-      <c r="XY141"/>
-      <c r="XZ141"/>
-      <c r="YA141"/>
-      <c r="YB141"/>
-      <c r="YC141"/>
-      <c r="YD141"/>
-      <c r="YE141"/>
-      <c r="YF141"/>
-      <c r="YG141"/>
-      <c r="YH141"/>
-      <c r="YI141"/>
-      <c r="YJ141"/>
-      <c r="YK141"/>
-      <c r="YL141"/>
-      <c r="YM141"/>
-      <c r="YN141"/>
-      <c r="YO141"/>
-      <c r="YP141"/>
-      <c r="YQ141"/>
-      <c r="YR141"/>
-      <c r="YS141"/>
-      <c r="YT141"/>
-      <c r="YU141"/>
-      <c r="YV141"/>
-      <c r="YW141"/>
-      <c r="YX141"/>
-      <c r="YY141"/>
-      <c r="YZ141"/>
-      <c r="ZA141"/>
-      <c r="ZB141"/>
-      <c r="ZC141"/>
-      <c r="ZD141"/>
-      <c r="ZE141"/>
-      <c r="ZF141"/>
-      <c r="ZG141"/>
-      <c r="ZH141"/>
-      <c r="ZI141"/>
-      <c r="ZJ141"/>
-      <c r="ZK141"/>
-      <c r="ZL141"/>
-      <c r="ZM141"/>
-      <c r="ZN141"/>
-      <c r="ZO141"/>
-      <c r="ZP141"/>
-      <c r="ZQ141"/>
-      <c r="ZR141"/>
-      <c r="ZS141"/>
-      <c r="ZT141"/>
-      <c r="ZU141"/>
-      <c r="ZV141"/>
-      <c r="ZW141"/>
-      <c r="ZX141"/>
-      <c r="ZY141"/>
-      <c r="ZZ141"/>
-      <c r="AAA141"/>
-      <c r="AAB141"/>
-      <c r="AAC141"/>
-      <c r="AAD141"/>
-      <c r="AAE141"/>
-      <c r="AAF141"/>
-      <c r="AAG141"/>
-      <c r="AAH141"/>
-      <c r="AAI141"/>
-      <c r="AAJ141"/>
-      <c r="AAK141"/>
-      <c r="AAL141"/>
-      <c r="AAM141"/>
-      <c r="AAN141"/>
-      <c r="AAO141"/>
-      <c r="AAP141"/>
-      <c r="AAQ141"/>
-      <c r="AAR141"/>
-      <c r="AAS141"/>
-      <c r="AAT141"/>
-      <c r="AAU141"/>
-      <c r="AAV141"/>
-      <c r="AAW141"/>
-      <c r="AAX141"/>
-      <c r="AAY141"/>
-      <c r="AAZ141"/>
-      <c r="ABA141"/>
-      <c r="ABB141"/>
-      <c r="ABC141"/>
-      <c r="ABD141"/>
-      <c r="ABE141"/>
-      <c r="ABF141"/>
-      <c r="ABG141"/>
-      <c r="ABH141"/>
-      <c r="ABI141"/>
-      <c r="ABJ141"/>
-      <c r="ABK141"/>
-      <c r="ABL141"/>
-      <c r="ABM141"/>
-      <c r="ABN141"/>
-      <c r="ABO141"/>
-      <c r="ABP141"/>
-      <c r="ABQ141"/>
-      <c r="ABR141"/>
-      <c r="ABS141"/>
-      <c r="ABT141"/>
-      <c r="ABU141"/>
-      <c r="ABV141"/>
-      <c r="ABW141"/>
-      <c r="ABX141"/>
-      <c r="ABY141"/>
-      <c r="ABZ141"/>
-      <c r="ACA141"/>
-      <c r="ACB141"/>
-      <c r="ACC141"/>
-      <c r="ACD141"/>
-      <c r="ACE141"/>
-      <c r="ACF141"/>
-      <c r="ACG141"/>
-      <c r="ACH141"/>
-      <c r="ACI141"/>
-      <c r="ACJ141"/>
-      <c r="ACK141"/>
-      <c r="ACL141"/>
-      <c r="ACM141"/>
-      <c r="ACN141"/>
-      <c r="ACO141"/>
-      <c r="ACP141"/>
-      <c r="ACQ141"/>
-      <c r="ACR141"/>
-      <c r="ACS141"/>
-      <c r="ACT141"/>
-      <c r="ACU141"/>
-      <c r="ACV141"/>
-      <c r="ACW141"/>
-      <c r="ACX141"/>
-      <c r="ACY141"/>
-      <c r="ACZ141"/>
-      <c r="ADA141"/>
-      <c r="ADB141"/>
-      <c r="ADC141"/>
-      <c r="ADD141"/>
-      <c r="ADE141"/>
-      <c r="ADF141"/>
-      <c r="ADG141"/>
-      <c r="ADH141"/>
-      <c r="ADI141"/>
-      <c r="ADJ141"/>
-      <c r="ADK141"/>
-      <c r="ADL141"/>
-      <c r="ADM141"/>
-      <c r="ADN141"/>
-      <c r="ADO141"/>
-      <c r="ADP141"/>
-      <c r="ADQ141"/>
-      <c r="ADR141"/>
-      <c r="ADS141"/>
-      <c r="ADT141"/>
-      <c r="ADU141"/>
-      <c r="ADV141"/>
-      <c r="ADW141"/>
-      <c r="ADX141"/>
-      <c r="ADY141"/>
-      <c r="ADZ141"/>
-      <c r="AEA141"/>
-      <c r="AEB141"/>
-      <c r="AEC141"/>
-      <c r="AED141"/>
-      <c r="AEE141"/>
-      <c r="AEF141"/>
-      <c r="AEG141"/>
-      <c r="AEH141"/>
-      <c r="AEI141"/>
-      <c r="AEJ141"/>
-      <c r="AEK141"/>
-      <c r="AEL141"/>
-      <c r="AEM141"/>
-      <c r="AEN141"/>
-      <c r="AEO141"/>
-      <c r="AEP141"/>
-      <c r="AEQ141"/>
-      <c r="AER141"/>
-      <c r="AES141"/>
-      <c r="AET141"/>
-      <c r="AEU141"/>
-      <c r="AEV141"/>
-      <c r="AEW141"/>
-      <c r="AEX141"/>
-      <c r="AEY141"/>
-      <c r="AEZ141"/>
-      <c r="AFA141"/>
-      <c r="AFB141"/>
-      <c r="AFC141"/>
-      <c r="AFD141"/>
-      <c r="AFE141"/>
-      <c r="AFF141"/>
-      <c r="AFG141"/>
-      <c r="AFH141"/>
-      <c r="AFI141"/>
-      <c r="AFJ141"/>
-      <c r="AFK141"/>
-      <c r="AFL141"/>
-      <c r="AFM141"/>
-      <c r="AFN141"/>
-      <c r="AFO141"/>
-      <c r="AFP141"/>
-      <c r="AFQ141"/>
-      <c r="AFR141"/>
-      <c r="AFS141"/>
-      <c r="AFT141"/>
-      <c r="AFU141"/>
-      <c r="AFV141"/>
-      <c r="AFW141"/>
-      <c r="AFX141"/>
-      <c r="AFY141"/>
-      <c r="AFZ141"/>
-      <c r="AGA141"/>
-      <c r="AGB141"/>
-      <c r="AGC141"/>
-      <c r="AGD141"/>
-      <c r="AGE141"/>
-      <c r="AGF141"/>
-      <c r="AGG141"/>
-      <c r="AGH141"/>
-      <c r="AGI141"/>
-      <c r="AGJ141"/>
-      <c r="AGK141"/>
-      <c r="AGL141"/>
-      <c r="AGM141"/>
-      <c r="AGN141"/>
-      <c r="AGO141"/>
-      <c r="AGP141"/>
-      <c r="AGQ141"/>
-      <c r="AGR141"/>
-      <c r="AGS141"/>
-      <c r="AGT141"/>
-      <c r="AGU141"/>
-      <c r="AGV141"/>
-      <c r="AGW141"/>
-      <c r="AGX141"/>
-      <c r="AGY141"/>
-      <c r="AGZ141"/>
-      <c r="AHA141"/>
-      <c r="AHB141"/>
-      <c r="AHC141"/>
-      <c r="AHD141"/>
-      <c r="AHE141"/>
-      <c r="AHF141"/>
-      <c r="AHG141"/>
-      <c r="AHH141"/>
-      <c r="AHI141"/>
-      <c r="AHJ141"/>
-      <c r="AHK141"/>
-      <c r="AHL141"/>
-      <c r="AHM141"/>
-      <c r="AHN141"/>
-      <c r="AHO141"/>
-      <c r="AHP141"/>
-      <c r="AHQ141"/>
-      <c r="AHR141"/>
-      <c r="AHS141"/>
-      <c r="AHT141"/>
-      <c r="AHU141"/>
-      <c r="AHV141"/>
-      <c r="AHW141"/>
-      <c r="AHX141"/>
-      <c r="AHY141"/>
-      <c r="AHZ141"/>
-      <c r="AIA141"/>
-      <c r="AIB141"/>
-      <c r="AIC141"/>
-      <c r="AID141"/>
-      <c r="AIE141"/>
-      <c r="AIF141"/>
-      <c r="AIG141"/>
-      <c r="AIH141"/>
-      <c r="AII141"/>
-      <c r="AIJ141"/>
-      <c r="AIK141"/>
-      <c r="AIL141"/>
-      <c r="AIM141"/>
-      <c r="AIN141"/>
-      <c r="AIO141"/>
-      <c r="AIP141"/>
-      <c r="AIQ141"/>
-      <c r="AIR141"/>
-      <c r="AIS141"/>
-      <c r="AIT141"/>
-      <c r="AIU141"/>
-      <c r="AIV141"/>
-      <c r="AIW141"/>
-      <c r="AIX141"/>
-      <c r="AIY141"/>
-      <c r="AIZ141"/>
-      <c r="AJA141"/>
-      <c r="AJB141"/>
-      <c r="AJC141"/>
-      <c r="AJD141"/>
-      <c r="AJE141"/>
-      <c r="AJF141"/>
-      <c r="AJG141"/>
-      <c r="AJH141"/>
-      <c r="AJI141"/>
-      <c r="AJJ141"/>
-      <c r="AJK141"/>
-      <c r="AJL141"/>
-      <c r="AJM141"/>
-      <c r="AJN141"/>
-      <c r="AJO141"/>
-      <c r="AJP141"/>
-      <c r="AJQ141"/>
-      <c r="AJR141"/>
-      <c r="AJS141"/>
-      <c r="AJT141"/>
-      <c r="AJU141"/>
-      <c r="AJV141"/>
-      <c r="AJW141"/>
-      <c r="AJX141"/>
-      <c r="AJY141"/>
-      <c r="AJZ141"/>
-      <c r="AKA141"/>
-      <c r="AKB141"/>
-      <c r="AKC141"/>
-      <c r="AKD141"/>
-      <c r="AKE141"/>
-      <c r="AKF141"/>
-      <c r="AKG141"/>
-      <c r="AKH141"/>
-      <c r="AKI141"/>
-      <c r="AKJ141"/>
-      <c r="AKK141"/>
-      <c r="AKL141"/>
-      <c r="AKM141"/>
-      <c r="AKN141"/>
-      <c r="AKO141"/>
-      <c r="AKP141"/>
-      <c r="AKQ141"/>
-      <c r="AKR141"/>
-      <c r="AKS141"/>
-      <c r="AKT141"/>
-      <c r="AKU141"/>
-      <c r="AKV141"/>
-      <c r="AKW141"/>
-      <c r="AKX141"/>
-      <c r="AKY141"/>
-      <c r="AKZ141"/>
-      <c r="ALA141"/>
-      <c r="ALB141"/>
-      <c r="ALC141"/>
-      <c r="ALD141"/>
-      <c r="ALE141"/>
-      <c r="ALF141"/>
-      <c r="ALG141"/>
-      <c r="ALH141"/>
-      <c r="ALI141"/>
-      <c r="ALJ141"/>
-      <c r="ALK141"/>
-      <c r="ALL141"/>
-      <c r="ALM141"/>
-      <c r="ALN141"/>
-      <c r="ALO141"/>
-      <c r="ALP141"/>
-      <c r="ALQ141"/>
-      <c r="ALR141"/>
-      <c r="ALS141"/>
-      <c r="ALT141"/>
-      <c r="ALU141"/>
-      <c r="ALV141"/>
-      <c r="ALW141"/>
-      <c r="ALX141"/>
-      <c r="ALY141"/>
-      <c r="ALZ141"/>
-      <c r="AMA141"/>
-      <c r="AMB141"/>
-      <c r="AMC141"/>
-      <c r="AMD141"/>
-      <c r="AME141"/>
-      <c r="AMF141"/>
-      <c r="AMG141"/>
-      <c r="AMH141"/>
-      <c r="AMI141"/>
-      <c r="AMJ141"/>
+      <c r="D143" s="64"/>
+      <c r="E143" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" s="63"/>
+      <c r="G143" s="63"/>
+      <c r="H143" s="64"/>
+      <c r="I143" s="83"/>
     </row>
-    <row r="142" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
-      <c r="A142" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="B142" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="C142" s="62" t="s">
+    <row r="144" spans="1:9">
+      <c r="A144" s="65"/>
+      <c r="B144" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C144" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D142" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="E142" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="F142" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G142" s="65"/>
-      <c r="H142" s="66"/>
-      <c r="I142" s="67"/>
+      <c r="D144" s="64"/>
+      <c r="E144" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" s="63"/>
+      <c r="G144" s="63"/>
+      <c r="H144" s="64"/>
+      <c r="I144" s="83"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="65"/>
+      <c r="B145" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C145" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="64"/>
+      <c r="E145" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" s="63"/>
+      <c r="G145" s="63"/>
+      <c r="H145" s="64"/>
+      <c r="I145" s="83"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="65"/>
+      <c r="B146" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="C146" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="64"/>
+      <c r="E146" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" s="63"/>
+      <c r="G146" s="63"/>
+      <c r="H146" s="64"/>
+      <c r="I146" s="83"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="65"/>
+      <c r="B147" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="C147" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="64"/>
+      <c r="E147" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" s="63"/>
+      <c r="G147" s="63"/>
+      <c r="H147" s="64"/>
+      <c r="I147" s="84"/>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="B148" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="C148" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" s="64"/>
+      <c r="E148" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" s="63"/>
+      <c r="G148" s="63"/>
+      <c r="H148" s="64"/>
+      <c r="I148" s="85" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="149" ht="82.5" spans="1:9">
+      <c r="A149" s="67"/>
+      <c r="B149" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="C149" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" s="64"/>
+      <c r="E149" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" s="63"/>
+      <c r="G149" s="63"/>
+      <c r="H149" s="64"/>
+      <c r="I149" s="83"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="70" t="s">
+        <v>196</v>
+      </c>
+      <c r="B150" s="63"/>
+      <c r="C150" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" s="64"/>
+      <c r="E150" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" s="63"/>
+      <c r="G150" s="63"/>
+      <c r="H150" s="64"/>
+      <c r="I150" s="63"/>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="B151" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="C151" s="40"/>
+      <c r="D151" s="64"/>
+      <c r="E151" s="80"/>
+      <c r="F151" s="63"/>
+      <c r="G151" s="63"/>
+      <c r="H151" s="64"/>
+      <c r="I151" s="63"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="65"/>
+      <c r="B152" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C152" s="40"/>
+      <c r="D152" s="64"/>
+      <c r="E152" s="80"/>
+      <c r="F152" s="63"/>
+      <c r="G152" s="63"/>
+      <c r="H152" s="64"/>
+      <c r="I152" s="63"/>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="65"/>
+      <c r="B153" s="63"/>
+      <c r="C153" s="40"/>
+      <c r="D153" s="64"/>
+      <c r="E153" s="80"/>
+      <c r="F153" s="63"/>
+      <c r="G153" s="63"/>
+      <c r="H153" s="64"/>
+      <c r="I153" s="63"/>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="65"/>
+      <c r="B154" s="63"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="64"/>
+      <c r="E154" s="80"/>
+      <c r="F154" s="63"/>
+      <c r="G154" s="63"/>
+      <c r="H154" s="64"/>
+      <c r="I154" s="63"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="65"/>
+      <c r="B155" s="63"/>
+      <c r="C155" s="40"/>
+      <c r="D155" s="64"/>
+      <c r="E155" s="80"/>
+      <c r="F155" s="63"/>
+      <c r="G155" s="63"/>
+      <c r="H155" s="64"/>
+      <c r="I155" s="63"/>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="65"/>
+      <c r="B156" s="63"/>
+      <c r="C156" s="40"/>
+      <c r="D156" s="64"/>
+      <c r="E156" s="80"/>
+      <c r="F156" s="63"/>
+      <c r="G156" s="63"/>
+      <c r="H156" s="64"/>
+      <c r="I156" s="63"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="72"/>
+      <c r="B157" s="63"/>
+      <c r="C157" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" s="64"/>
+      <c r="E157" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" s="63"/>
+      <c r="G157" s="63"/>
+      <c r="H157" s="64"/>
+      <c r="I157" s="63"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="B158" s="63"/>
+      <c r="C158" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="64"/>
+      <c r="E158" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" s="63"/>
+      <c r="G158" s="63"/>
+      <c r="H158" s="64"/>
+      <c r="I158" s="63"/>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="B159" s="63"/>
+      <c r="C159" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="64"/>
+      <c r="E159" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" s="63"/>
+      <c r="G159" s="63"/>
+      <c r="H159" s="64"/>
+      <c r="I159" s="63"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="B160" s="63"/>
+      <c r="C160" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="64"/>
+      <c r="E160" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" s="63"/>
+      <c r="G160" s="63"/>
+      <c r="H160" s="64"/>
+      <c r="I160" s="63"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="B161" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="C161" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="64"/>
+      <c r="E161" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" s="63"/>
+      <c r="G161" s="63"/>
+      <c r="H161" s="64"/>
+      <c r="I161" s="63"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="65"/>
+      <c r="B162" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="C162" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="64"/>
+      <c r="E162" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" s="63"/>
+      <c r="G162" s="63"/>
+      <c r="H162" s="64"/>
+      <c r="I162" s="63"/>
+    </row>
+    <row r="163" ht="112.5" spans="1:9">
+      <c r="A163" s="65"/>
+      <c r="B163" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="C163" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="64"/>
+      <c r="E163" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" s="63"/>
+      <c r="G163" s="63"/>
+      <c r="H163" s="64"/>
+      <c r="I163" s="63"/>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="65"/>
+      <c r="B164" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C164" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="64"/>
+      <c r="E164" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" s="63"/>
+      <c r="G164" s="63"/>
+      <c r="H164" s="64"/>
+      <c r="I164" s="63"/>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="74"/>
+      <c r="B165" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="C165" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="64"/>
+      <c r="E165" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" s="63"/>
+      <c r="G165" s="63"/>
+      <c r="H165" s="64"/>
+      <c r="I165" s="63"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="B166" s="63"/>
+      <c r="C166" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="64"/>
+      <c r="E166" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" s="63"/>
+      <c r="G166" s="63"/>
+      <c r="H166" s="64"/>
+      <c r="I166" s="63"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I142"/>
-  <mergeCells count="24">
+  <autoFilter ref="A1:I166"/>
+  <mergeCells count="30">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A22"/>
     <mergeCell ref="A23:A34"/>
@@ -48457,8 +47531,12 @@
     <mergeCell ref="A86:A100"/>
     <mergeCell ref="A102:A105"/>
     <mergeCell ref="A106:A119"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="A125:A140"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A124:A139"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A151:A157"/>
+    <mergeCell ref="A161:A165"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="D10:D22"/>
     <mergeCell ref="D23:D34"/>
@@ -48469,10 +47547,12 @@
     <mergeCell ref="D86:D100"/>
     <mergeCell ref="D102:D105"/>
     <mergeCell ref="D106:D119"/>
-    <mergeCell ref="D121:D124"/>
-    <mergeCell ref="D125:D140"/>
+    <mergeCell ref="D120:D123"/>
+    <mergeCell ref="D124:D139"/>
+    <mergeCell ref="I142:I147"/>
+    <mergeCell ref="I148:I149"/>
   </mergeCells>
-  <conditionalFormatting sqref="G4:G142 G2 G3">
+  <conditionalFormatting sqref="G2:G140">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -48481,11 +47561,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2 H3 H4:H9 H23:H85 H101:H142"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4:G142">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2 H3 H140 H4:H9 H23:H85 H101:H119 H120:H139"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G140 G4:G119 G120:G139">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F2 F3 F4:F142">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F2 F3 F140 F4:F119 F120:F139">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -48501,9 +47581,9 @@
     <hyperlink ref="D86" r:id="rId9" display="bazel.sh"/>
     <hyperlink ref="D102" r:id="rId10" display="source-highlight.sh"/>
     <hyperlink ref="D106" r:id="rId11" display="lttng-modules.sh"/>
-    <hyperlink ref="D121" r:id="rId12" display="grafana.sh"/>
-    <hyperlink ref="D125" r:id="rId13" display="ktap.md"/>
-    <hyperlink ref="D142" r:id="rId14" display="ui-browser-test.sh"/>
+    <hyperlink ref="D120" r:id="rId12" display="grafana.sh"/>
+    <hyperlink ref="D124" r:id="rId13" display="ktap.md"/>
+    <hyperlink ref="D140" r:id="rId14" display="ui-browser-test.sh"/>
     <hyperlink ref="D2:D9" r:id="rId15" display="strace.md"/>
     <hyperlink ref="D10:D22" r:id="rId16" display="ltrace.sh"/>
     <hyperlink ref="D23:D34" r:id="rId17" display="ftrace.md"/>
@@ -48514,8 +47594,8 @@
     <hyperlink ref="D86:D100" r:id="rId22" display="bazel.sh"/>
     <hyperlink ref="D102:D105" r:id="rId23" display="source-highlight.sh"/>
     <hyperlink ref="D106:D119" r:id="rId24" display="lttng-modules.sh"/>
-    <hyperlink ref="D121:D124" r:id="rId25" display="grafana.sh"/>
-    <hyperlink ref="D125:D140" r:id="rId26" display="ktap.md"/>
+    <hyperlink ref="D120:D123" r:id="rId25" display="grafana.sh"/>
+    <hyperlink ref="D124:D139" r:id="rId26" display="ktap.md"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -48529,7 +47609,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D98" sqref="D98:D101"/>
     </sheetView>
@@ -48579,16 +47659,16 @@
     </row>
     <row r="2" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>13</v>
@@ -48607,10 +47687,10 @@
     <row r="3" customFormat="1" ht="13.5" spans="1:9">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="14" t="s">
@@ -48630,10 +47710,10 @@
     <row r="4" customFormat="1" ht="13.5" spans="1:9">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="14" t="s">
@@ -48653,10 +47733,10 @@
     <row r="5" customFormat="1" ht="13.5" spans="1:9">
       <c r="A5" s="6"/>
       <c r="B5" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="14" t="s">
@@ -48675,16 +47755,16 @@
     </row>
     <row r="6" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>13</v>
@@ -48703,10 +47783,10 @@
     <row r="7" customFormat="1" ht="13.5" spans="1:9">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
@@ -48726,10 +47806,10 @@
     <row r="8" customFormat="1" ht="13.5" spans="1:9">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
@@ -48749,10 +47829,10 @@
     <row r="9" customFormat="1" ht="13.5" spans="1:9">
       <c r="A9" s="6"/>
       <c r="B9" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
@@ -48771,16 +47851,16 @@
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>13</v>
@@ -48799,10 +47879,10 @@
     <row r="11" spans="1:9">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
@@ -48822,10 +47902,10 @@
     <row r="12" spans="1:9">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
@@ -48845,10 +47925,10 @@
     <row r="13" spans="1:9">
       <c r="A13" s="6"/>
       <c r="B13" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
@@ -48867,16 +47947,16 @@
     </row>
     <row r="14" ht="13.5" customHeight="1" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>13</v>
@@ -48895,10 +47975,10 @@
     <row r="15" spans="1:9">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
@@ -48918,10 +47998,10 @@
     <row r="16" spans="1:9">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14" t="s">
@@ -48941,10 +48021,10 @@
     <row r="17" spans="1:9">
       <c r="A17" s="6"/>
       <c r="B17" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
@@ -48963,16 +48043,16 @@
     </row>
     <row r="18" ht="13.5" customHeight="1" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>13</v>
@@ -48991,10 +48071,10 @@
     <row r="19" spans="1:9">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14" t="s">
@@ -49014,10 +48094,10 @@
     <row r="20" spans="1:9">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="14" t="s">
@@ -49037,10 +48117,10 @@
     <row r="21" spans="1:9">
       <c r="A21" s="6"/>
       <c r="B21" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14" t="s">
@@ -49059,16 +48139,16 @@
     </row>
     <row r="22" ht="13.5" customHeight="1" spans="1:9">
       <c r="A22" s="6" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>13</v>
@@ -49087,10 +48167,10 @@
     <row r="23" spans="1:9">
       <c r="A23" s="6"/>
       <c r="B23" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="14" t="s">
@@ -49110,10 +48190,10 @@
     <row r="24" spans="1:9">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="14" t="s">
@@ -49133,10 +48213,10 @@
     <row r="25" spans="1:9">
       <c r="A25" s="6"/>
       <c r="B25" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="14" t="s">
@@ -49155,16 +48235,16 @@
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="1:9">
       <c r="A26" s="6" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>13</v>
@@ -49183,10 +48263,10 @@
     <row r="27" spans="1:9">
       <c r="A27" s="6"/>
       <c r="B27" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="14" t="s">
@@ -49206,10 +48286,10 @@
     <row r="28" spans="1:9">
       <c r="A28" s="6"/>
       <c r="B28" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="14" t="s">
@@ -49229,10 +48309,10 @@
     <row r="29" spans="1:9">
       <c r="A29" s="6"/>
       <c r="B29" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="14" t="s">
@@ -49251,16 +48331,16 @@
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:9">
       <c r="A30" s="6" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>13</v>
@@ -49279,10 +48359,10 @@
     <row r="31" spans="1:9">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="14" t="s">
@@ -49302,10 +48382,10 @@
     <row r="32" spans="1:9">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="14" t="s">
@@ -49325,10 +48405,10 @@
     <row r="33" spans="1:9">
       <c r="A33" s="6"/>
       <c r="B33" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="14" t="s">
@@ -49347,16 +48427,16 @@
     </row>
     <row r="34" ht="13.5" customHeight="1" spans="1:9">
       <c r="A34" s="6" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>13</v>
@@ -49375,10 +48455,10 @@
     <row r="35" spans="1:9">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="14" t="s">
@@ -49398,10 +48478,10 @@
     <row r="36" spans="1:9">
       <c r="A36" s="6"/>
       <c r="B36" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="14" t="s">
@@ -49421,10 +48501,10 @@
     <row r="37" spans="1:9">
       <c r="A37" s="6"/>
       <c r="B37" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="14" t="s">
@@ -49443,16 +48523,16 @@
     </row>
     <row r="38" ht="13.5" customHeight="1" spans="1:9">
       <c r="A38" s="6" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>13</v>
@@ -49471,10 +48551,10 @@
     <row r="39" spans="1:9">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="14" t="s">
@@ -49494,10 +48574,10 @@
     <row r="40" spans="1:9">
       <c r="A40" s="6"/>
       <c r="B40" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="14" t="s">
@@ -49517,10 +48597,10 @@
     <row r="41" spans="1:9">
       <c r="A41" s="6"/>
       <c r="B41" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="14" t="s">
@@ -49539,16 +48619,16 @@
     </row>
     <row r="42" ht="13.5" customHeight="1" spans="1:9">
       <c r="A42" s="6" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>13</v>
@@ -49567,10 +48647,10 @@
     <row r="43" spans="1:9">
       <c r="A43" s="6"/>
       <c r="B43" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="14" t="s">
@@ -49590,10 +48670,10 @@
     <row r="44" spans="1:9">
       <c r="A44" s="6"/>
       <c r="B44" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="14" t="s">
@@ -49613,10 +48693,10 @@
     <row r="45" spans="1:9">
       <c r="A45" s="6"/>
       <c r="B45" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="14" t="s">
@@ -49635,16 +48715,16 @@
     </row>
     <row r="46" ht="13.5" customHeight="1" spans="1:9">
       <c r="A46" s="6" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>13</v>
@@ -49663,10 +48743,10 @@
     <row r="47" spans="1:9">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="14" t="s">
@@ -49686,10 +48766,10 @@
     <row r="48" spans="1:9">
       <c r="A48" s="6"/>
       <c r="B48" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="14" t="s">
@@ -49709,10 +48789,10 @@
     <row r="49" spans="1:9">
       <c r="A49" s="6"/>
       <c r="B49" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="14" t="s">
@@ -49731,16 +48811,16 @@
     </row>
     <row r="50" ht="13.5" customHeight="1" spans="1:9">
       <c r="A50" s="6" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>13</v>
@@ -49759,10 +48839,10 @@
     <row r="51" spans="1:9">
       <c r="A51" s="6"/>
       <c r="B51" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="14" t="s">
@@ -49782,10 +48862,10 @@
     <row r="52" spans="1:9">
       <c r="A52" s="6"/>
       <c r="B52" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="14" t="s">
@@ -49805,10 +48885,10 @@
     <row r="53" spans="1:9">
       <c r="A53" s="6"/>
       <c r="B53" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="14" t="s">
@@ -49827,16 +48907,16 @@
     </row>
     <row r="54" ht="13.5" customHeight="1" spans="1:9">
       <c r="A54" s="6" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>13</v>
@@ -49855,10 +48935,10 @@
     <row r="55" spans="1:9">
       <c r="A55" s="6"/>
       <c r="B55" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="14" t="s">
@@ -49878,10 +48958,10 @@
     <row r="56" spans="1:9">
       <c r="A56" s="6"/>
       <c r="B56" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="14" t="s">
@@ -49901,10 +48981,10 @@
     <row r="57" spans="1:9">
       <c r="A57" s="6"/>
       <c r="B57" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="14" t="s">
@@ -49923,16 +49003,16 @@
     </row>
     <row r="58" ht="13.5" customHeight="1" spans="1:9">
       <c r="A58" s="6" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>13</v>
@@ -49951,10 +49031,10 @@
     <row r="59" spans="1:9">
       <c r="A59" s="6"/>
       <c r="B59" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="14" t="s">
@@ -49974,10 +49054,10 @@
     <row r="60" spans="1:9">
       <c r="A60" s="6"/>
       <c r="B60" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="14" t="s">
@@ -49997,10 +49077,10 @@
     <row r="61" spans="1:9">
       <c r="A61" s="6"/>
       <c r="B61" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="14" t="s">
@@ -50019,16 +49099,16 @@
     </row>
     <row r="62" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A62" s="6" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="E62" s="14" t="s">
         <v>13</v>
@@ -50047,10 +49127,10 @@
     <row r="63" spans="1:9">
       <c r="A63" s="6"/>
       <c r="B63" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="14" t="s">
@@ -50070,10 +49150,10 @@
     <row r="64" spans="1:9">
       <c r="A64" s="6"/>
       <c r="B64" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="14" t="s">
@@ -50093,10 +49173,10 @@
     <row r="65" spans="1:9">
       <c r="A65" s="6"/>
       <c r="B65" s="11" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="14" t="s">
@@ -50116,10 +49196,10 @@
     <row r="66" spans="1:9">
       <c r="A66" s="6"/>
       <c r="B66" s="11" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="14" t="s">
@@ -50139,10 +49219,10 @@
     <row r="67" spans="1:9">
       <c r="A67" s="6"/>
       <c r="B67" s="11" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="14" t="s">
@@ -50162,10 +49242,10 @@
     <row r="68" spans="1:9">
       <c r="A68" s="6"/>
       <c r="B68" s="11" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="14" t="s">
@@ -50185,10 +49265,10 @@
     <row r="69" spans="1:9">
       <c r="A69" s="6"/>
       <c r="B69" s="11" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="14" t="s">
@@ -50208,10 +49288,10 @@
     <row r="70" spans="1:9">
       <c r="A70" s="6"/>
       <c r="B70" s="11" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="14" t="s">
@@ -50231,10 +49311,10 @@
     <row r="71" spans="1:9">
       <c r="A71" s="6"/>
       <c r="B71" s="11" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="14" t="s">
@@ -50254,10 +49334,10 @@
     <row r="72" spans="1:9">
       <c r="A72" s="6"/>
       <c r="B72" s="11" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="14" t="s">
@@ -50276,16 +49356,16 @@
     </row>
     <row r="73" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A73" s="6" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="E73" s="14" t="s">
         <v>13</v>
@@ -50304,10 +49384,10 @@
     <row r="74" customFormat="1" ht="13.5" spans="1:9">
       <c r="A74" s="6"/>
       <c r="B74" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="14" t="s">
@@ -50327,10 +49407,10 @@
     <row r="75" customFormat="1" ht="13.5" spans="1:9">
       <c r="A75" s="6"/>
       <c r="B75" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="14" t="s">
@@ -50350,10 +49430,10 @@
     <row r="76" customFormat="1" ht="13.5" spans="1:9">
       <c r="A76" s="6"/>
       <c r="B76" s="20" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="14" t="s">
@@ -50373,10 +49453,10 @@
     <row r="77" customFormat="1" ht="13.5" spans="1:9">
       <c r="A77" s="6"/>
       <c r="B77" s="20" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="14" t="s">
@@ -50396,10 +49476,10 @@
     <row r="78" customFormat="1" ht="13.5" spans="1:9">
       <c r="A78" s="6"/>
       <c r="B78" s="20" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="14" t="s">
@@ -50419,10 +49499,10 @@
     <row r="79" customFormat="1" ht="13.5" spans="1:9">
       <c r="A79" s="6"/>
       <c r="B79" s="20" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="14" t="s">
@@ -50442,10 +49522,10 @@
     <row r="80" customFormat="1" ht="13.5" spans="1:9">
       <c r="A80" s="6"/>
       <c r="B80" s="20" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="14" t="s">
@@ -50464,16 +49544,16 @@
     </row>
     <row r="81" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A81" s="6" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="E81" s="14" t="s">
         <v>13</v>
@@ -50492,10 +49572,10 @@
     <row r="82" customFormat="1" ht="13.5" spans="1:9">
       <c r="A82" s="6"/>
       <c r="B82" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="14" t="s">
@@ -50515,10 +49595,10 @@
     <row r="83" customFormat="1" ht="13.5" spans="1:9">
       <c r="A83" s="6"/>
       <c r="B83" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="14" t="s">
@@ -50538,10 +49618,10 @@
     <row r="84" customFormat="1" ht="13.5" spans="1:9">
       <c r="A84" s="6"/>
       <c r="B84" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="14" t="s">
@@ -50560,16 +49640,16 @@
     </row>
     <row r="85" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A85" s="6" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="E85" s="14" t="s">
         <v>13</v>
@@ -50588,10 +49668,10 @@
     <row r="86" customFormat="1" ht="13.5" spans="1:9">
       <c r="A86" s="6"/>
       <c r="B86" s="11" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="14" t="s">
@@ -50611,10 +49691,10 @@
     <row r="87" customFormat="1" ht="13.5" spans="1:9">
       <c r="A87" s="6"/>
       <c r="B87" s="7" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="14" t="s">
@@ -50634,10 +49714,10 @@
     <row r="88" customFormat="1" ht="13.5" spans="1:9">
       <c r="A88" s="6"/>
       <c r="B88" s="7" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="14" t="s">
@@ -50657,10 +49737,10 @@
     <row r="89" customFormat="1" ht="13.5" spans="1:9">
       <c r="A89" s="6"/>
       <c r="B89" s="11" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="14" t="s">
@@ -50680,10 +49760,10 @@
     <row r="90" spans="1:9">
       <c r="A90" s="6"/>
       <c r="B90" s="11" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="14" t="s">
@@ -50703,10 +49783,10 @@
     <row r="91" spans="1:9">
       <c r="A91" s="6"/>
       <c r="B91" s="11" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="14" t="s">
@@ -50726,10 +49806,10 @@
     <row r="92" spans="1:9">
       <c r="A92" s="6"/>
       <c r="B92" s="11" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="14" t="s">
@@ -50749,10 +49829,10 @@
     <row r="93" spans="1:9">
       <c r="A93" s="6"/>
       <c r="B93" s="11" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="14" t="s">
@@ -50771,16 +49851,16 @@
     </row>
     <row r="94" ht="13.5" customHeight="1" spans="1:9">
       <c r="A94" s="6" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="E94" s="14" t="s">
         <v>13</v>
@@ -50795,16 +49875,16 @@
         <v>13</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="6"/>
       <c r="B95" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="14" t="s">
@@ -50820,16 +49900,16 @@
         <v>13</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="6"/>
       <c r="B96" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="14" t="s">
@@ -50845,16 +49925,16 @@
         <v>13</v>
       </c>
       <c r="I96" s="18" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="6"/>
       <c r="B97" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="14" t="s">
@@ -50870,21 +49950,21 @@
         <v>13</v>
       </c>
       <c r="I97" s="18" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" ht="13.5" customHeight="1" spans="1:9">
       <c r="A98" s="22" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="E98" s="14" t="s">
         <v>13</v>
@@ -50903,10 +49983,10 @@
     <row r="99" spans="1:9">
       <c r="A99" s="22"/>
       <c r="B99" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D99" s="23"/>
       <c r="E99" s="14" t="s">
@@ -50926,10 +50006,10 @@
     <row r="100" spans="1:9">
       <c r="A100" s="22"/>
       <c r="B100" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D100" s="23"/>
       <c r="E100" s="14" t="s">
@@ -50949,10 +50029,10 @@
     <row r="101" spans="1:9">
       <c r="A101" s="22"/>
       <c r="B101" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D101" s="23"/>
       <c r="E101" s="26" t="s">

--- a/list/tool.xlsx
+++ b/list/tool.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$196</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$I$101</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320">
   <si>
     <t>测试项目</t>
   </si>
@@ -1617,6 +1617,12 @@
     <t>memwatch</t>
   </si>
   <si>
+    <t>1. 下载安装包：http://www.linkdata.se/sourcecode/memwatch/</t>
+  </si>
+  <si>
+    <t>memwatch是C语言的内存检测器</t>
+  </si>
+  <si>
     <t>pidstat</t>
   </si>
   <si>
@@ -1666,6 +1672,9 @@
       </rPr>
       <t>pidstat</t>
     </r>
+  </si>
+  <si>
+    <t>pidstat.sh</t>
   </si>
   <si>
     <t>pidstat主要用于监控全部或指定进程占用系统资源的情况，如CPU，内存、设备IO、任务切换、线程等</t>
@@ -1864,6 +1873,9 @@
       </rPr>
       <t>: lspci</t>
     </r>
+  </si>
+  <si>
+    <t>setpci.md</t>
   </si>
   <si>
     <r>
@@ -2122,10 +2134,40 @@
     <t>swapon</t>
   </si>
   <si>
+    <t>1. 显示版本讯息：swapon -V</t>
+  </si>
+  <si>
+    <t>swapon.sh</t>
+  </si>
+  <si>
+    <t>2. enable all swaps：swapon -a</t>
+  </si>
+  <si>
+    <t>3.  enable swap discards: swapon -d</t>
+  </si>
+  <si>
+    <t>4. silently skip devices that do not exist: swapon -e</t>
+  </si>
+  <si>
+    <t>5.  display summary about used swap devices: swapon -s</t>
+  </si>
+  <si>
+    <t>6. 指定交换区的优先顺序: swapon -p -2</t>
+  </si>
+  <si>
+    <t>7. 关闭swap的指令:swapoff -a</t>
+  </si>
+  <si>
+    <t>8. display this help and exit: swapon --help</t>
+  </si>
+  <si>
     <t>sysdig</t>
   </si>
   <si>
     <t>1.install package: yum install -y kernel-devel* dkms sysdig</t>
+  </si>
+  <si>
+    <t>无sysdig安装包</t>
   </si>
   <si>
     <r>
@@ -2153,16 +2195,1148 @@
     <t>valgrind</t>
   </si>
   <si>
+    <t>1. install valgrind : yum install -y valgrind</t>
+  </si>
+  <si>
+    <t>valgrind.md</t>
+  </si>
+  <si>
+    <t>Valgrind是一套Linux下，开放源代码（GPL V2）的仿真调试工具的集合</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看内核版本：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>valgrind --version</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测内存泄露</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+a. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">memleak.c
+#include &lt;stdlib.h&gt;
+#include &lt;stdio.h&gt;
+int main(void)
+{
+       char *ptr;
+       ptr = (char *)malloc(10);
+       return 0;
+}
+b. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>memle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.c
+$ gcc -o memleak memleak.c
+c. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>valgri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+$ va</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rind --leak-check=full ./memleak</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测其它内存问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+a. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">memcheck.c
+#include &lt;stdlib.h&gt;
+#include &lt;stdio.h&gt;
+int main(void)
+{
+    char *ptr = malloc(10);
+    ptr[12] = 'a'; // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内存越界</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">memcpy(ptr +1, ptr, 5); // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>踩内存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">har a[10];
+    a[12] = 'i'; // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数组越界</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  fr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ee(ptr); // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重复释放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ree(ptr);
+    char *p1;
+    *p1 = '1'; // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非法指针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    ret</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">urn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0;
+}
+b. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>memcheck.c
+$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cc -o memcheck memcheck.c -g
+c. valgrind --leak-check=full ./memcheck</t>
+    </r>
+  </si>
+  <si>
+    <t>5. remove valgrind: yum remove -y valgrind</t>
+  </si>
+  <si>
     <t>overlayfs</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>overlayfs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内核模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: $ modprobe overlay</t>
+    </r>
+  </si>
+  <si>
+    <t>overlayfs.md</t>
+  </si>
+  <si>
+    <t>overlayfs是目前使用比较广泛的层次文件系统，实现简单，性能较好</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证是否加载成功：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lsmod |grep overlay</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>overlay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>low</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>upper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合并成一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">merged </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>overlayfs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ $ mount -t overlay overlay -olowerdir=./low,upperdir=./upper,workdir=./work ./merged</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卸载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>overlay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>umount overlay</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">oprofile </t>
+  </si>
+  <si>
+    <t>1. install oprofile: yum install -y oprofile</t>
+  </si>
+  <si>
+    <t>oprofile.md</t>
+  </si>
+  <si>
+    <r>
+      <t>OProfile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内核支持的一种性能分析机制，是用于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Linux </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评测和性能监控的工具</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oprofile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>启动检测后，不记录内核模块、内核代码相关统计数据：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$ opcontrol --no-vmlinux</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oprofile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oprofile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱动程序：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$ opcontrol --init</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oprofile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>启动检测：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">$ opcontrol --start </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指示将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oprofile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测到的数据写入文件：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$ opcontrol --dump</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>清空之前检测的数据记录：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$ opcontrol --reset</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oprofile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进程：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$ opcontrol -h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以镜像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(image)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的角度显示检测结果，进程、动态库、内核模块属于镜像范畴：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$ opreport</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以函数的角度显示检测结果：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$ opreport -l</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以函数的角度，针对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进程显示检测结果：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$ opreport -l test</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以代码的角度，针对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进程显示检测结果：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$ opannotate -s test</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12.remove oprofile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yum remove -y oprofile</t>
+    </r>
   </si>
   <si>
     <t>lldptool</t>
   </si>
   <si>
     <t>1. install lldptool: yum install -y lldpad</t>
+  </si>
+  <si>
+    <t>lldptool.md</t>
   </si>
   <si>
     <t>2. Run the LLDP Daemon: lldpad -d</t>
@@ -3322,7 +4496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -3492,6 +4666,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -3500,6 +4705,19 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3519,10 +4737,10 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -3535,6 +4753,17 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -3677,7 +4906,7 @@
     <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3717,32 +4946,32 @@
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -3752,7 +4981,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3773,16 +5002,16 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3971,7 +5200,22 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="36" applyFont="1" applyBorder="1">
@@ -3980,35 +5224,67 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="36" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="36" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="36" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="36" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="36" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="4" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4030,19 +5306,43 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4467,18 +5767,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMJ166"/>
+  <dimension ref="A1:AMJ196"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B154" sqref="B154"/>
+      <selection pane="bottomLeft" activeCell="D179" sqref="D179:D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.0083333333333" style="33"/>
-    <col min="2" max="2" width="58.875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="70.125" style="34" customWidth="1"/>
     <col min="3" max="3" width="6.475" style="34"/>
     <col min="4" max="4" width="19.0416666666667" style="33"/>
     <col min="5" max="5" width="8.775" style="35"/>
@@ -47090,437 +48390,950 @@
       <c r="D140" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="E140" s="75" t="s">
+      <c r="E140" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F140" s="76" t="s">
+      <c r="F140" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="G140" s="77"/>
-      <c r="H140" s="78"/>
-      <c r="I140" s="81"/>
+      <c r="G140" s="88"/>
+      <c r="H140" s="89"/>
+      <c r="I140" s="97"/>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A141" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="B141" s="63"/>
-      <c r="C141" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" s="64"/>
-      <c r="E141" s="79"/>
-      <c r="F141" s="63"/>
-      <c r="G141" s="63"/>
-      <c r="H141" s="64"/>
-      <c r="I141" s="63"/>
+      <c r="B141" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C141" s="64"/>
+      <c r="D141" s="65"/>
+      <c r="E141" s="90"/>
+      <c r="F141" s="91"/>
+      <c r="G141" s="92"/>
+      <c r="H141" s="93"/>
+      <c r="I141" s="98" t="s">
+        <v>185</v>
+      </c>
     </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="B142" s="66" t="s">
-        <v>185</v>
-      </c>
-      <c r="C142" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D142" s="64"/>
-      <c r="E142" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F142" s="63"/>
-      <c r="G142" s="63"/>
-      <c r="H142" s="64"/>
-      <c r="I142" s="82" t="s">
-        <v>186</v>
-      </c>
+    <row r="142" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
+      <c r="A142" s="66"/>
+      <c r="B142" s="63">
+        <v>2</v>
+      </c>
+      <c r="C142" s="64"/>
+      <c r="D142" s="65"/>
+      <c r="E142" s="90"/>
+      <c r="F142" s="91"/>
+      <c r="G142" s="92"/>
+      <c r="H142" s="93"/>
+      <c r="I142" s="98"/>
     </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="65"/>
-      <c r="B143" s="66" t="s">
-        <v>187</v>
-      </c>
-      <c r="C143" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" s="64"/>
-      <c r="E143" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F143" s="63"/>
-      <c r="G143" s="63"/>
-      <c r="H143" s="64"/>
-      <c r="I143" s="83"/>
+    <row r="143" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
+      <c r="A143" s="66"/>
+      <c r="B143" s="63"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="65"/>
+      <c r="E143" s="90"/>
+      <c r="F143" s="91"/>
+      <c r="G143" s="92"/>
+      <c r="H143" s="93"/>
+      <c r="I143" s="98"/>
     </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="65"/>
-      <c r="B144" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="C144" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D144" s="64"/>
-      <c r="E144" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F144" s="63"/>
-      <c r="G144" s="63"/>
-      <c r="H144" s="64"/>
-      <c r="I144" s="83"/>
+    <row r="144" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
+      <c r="A144" s="66"/>
+      <c r="B144" s="63"/>
+      <c r="C144" s="64"/>
+      <c r="D144" s="65"/>
+      <c r="E144" s="90"/>
+      <c r="F144" s="91"/>
+      <c r="G144" s="92"/>
+      <c r="H144" s="93"/>
+      <c r="I144" s="98"/>
     </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="65"/>
-      <c r="B145" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="C145" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D145" s="64"/>
-      <c r="E145" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" s="63"/>
-      <c r="G145" s="63"/>
-      <c r="H145" s="64"/>
-      <c r="I145" s="83"/>
+    <row r="145" s="30" customFormat="1" ht="13" customHeight="1" spans="1:9">
+      <c r="A145" s="66"/>
+      <c r="B145" s="63"/>
+      <c r="C145" s="64"/>
+      <c r="D145" s="65"/>
+      <c r="E145" s="90"/>
+      <c r="F145" s="91"/>
+      <c r="G145" s="92"/>
+      <c r="H145" s="93"/>
+      <c r="I145" s="98"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="65"/>
-      <c r="B146" s="66" t="s">
-        <v>190</v>
-      </c>
+      <c r="A146" s="67"/>
+      <c r="B146" s="68"/>
       <c r="C146" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D146" s="64"/>
-      <c r="E146" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" s="63"/>
-      <c r="G146" s="63"/>
-      <c r="H146" s="64"/>
-      <c r="I146" s="83"/>
+      <c r="D146" s="69"/>
+      <c r="E146" s="94"/>
+      <c r="F146" s="68"/>
+      <c r="G146" s="68"/>
+      <c r="H146" s="69"/>
+      <c r="I146" s="68"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="65"/>
-      <c r="B147" s="66" t="s">
-        <v>191</v>
+      <c r="A147" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="B147" s="71" t="s">
+        <v>187</v>
       </c>
       <c r="C147" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D147" s="64"/>
-      <c r="E147" s="80" t="s">
+      <c r="D147" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="E147" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F147" s="63"/>
-      <c r="G147" s="63"/>
-      <c r="H147" s="64"/>
-      <c r="I147" s="84"/>
+      <c r="F147" s="68"/>
+      <c r="G147" s="68"/>
+      <c r="H147" s="69"/>
+      <c r="I147" s="99" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="B148" s="68" t="s">
-        <v>193</v>
+      <c r="A148" s="70"/>
+      <c r="B148" s="71" t="s">
+        <v>190</v>
       </c>
       <c r="C148" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D148" s="64"/>
-      <c r="E148" s="80" t="s">
+      <c r="D148" s="73"/>
+      <c r="E148" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F148" s="63"/>
-      <c r="G148" s="63"/>
-      <c r="H148" s="64"/>
-      <c r="I148" s="85" t="s">
-        <v>194</v>
-      </c>
+      <c r="F148" s="68"/>
+      <c r="G148" s="68"/>
+      <c r="H148" s="69"/>
+      <c r="I148" s="100"/>
     </row>
-    <row r="149" ht="82.5" spans="1:9">
-      <c r="A149" s="67"/>
-      <c r="B149" s="69" t="s">
-        <v>195</v>
+    <row r="149" spans="1:9">
+      <c r="A149" s="70"/>
+      <c r="B149" s="71" t="s">
+        <v>191</v>
       </c>
       <c r="C149" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="64"/>
-      <c r="E149" s="80" t="s">
+      <c r="D149" s="73"/>
+      <c r="E149" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F149" s="63"/>
-      <c r="G149" s="63"/>
-      <c r="H149" s="64"/>
-      <c r="I149" s="83"/>
+      <c r="F149" s="68"/>
+      <c r="G149" s="68"/>
+      <c r="H149" s="69"/>
+      <c r="I149" s="100"/>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="B150" s="63"/>
+      <c r="A150" s="70"/>
+      <c r="B150" s="71" t="s">
+        <v>192</v>
+      </c>
       <c r="C150" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D150" s="64"/>
-      <c r="E150" s="80" t="s">
+      <c r="D150" s="73"/>
+      <c r="E150" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F150" s="63"/>
-      <c r="G150" s="63"/>
-      <c r="H150" s="64"/>
-      <c r="I150" s="63"/>
+      <c r="F150" s="68"/>
+      <c r="G150" s="68"/>
+      <c r="H150" s="69"/>
+      <c r="I150" s="100"/>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="71" t="s">
-        <v>197</v>
-      </c>
-      <c r="B151" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="C151" s="40"/>
-      <c r="D151" s="64"/>
-      <c r="E151" s="80"/>
-      <c r="F151" s="63"/>
-      <c r="G151" s="63"/>
-      <c r="H151" s="64"/>
-      <c r="I151" s="63"/>
+      <c r="A151" s="70"/>
+      <c r="B151" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="C151" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" s="73"/>
+      <c r="E151" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" s="68"/>
+      <c r="G151" s="68"/>
+      <c r="H151" s="69"/>
+      <c r="I151" s="100"/>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="65"/>
-      <c r="B152" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="C152" s="40"/>
-      <c r="D152" s="64"/>
-      <c r="E152" s="80"/>
-      <c r="F152" s="63"/>
-      <c r="G152" s="63"/>
-      <c r="H152" s="64"/>
-      <c r="I152" s="63"/>
+      <c r="A152" s="70"/>
+      <c r="B152" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="C152" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" s="74"/>
+      <c r="E152" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" s="68"/>
+      <c r="G152" s="68"/>
+      <c r="H152" s="69"/>
+      <c r="I152" s="101"/>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="65"/>
-      <c r="B153" s="63"/>
-      <c r="C153" s="40"/>
-      <c r="D153" s="64"/>
-      <c r="E153" s="80"/>
-      <c r="F153" s="63"/>
-      <c r="G153" s="63"/>
-      <c r="H153" s="64"/>
-      <c r="I153" s="63"/>
+      <c r="A153" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="B153" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="C153" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="E153" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" s="68"/>
+      <c r="G153" s="68"/>
+      <c r="H153" s="69"/>
+      <c r="I153" s="102" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="65"/>
-      <c r="B154" s="63"/>
-      <c r="C154" s="40"/>
-      <c r="D154" s="64"/>
-      <c r="E154" s="80"/>
-      <c r="F154" s="63"/>
-      <c r="G154" s="63"/>
-      <c r="H154" s="64"/>
-      <c r="I154" s="63"/>
+    <row r="154" ht="82.5" spans="1:9">
+      <c r="A154" s="75"/>
+      <c r="B154" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="C154" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="74"/>
+      <c r="E154" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" s="68"/>
+      <c r="G154" s="68"/>
+      <c r="H154" s="69"/>
+      <c r="I154" s="100"/>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="65"/>
-      <c r="B155" s="63"/>
-      <c r="C155" s="40"/>
-      <c r="D155" s="64"/>
-      <c r="E155" s="80"/>
-      <c r="F155" s="63"/>
-      <c r="G155" s="63"/>
-      <c r="H155" s="64"/>
-      <c r="I155" s="63"/>
+      <c r="A155" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="B155" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="C155" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="E155" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" s="68"/>
+      <c r="G155" s="68"/>
+      <c r="H155" s="69"/>
+      <c r="I155" s="100"/>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="65"/>
-      <c r="B156" s="63"/>
-      <c r="C156" s="40"/>
-      <c r="D156" s="64"/>
-      <c r="E156" s="80"/>
-      <c r="F156" s="63"/>
-      <c r="G156" s="63"/>
-      <c r="H156" s="64"/>
-      <c r="I156" s="63"/>
+      <c r="A156" s="70"/>
+      <c r="B156" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="C156" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="73"/>
+      <c r="E156" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" s="68"/>
+      <c r="G156" s="68"/>
+      <c r="H156" s="69"/>
+      <c r="I156" s="100"/>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="72"/>
-      <c r="B157" s="63"/>
+      <c r="A157" s="70"/>
+      <c r="B157" s="68" t="s">
+        <v>204</v>
+      </c>
       <c r="C157" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D157" s="64"/>
-      <c r="E157" s="80" t="s">
+      <c r="D157" s="73"/>
+      <c r="E157" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F157" s="63"/>
-      <c r="G157" s="63"/>
-      <c r="H157" s="64"/>
-      <c r="I157" s="63"/>
+      <c r="F157" s="68"/>
+      <c r="G157" s="68"/>
+      <c r="H157" s="69"/>
+      <c r="I157" s="100"/>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="B158" s="63"/>
+      <c r="A158" s="70"/>
+      <c r="B158" s="68" t="s">
+        <v>205</v>
+      </c>
       <c r="C158" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D158" s="64"/>
-      <c r="E158" s="80" t="s">
+      <c r="D158" s="73"/>
+      <c r="E158" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F158" s="63"/>
-      <c r="G158" s="63"/>
-      <c r="H158" s="64"/>
-      <c r="I158" s="63"/>
+      <c r="F158" s="68"/>
+      <c r="G158" s="68"/>
+      <c r="H158" s="69"/>
+      <c r="I158" s="100"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="B159" s="63"/>
+      <c r="A159" s="70"/>
+      <c r="B159" s="68" t="s">
+        <v>206</v>
+      </c>
       <c r="C159" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D159" s="64"/>
-      <c r="E159" s="80" t="s">
+      <c r="D159" s="73"/>
+      <c r="E159" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F159" s="63"/>
-      <c r="G159" s="63"/>
-      <c r="H159" s="64"/>
-      <c r="I159" s="63"/>
+      <c r="F159" s="68"/>
+      <c r="G159" s="68"/>
+      <c r="H159" s="69"/>
+      <c r="I159" s="100"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="B160" s="63"/>
+      <c r="A160" s="70"/>
+      <c r="B160" s="78" t="s">
+        <v>207</v>
+      </c>
       <c r="C160" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="64"/>
-      <c r="E160" s="80" t="s">
+      <c r="D160" s="73"/>
+      <c r="E160" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F160" s="63"/>
-      <c r="G160" s="63"/>
-      <c r="H160" s="64"/>
-      <c r="I160" s="63"/>
+      <c r="F160" s="68"/>
+      <c r="G160" s="68"/>
+      <c r="H160" s="69"/>
+      <c r="I160" s="100"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="71" t="s">
-        <v>203</v>
-      </c>
-      <c r="B161" s="63" t="s">
-        <v>204</v>
+      <c r="A161" s="70"/>
+      <c r="B161" s="78" t="s">
+        <v>208</v>
       </c>
       <c r="C161" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D161" s="64"/>
-      <c r="E161" s="80" t="s">
+      <c r="D161" s="73"/>
+      <c r="E161" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F161" s="63"/>
-      <c r="G161" s="63"/>
-      <c r="H161" s="64"/>
-      <c r="I161" s="63"/>
+      <c r="F161" s="68"/>
+      <c r="G161" s="68"/>
+      <c r="H161" s="69"/>
+      <c r="I161" s="100"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="65"/>
-      <c r="B162" s="63" t="s">
-        <v>205</v>
+      <c r="A162" s="79"/>
+      <c r="B162" s="68" t="s">
+        <v>209</v>
       </c>
       <c r="C162" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D162" s="64"/>
-      <c r="E162" s="80" t="s">
+      <c r="D162" s="74"/>
+      <c r="E162" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F162" s="63"/>
-      <c r="G162" s="63"/>
-      <c r="H162" s="64"/>
-      <c r="I162" s="63"/>
+      <c r="F162" s="68"/>
+      <c r="G162" s="68"/>
+      <c r="H162" s="69"/>
+      <c r="I162" s="68"/>
     </row>
-    <row r="163" ht="112.5" spans="1:9">
-      <c r="A163" s="65"/>
-      <c r="B163" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C163" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D163" s="64"/>
-      <c r="E163" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F163" s="63"/>
-      <c r="G163" s="63"/>
-      <c r="H163" s="64"/>
-      <c r="I163" s="63"/>
+    <row r="163" spans="1:9">
+      <c r="A163" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="B163" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="C163" s="40"/>
+      <c r="D163" s="69"/>
+      <c r="E163" s="95"/>
+      <c r="F163" s="68"/>
+      <c r="G163" s="68"/>
+      <c r="H163" s="69"/>
+      <c r="I163" s="103" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="65"/>
-      <c r="B164" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C164" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D164" s="64"/>
-      <c r="E164" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F164" s="63"/>
-      <c r="G164" s="63"/>
-      <c r="H164" s="64"/>
-      <c r="I164" s="63"/>
+      <c r="A164" s="70"/>
+      <c r="B164" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C164" s="40"/>
+      <c r="D164" s="69"/>
+      <c r="E164" s="95"/>
+      <c r="F164" s="68"/>
+      <c r="G164" s="68"/>
+      <c r="H164" s="69"/>
+      <c r="I164" s="102"/>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="74"/>
-      <c r="B165" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="C165" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D165" s="64"/>
-      <c r="E165" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" s="63"/>
-      <c r="G165" s="63"/>
-      <c r="H165" s="64"/>
-      <c r="I165" s="63"/>
+      <c r="A165" s="70"/>
+      <c r="C165" s="40"/>
+      <c r="D165" s="69"/>
+      <c r="E165" s="95"/>
+      <c r="F165" s="68"/>
+      <c r="G165" s="68"/>
+      <c r="H165" s="69"/>
+      <c r="I165" s="102"/>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="B166" s="63"/>
-      <c r="C166" s="40" t="s">
+      <c r="A166" s="70"/>
+      <c r="C166" s="40"/>
+      <c r="D166" s="69"/>
+      <c r="E166" s="95"/>
+      <c r="F166" s="68"/>
+      <c r="G166" s="68"/>
+      <c r="H166" s="69"/>
+      <c r="I166" s="102"/>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="70"/>
+      <c r="C167" s="40"/>
+      <c r="D167" s="69"/>
+      <c r="E167" s="95"/>
+      <c r="F167" s="68"/>
+      <c r="G167" s="68"/>
+      <c r="H167" s="69"/>
+      <c r="I167" s="102"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="70"/>
+      <c r="B168" s="68"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="69"/>
+      <c r="E168" s="95"/>
+      <c r="F168" s="68"/>
+      <c r="G168" s="68"/>
+      <c r="H168" s="69"/>
+      <c r="I168" s="102"/>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="79"/>
+      <c r="B169" s="68"/>
+      <c r="C169" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D166" s="64"/>
-      <c r="E166" s="80" t="s">
+      <c r="D169" s="69"/>
+      <c r="E169" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F166" s="63"/>
-      <c r="G166" s="63"/>
-      <c r="H166" s="64"/>
-      <c r="I166" s="63"/>
+      <c r="F169" s="68"/>
+      <c r="G169" s="68"/>
+      <c r="H169" s="69"/>
+      <c r="I169" s="104"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="B170" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="C170" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="E170" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" s="68"/>
+      <c r="G170" s="68"/>
+      <c r="H170" s="69"/>
+      <c r="I170" s="102" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="70"/>
+      <c r="B171" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="C171" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="73"/>
+      <c r="E171" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" s="68"/>
+      <c r="G171" s="68"/>
+      <c r="H171" s="69"/>
+      <c r="I171" s="102"/>
+    </row>
+    <row r="172" ht="159.75" spans="1:9">
+      <c r="A172" s="70"/>
+      <c r="B172" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="C172" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="73"/>
+      <c r="E172" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" s="68"/>
+      <c r="G172" s="68"/>
+      <c r="H172" s="69"/>
+      <c r="I172" s="102"/>
+    </row>
+    <row r="173" ht="229.5" spans="1:9">
+      <c r="A173" s="70"/>
+      <c r="B173" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="C173" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="73"/>
+      <c r="E173" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" s="68"/>
+      <c r="G173" s="68"/>
+      <c r="H173" s="69"/>
+      <c r="I173" s="104"/>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="70"/>
+      <c r="B174" s="82" t="s">
+        <v>221</v>
+      </c>
+      <c r="C174" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" s="74"/>
+      <c r="E174" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" s="68"/>
+      <c r="G174" s="68"/>
+      <c r="H174" s="69"/>
+      <c r="I174" s="102"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="B175" s="83" t="s">
+        <v>223</v>
+      </c>
+      <c r="C175" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="E175" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" s="68"/>
+      <c r="G175" s="68"/>
+      <c r="H175" s="96"/>
+      <c r="I175" s="105" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="70"/>
+      <c r="B176" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="C176" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="73"/>
+      <c r="E176" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" s="68"/>
+      <c r="G176" s="68"/>
+      <c r="H176" s="96"/>
+      <c r="I176" s="105"/>
+    </row>
+    <row r="177" ht="22.5" spans="1:9">
+      <c r="A177" s="70"/>
+      <c r="B177" s="84" t="s">
+        <v>227</v>
+      </c>
+      <c r="C177" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="73"/>
+      <c r="E177" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" s="68"/>
+      <c r="G177" s="68"/>
+      <c r="H177" s="96"/>
+      <c r="I177" s="105"/>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="79"/>
+      <c r="B178" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="C178" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="74"/>
+      <c r="E178" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" s="68"/>
+      <c r="G178" s="68"/>
+      <c r="H178" s="96"/>
+      <c r="I178" s="105"/>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="B179" s="83" t="s">
+        <v>230</v>
+      </c>
+      <c r="C179" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="E179" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" s="68"/>
+      <c r="G179" s="68"/>
+      <c r="H179" s="69"/>
+      <c r="I179" s="106" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="70"/>
+      <c r="B180" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="C180" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="73"/>
+      <c r="E180" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" s="68"/>
+      <c r="G180" s="68"/>
+      <c r="H180" s="69"/>
+      <c r="I180" s="100"/>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="70"/>
+      <c r="B181" s="84" t="s">
+        <v>234</v>
+      </c>
+      <c r="C181" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="73"/>
+      <c r="E181" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" s="68"/>
+      <c r="G181" s="68"/>
+      <c r="H181" s="69"/>
+      <c r="I181" s="100"/>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="70"/>
+      <c r="B182" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="C182" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="73"/>
+      <c r="E182" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" s="68"/>
+      <c r="G182" s="68"/>
+      <c r="H182" s="69"/>
+      <c r="I182" s="100"/>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="70"/>
+      <c r="B183" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="C183" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="73"/>
+      <c r="E183" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" s="68"/>
+      <c r="G183" s="68"/>
+      <c r="H183" s="69"/>
+      <c r="I183" s="100"/>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="70"/>
+      <c r="B184" s="85" t="s">
+        <v>237</v>
+      </c>
+      <c r="C184" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" s="73"/>
+      <c r="E184" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" s="68"/>
+      <c r="G184" s="68"/>
+      <c r="H184" s="69"/>
+      <c r="I184" s="100"/>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="70"/>
+      <c r="B185" s="85" t="s">
+        <v>238</v>
+      </c>
+      <c r="C185" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" s="73"/>
+      <c r="E185" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" s="68"/>
+      <c r="G185" s="68"/>
+      <c r="H185" s="69"/>
+      <c r="I185" s="100"/>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="70"/>
+      <c r="B186" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="C186" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" s="73"/>
+      <c r="E186" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" s="68"/>
+      <c r="G186" s="68"/>
+      <c r="H186" s="69"/>
+      <c r="I186" s="100"/>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="70"/>
+      <c r="B187" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="C187" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" s="73"/>
+      <c r="E187" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F187" s="68"/>
+      <c r="G187" s="68"/>
+      <c r="H187" s="69"/>
+      <c r="I187" s="100"/>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="70"/>
+      <c r="B188" s="85" t="s">
+        <v>241</v>
+      </c>
+      <c r="C188" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="73"/>
+      <c r="E188" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F188" s="68"/>
+      <c r="G188" s="68"/>
+      <c r="H188" s="69"/>
+      <c r="I188" s="100"/>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="70"/>
+      <c r="B189" s="85" t="s">
+        <v>242</v>
+      </c>
+      <c r="C189" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" s="73"/>
+      <c r="E189" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" s="68"/>
+      <c r="G189" s="68"/>
+      <c r="H189" s="69"/>
+      <c r="I189" s="100"/>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="70"/>
+      <c r="B190" s="85" t="s">
+        <v>243</v>
+      </c>
+      <c r="C190" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" s="74"/>
+      <c r="E190" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" s="68"/>
+      <c r="G190" s="68"/>
+      <c r="H190" s="69"/>
+      <c r="I190" s="101"/>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B191" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="C191" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="E191" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" s="68"/>
+      <c r="G191" s="68"/>
+      <c r="H191" s="69"/>
+      <c r="I191" s="99"/>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="70"/>
+      <c r="B192" s="68" t="s">
+        <v>247</v>
+      </c>
+      <c r="C192" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" s="73"/>
+      <c r="E192" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" s="68"/>
+      <c r="G192" s="68"/>
+      <c r="H192" s="69"/>
+      <c r="I192" s="100"/>
+    </row>
+    <row r="193" ht="112.5" spans="1:9">
+      <c r="A193" s="70"/>
+      <c r="B193" s="81" t="s">
+        <v>248</v>
+      </c>
+      <c r="C193" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="73"/>
+      <c r="E193" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" s="68"/>
+      <c r="G193" s="68"/>
+      <c r="H193" s="69"/>
+      <c r="I193" s="100"/>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="70"/>
+      <c r="B194" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="C194" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="73"/>
+      <c r="E194" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" s="68"/>
+      <c r="G194" s="68"/>
+      <c r="H194" s="69"/>
+      <c r="I194" s="100"/>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="107"/>
+      <c r="B195" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="C195" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" s="74"/>
+      <c r="E195" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" s="68"/>
+      <c r="G195" s="68"/>
+      <c r="H195" s="69"/>
+      <c r="I195" s="101"/>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="108" t="s">
+        <v>251</v>
+      </c>
+      <c r="B196" s="68"/>
+      <c r="C196" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" s="69"/>
+      <c r="E196" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" s="68"/>
+      <c r="G196" s="68"/>
+      <c r="H196" s="69"/>
+      <c r="I196" s="68"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I166"/>
-  <mergeCells count="30">
+  <autoFilter ref="A1:I196"/>
+  <mergeCells count="47">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A22"/>
     <mergeCell ref="A23:A34"/>
@@ -47533,10 +49346,15 @@
     <mergeCell ref="A106:A119"/>
     <mergeCell ref="A120:A123"/>
     <mergeCell ref="A124:A139"/>
-    <mergeCell ref="A142:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A151:A157"/>
-    <mergeCell ref="A161:A165"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A155:A162"/>
+    <mergeCell ref="A163:A169"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A175:A178"/>
+    <mergeCell ref="A179:A190"/>
+    <mergeCell ref="A191:A195"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="D10:D22"/>
     <mergeCell ref="D23:D34"/>
@@ -47549,10 +49367,22 @@
     <mergeCell ref="D106:D119"/>
     <mergeCell ref="D120:D123"/>
     <mergeCell ref="D124:D139"/>
-    <mergeCell ref="I142:I147"/>
-    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="D147:D152"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="D155:D162"/>
+    <mergeCell ref="D170:D174"/>
+    <mergeCell ref="D175:D178"/>
+    <mergeCell ref="D179:D190"/>
+    <mergeCell ref="D191:D195"/>
+    <mergeCell ref="I147:I152"/>
+    <mergeCell ref="I153:I154"/>
+    <mergeCell ref="I163:I169"/>
+    <mergeCell ref="I170:I173"/>
+    <mergeCell ref="I175:I178"/>
+    <mergeCell ref="I179:I190"/>
+    <mergeCell ref="I191:I195"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:G140">
+  <conditionalFormatting sqref="G2:G145">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -47561,11 +49391,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2 H3 H140 H4:H9 H23:H85 H101:H119 H120:H139"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G140 G4:G119 G120:G139">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2 H3 H140 H4:H9 H23:H85 H101:H119 H120:H139 H141:H145"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G140 G4:G119 G120:G139 G141:G145">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F2 F3 F140 F4:F119 F120:F139">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F2 F3 F140 F4:F119 F120:F139 F141:F145">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -47596,6 +49426,13 @@
     <hyperlink ref="D106:D119" r:id="rId24" display="lttng-modules.sh"/>
     <hyperlink ref="D120:D123" r:id="rId25" display="grafana.sh"/>
     <hyperlink ref="D124:D139" r:id="rId26" display="ktap.md"/>
+    <hyperlink ref="D153:D154" r:id="rId26" display="setpci.md"/>
+    <hyperlink ref="D155:D162" r:id="rId27" display="swapon.sh"/>
+    <hyperlink ref="D170:D174" r:id="rId28" display="valgrind.md"/>
+    <hyperlink ref="D175:D178" r:id="rId29" display="overlayfs.md"/>
+    <hyperlink ref="D179:D190" r:id="rId30" display="oprofile.md"/>
+    <hyperlink ref="D191:D195" r:id="rId31" display="lldptool.md"/>
+    <hyperlink ref="D147:D152" r:id="rId32" display="pidstat.sh"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -47659,16 +49496,16 @@
     </row>
     <row r="2" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>13</v>
@@ -47690,7 +49527,7 @@
         <v>160</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="14" t="s">
@@ -47713,7 +49550,7 @@
         <v>161</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="14" t="s">
@@ -47736,7 +49573,7 @@
         <v>162</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="14" t="s">
@@ -47755,16 +49592,16 @@
     </row>
     <row r="6" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>13</v>
@@ -47786,7 +49623,7 @@
         <v>160</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
@@ -47809,7 +49646,7 @@
         <v>161</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
@@ -47832,7 +49669,7 @@
         <v>162</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
@@ -47851,16 +49688,16 @@
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>13</v>
@@ -47882,7 +49719,7 @@
         <v>160</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
@@ -47905,7 +49742,7 @@
         <v>161</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
@@ -47928,7 +49765,7 @@
         <v>162</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
@@ -47947,16 +49784,16 @@
     </row>
     <row r="14" ht="13.5" customHeight="1" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>13</v>
@@ -47978,7 +49815,7 @@
         <v>160</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
@@ -48001,7 +49838,7 @@
         <v>161</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14" t="s">
@@ -48024,7 +49861,7 @@
         <v>162</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
@@ -48043,16 +49880,16 @@
     </row>
     <row r="18" ht="13.5" customHeight="1" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>13</v>
@@ -48074,7 +49911,7 @@
         <v>160</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14" t="s">
@@ -48097,7 +49934,7 @@
         <v>161</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="14" t="s">
@@ -48120,7 +49957,7 @@
         <v>162</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14" t="s">
@@ -48139,16 +49976,16 @@
     </row>
     <row r="22" ht="13.5" customHeight="1" spans="1:9">
       <c r="A22" s="6" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>13</v>
@@ -48170,7 +50007,7 @@
         <v>160</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="14" t="s">
@@ -48193,7 +50030,7 @@
         <v>161</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="14" t="s">
@@ -48216,7 +50053,7 @@
         <v>162</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="14" t="s">
@@ -48235,16 +50072,16 @@
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="1:9">
       <c r="A26" s="6" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>13</v>
@@ -48266,7 +50103,7 @@
         <v>160</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="14" t="s">
@@ -48289,7 +50126,7 @@
         <v>161</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="14" t="s">
@@ -48312,7 +50149,7 @@
         <v>162</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="14" t="s">
@@ -48331,16 +50168,16 @@
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:9">
       <c r="A30" s="6" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>13</v>
@@ -48362,7 +50199,7 @@
         <v>160</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="14" t="s">
@@ -48385,7 +50222,7 @@
         <v>161</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="14" t="s">
@@ -48408,7 +50245,7 @@
         <v>162</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="14" t="s">
@@ -48427,16 +50264,16 @@
     </row>
     <row r="34" ht="13.5" customHeight="1" spans="1:9">
       <c r="A34" s="6" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>13</v>
@@ -48458,7 +50295,7 @@
         <v>160</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="14" t="s">
@@ -48481,7 +50318,7 @@
         <v>161</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="14" t="s">
@@ -48504,7 +50341,7 @@
         <v>162</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="14" t="s">
@@ -48523,16 +50360,16 @@
     </row>
     <row r="38" ht="13.5" customHeight="1" spans="1:9">
       <c r="A38" s="6" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>13</v>
@@ -48554,7 +50391,7 @@
         <v>160</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="14" t="s">
@@ -48577,7 +50414,7 @@
         <v>161</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="14" t="s">
@@ -48600,7 +50437,7 @@
         <v>162</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="14" t="s">
@@ -48619,16 +50456,16 @@
     </row>
     <row r="42" ht="13.5" customHeight="1" spans="1:9">
       <c r="A42" s="6" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>13</v>
@@ -48650,7 +50487,7 @@
         <v>160</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="14" t="s">
@@ -48673,7 +50510,7 @@
         <v>161</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="14" t="s">
@@ -48696,7 +50533,7 @@
         <v>162</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="14" t="s">
@@ -48715,16 +50552,16 @@
     </row>
     <row r="46" ht="13.5" customHeight="1" spans="1:9">
       <c r="A46" s="6" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>13</v>
@@ -48746,7 +50583,7 @@
         <v>160</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="14" t="s">
@@ -48769,7 +50606,7 @@
         <v>161</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="14" t="s">
@@ -48792,7 +50629,7 @@
         <v>162</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="14" t="s">
@@ -48811,16 +50648,16 @@
     </row>
     <row r="50" ht="13.5" customHeight="1" spans="1:9">
       <c r="A50" s="6" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>13</v>
@@ -48842,7 +50679,7 @@
         <v>160</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="14" t="s">
@@ -48865,7 +50702,7 @@
         <v>161</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="14" t="s">
@@ -48888,7 +50725,7 @@
         <v>162</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="14" t="s">
@@ -48907,16 +50744,16 @@
     </row>
     <row r="54" ht="13.5" customHeight="1" spans="1:9">
       <c r="A54" s="6" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>13</v>
@@ -48938,7 +50775,7 @@
         <v>160</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="14" t="s">
@@ -48961,7 +50798,7 @@
         <v>161</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="14" t="s">
@@ -48984,7 +50821,7 @@
         <v>162</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="14" t="s">
@@ -49003,16 +50840,16 @@
     </row>
     <row r="58" ht="13.5" customHeight="1" spans="1:9">
       <c r="A58" s="6" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>13</v>
@@ -49034,7 +50871,7 @@
         <v>160</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="14" t="s">
@@ -49057,7 +50894,7 @@
         <v>161</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="14" t="s">
@@ -49080,7 +50917,7 @@
         <v>162</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="14" t="s">
@@ -49099,16 +50936,16 @@
     </row>
     <row r="62" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A62" s="6" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="E62" s="14" t="s">
         <v>13</v>
@@ -49130,7 +50967,7 @@
         <v>160</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="14" t="s">
@@ -49153,7 +50990,7 @@
         <v>161</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="14" t="s">
@@ -49173,10 +51010,10 @@
     <row r="65" spans="1:9">
       <c r="A65" s="6"/>
       <c r="B65" s="11" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="14" t="s">
@@ -49196,10 +51033,10 @@
     <row r="66" spans="1:9">
       <c r="A66" s="6"/>
       <c r="B66" s="11" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="14" t="s">
@@ -49219,10 +51056,10 @@
     <row r="67" spans="1:9">
       <c r="A67" s="6"/>
       <c r="B67" s="11" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="14" t="s">
@@ -49242,10 +51079,10 @@
     <row r="68" spans="1:9">
       <c r="A68" s="6"/>
       <c r="B68" s="11" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="14" t="s">
@@ -49265,10 +51102,10 @@
     <row r="69" spans="1:9">
       <c r="A69" s="6"/>
       <c r="B69" s="11" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="14" t="s">
@@ -49288,10 +51125,10 @@
     <row r="70" spans="1:9">
       <c r="A70" s="6"/>
       <c r="B70" s="11" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="14" t="s">
@@ -49311,10 +51148,10 @@
     <row r="71" spans="1:9">
       <c r="A71" s="6"/>
       <c r="B71" s="11" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="14" t="s">
@@ -49334,10 +51171,10 @@
     <row r="72" spans="1:9">
       <c r="A72" s="6"/>
       <c r="B72" s="11" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="14" t="s">
@@ -49356,16 +51193,16 @@
     </row>
     <row r="73" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A73" s="6" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="B73" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C73" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="C73" s="21" t="s">
-        <v>211</v>
-      </c>
       <c r="D73" s="13" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="E73" s="14" t="s">
         <v>13</v>
@@ -49387,7 +51224,7 @@
         <v>160</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="14" t="s">
@@ -49410,7 +51247,7 @@
         <v>161</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="14" t="s">
@@ -49430,10 +51267,10 @@
     <row r="76" customFormat="1" ht="13.5" spans="1:9">
       <c r="A76" s="6"/>
       <c r="B76" s="20" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="14" t="s">
@@ -49453,10 +51290,10 @@
     <row r="77" customFormat="1" ht="13.5" spans="1:9">
       <c r="A77" s="6"/>
       <c r="B77" s="20" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="14" t="s">
@@ -49476,10 +51313,10 @@
     <row r="78" customFormat="1" ht="13.5" spans="1:9">
       <c r="A78" s="6"/>
       <c r="B78" s="20" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="14" t="s">
@@ -49499,10 +51336,10 @@
     <row r="79" customFormat="1" ht="13.5" spans="1:9">
       <c r="A79" s="6"/>
       <c r="B79" s="20" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="14" t="s">
@@ -49522,10 +51359,10 @@
     <row r="80" customFormat="1" ht="13.5" spans="1:9">
       <c r="A80" s="6"/>
       <c r="B80" s="20" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="14" t="s">
@@ -49544,16 +51381,16 @@
     </row>
     <row r="81" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A81" s="6" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="E81" s="14" t="s">
         <v>13</v>
@@ -49575,7 +51412,7 @@
         <v>160</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="14" t="s">
@@ -49598,7 +51435,7 @@
         <v>161</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="14" t="s">
@@ -49621,7 +51458,7 @@
         <v>162</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="14" t="s">
@@ -49640,16 +51477,16 @@
     </row>
     <row r="85" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A85" s="6" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="E85" s="14" t="s">
         <v>13</v>
@@ -49668,10 +51505,10 @@
     <row r="86" customFormat="1" ht="13.5" spans="1:9">
       <c r="A86" s="6"/>
       <c r="B86" s="11" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="14" t="s">
@@ -49691,10 +51528,10 @@
     <row r="87" customFormat="1" ht="13.5" spans="1:9">
       <c r="A87" s="6"/>
       <c r="B87" s="7" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="14" t="s">
@@ -49714,10 +51551,10 @@
     <row r="88" customFormat="1" ht="13.5" spans="1:9">
       <c r="A88" s="6"/>
       <c r="B88" s="7" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="14" t="s">
@@ -49737,10 +51574,10 @@
     <row r="89" customFormat="1" ht="13.5" spans="1:9">
       <c r="A89" s="6"/>
       <c r="B89" s="11" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="14" t="s">
@@ -49760,10 +51597,10 @@
     <row r="90" spans="1:9">
       <c r="A90" s="6"/>
       <c r="B90" s="11" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="14" t="s">
@@ -49783,10 +51620,10 @@
     <row r="91" spans="1:9">
       <c r="A91" s="6"/>
       <c r="B91" s="11" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="14" t="s">
@@ -49806,10 +51643,10 @@
     <row r="92" spans="1:9">
       <c r="A92" s="6"/>
       <c r="B92" s="11" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="14" t="s">
@@ -49829,10 +51666,10 @@
     <row r="93" spans="1:9">
       <c r="A93" s="6"/>
       <c r="B93" s="11" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="14" t="s">
@@ -49851,16 +51688,16 @@
     </row>
     <row r="94" ht="13.5" customHeight="1" spans="1:9">
       <c r="A94" s="6" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="E94" s="14" t="s">
         <v>13</v>
@@ -49875,7 +51712,7 @@
         <v>13</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -49884,7 +51721,7 @@
         <v>160</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="14" t="s">
@@ -49900,7 +51737,7 @@
         <v>13</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -49909,7 +51746,7 @@
         <v>161</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="14" t="s">
@@ -49925,7 +51762,7 @@
         <v>13</v>
       </c>
       <c r="I96" s="18" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -49934,7 +51771,7 @@
         <v>162</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="14" t="s">
@@ -49950,21 +51787,21 @@
         <v>13</v>
       </c>
       <c r="I97" s="18" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
     </row>
     <row r="98" ht="13.5" customHeight="1" spans="1:9">
       <c r="A98" s="22" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="E98" s="14" t="s">
         <v>13</v>
@@ -49986,7 +51823,7 @@
         <v>160</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D99" s="23"/>
       <c r="E99" s="14" t="s">
@@ -50009,7 +51846,7 @@
         <v>161</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D100" s="23"/>
       <c r="E100" s="14" t="s">
@@ -50032,7 +51869,7 @@
         <v>162</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D101" s="23"/>
       <c r="E101" s="26" t="s">

--- a/list/tool.xlsx
+++ b/list/tool.xlsx
@@ -5293,7 +5293,7 @@
     </xf>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5538,6 +5538,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="36" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6016,7 +6025,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B195" sqref="B191:B195"/>
+      <selection pane="bottomLeft" activeCell="D179" sqref="D179:D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -48634,15 +48643,15 @@
       <c r="D140" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="E140" s="81" t="s">
+      <c r="E140" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="F140" s="82" t="s">
+      <c r="F140" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="G140" s="83"/>
-      <c r="H140" s="84"/>
-      <c r="I140" s="88"/>
+      <c r="G140" s="86"/>
+      <c r="H140" s="87"/>
+      <c r="I140" s="91"/>
     </row>
     <row r="141" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A141" s="63" t="s">
@@ -48653,11 +48662,11 @@
       </c>
       <c r="C141" s="61"/>
       <c r="D141" s="62"/>
-      <c r="E141" s="81"/>
-      <c r="F141" s="82"/>
-      <c r="G141" s="83"/>
-      <c r="H141" s="84"/>
-      <c r="I141" s="89" t="s">
+      <c r="E141" s="84"/>
+      <c r="F141" s="85"/>
+      <c r="G141" s="86"/>
+      <c r="H141" s="87"/>
+      <c r="I141" s="92" t="s">
         <v>185</v>
       </c>
     </row>
@@ -48668,44 +48677,44 @@
       </c>
       <c r="C142" s="61"/>
       <c r="D142" s="62"/>
-      <c r="E142" s="81"/>
-      <c r="F142" s="82"/>
-      <c r="G142" s="83"/>
-      <c r="H142" s="84"/>
-      <c r="I142" s="89"/>
+      <c r="E142" s="84"/>
+      <c r="F142" s="85"/>
+      <c r="G142" s="86"/>
+      <c r="H142" s="87"/>
+      <c r="I142" s="92"/>
     </row>
     <row r="143" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A143" s="64"/>
       <c r="B143" s="60"/>
       <c r="C143" s="61"/>
       <c r="D143" s="62"/>
-      <c r="E143" s="81"/>
-      <c r="F143" s="82"/>
-      <c r="G143" s="83"/>
-      <c r="H143" s="84"/>
-      <c r="I143" s="89"/>
+      <c r="E143" s="84"/>
+      <c r="F143" s="85"/>
+      <c r="G143" s="86"/>
+      <c r="H143" s="87"/>
+      <c r="I143" s="92"/>
     </row>
     <row r="144" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A144" s="64"/>
       <c r="B144" s="60"/>
       <c r="C144" s="61"/>
       <c r="D144" s="62"/>
-      <c r="E144" s="81"/>
-      <c r="F144" s="82"/>
-      <c r="G144" s="83"/>
-      <c r="H144" s="84"/>
-      <c r="I144" s="89"/>
+      <c r="E144" s="84"/>
+      <c r="F144" s="85"/>
+      <c r="G144" s="86"/>
+      <c r="H144" s="87"/>
+      <c r="I144" s="92"/>
     </row>
     <row r="145" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A145" s="64"/>
       <c r="B145" s="60"/>
       <c r="C145" s="61"/>
       <c r="D145" s="62"/>
-      <c r="E145" s="81"/>
-      <c r="F145" s="82"/>
-      <c r="G145" s="83"/>
-      <c r="H145" s="84"/>
-      <c r="I145" s="89"/>
+      <c r="E145" s="84"/>
+      <c r="F145" s="85"/>
+      <c r="G145" s="86"/>
+      <c r="H145" s="87"/>
+      <c r="I145" s="92"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="65"/>
@@ -48714,7 +48723,7 @@
         <v>11</v>
       </c>
       <c r="D146" s="67"/>
-      <c r="E146" s="85"/>
+      <c r="E146" s="88"/>
       <c r="F146" s="66"/>
       <c r="G146" s="66"/>
       <c r="H146" s="67"/>
@@ -48733,13 +48742,13 @@
       <c r="D147" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="E147" s="86" t="s">
+      <c r="E147" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F147" s="66"/>
       <c r="G147" s="66"/>
       <c r="H147" s="67"/>
-      <c r="I147" s="90" t="s">
+      <c r="I147" s="93" t="s">
         <v>189</v>
       </c>
     </row>
@@ -48752,13 +48761,13 @@
         <v>11</v>
       </c>
       <c r="D148" s="71"/>
-      <c r="E148" s="86" t="s">
+      <c r="E148" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F148" s="66"/>
       <c r="G148" s="66"/>
       <c r="H148" s="67"/>
-      <c r="I148" s="91"/>
+      <c r="I148" s="94"/>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="68"/>
@@ -48769,13 +48778,13 @@
         <v>11</v>
       </c>
       <c r="D149" s="71"/>
-      <c r="E149" s="86" t="s">
+      <c r="E149" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F149" s="66"/>
       <c r="G149" s="66"/>
       <c r="H149" s="67"/>
-      <c r="I149" s="91"/>
+      <c r="I149" s="94"/>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="68"/>
@@ -48786,13 +48795,13 @@
         <v>11</v>
       </c>
       <c r="D150" s="71"/>
-      <c r="E150" s="86" t="s">
+      <c r="E150" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F150" s="66"/>
       <c r="G150" s="66"/>
       <c r="H150" s="67"/>
-      <c r="I150" s="91"/>
+      <c r="I150" s="94"/>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="68"/>
@@ -48803,13 +48812,13 @@
         <v>11</v>
       </c>
       <c r="D151" s="71"/>
-      <c r="E151" s="86" t="s">
+      <c r="E151" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F151" s="66"/>
       <c r="G151" s="66"/>
       <c r="H151" s="67"/>
-      <c r="I151" s="91"/>
+      <c r="I151" s="94"/>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="68"/>
@@ -48820,13 +48829,13 @@
         <v>11</v>
       </c>
       <c r="D152" s="72"/>
-      <c r="E152" s="86" t="s">
+      <c r="E152" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F152" s="66"/>
       <c r="G152" s="66"/>
       <c r="H152" s="67"/>
-      <c r="I152" s="92"/>
+      <c r="I152" s="95"/>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="73" t="s">
@@ -48841,13 +48850,13 @@
       <c r="D153" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="E153" s="86" t="s">
+      <c r="E153" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F153" s="66"/>
       <c r="G153" s="66"/>
       <c r="H153" s="67"/>
-      <c r="I153" s="93" t="s">
+      <c r="I153" s="96" t="s">
         <v>198</v>
       </c>
     </row>
@@ -48860,13 +48869,13 @@
         <v>11</v>
       </c>
       <c r="D154" s="72"/>
-      <c r="E154" s="86" t="s">
+      <c r="E154" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F154" s="66"/>
       <c r="G154" s="66"/>
       <c r="H154" s="67"/>
-      <c r="I154" s="91"/>
+      <c r="I154" s="94"/>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="68" t="s">
@@ -48881,13 +48890,13 @@
       <c r="D155" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="E155" s="86" t="s">
+      <c r="E155" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F155" s="66"/>
       <c r="G155" s="66"/>
       <c r="H155" s="67"/>
-      <c r="I155" s="91"/>
+      <c r="I155" s="94"/>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="68"/>
@@ -48898,13 +48907,13 @@
         <v>11</v>
       </c>
       <c r="D156" s="71"/>
-      <c r="E156" s="86" t="s">
+      <c r="E156" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F156" s="66"/>
       <c r="G156" s="66"/>
       <c r="H156" s="67"/>
-      <c r="I156" s="91"/>
+      <c r="I156" s="94"/>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="68"/>
@@ -48915,13 +48924,13 @@
         <v>11</v>
       </c>
       <c r="D157" s="71"/>
-      <c r="E157" s="86" t="s">
+      <c r="E157" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F157" s="66"/>
       <c r="G157" s="66"/>
       <c r="H157" s="67"/>
-      <c r="I157" s="91"/>
+      <c r="I157" s="94"/>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="68"/>
@@ -48932,13 +48941,13 @@
         <v>11</v>
       </c>
       <c r="D158" s="71"/>
-      <c r="E158" s="86" t="s">
+      <c r="E158" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F158" s="66"/>
       <c r="G158" s="66"/>
       <c r="H158" s="67"/>
-      <c r="I158" s="91"/>
+      <c r="I158" s="94"/>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="68"/>
@@ -48949,13 +48958,13 @@
         <v>11</v>
       </c>
       <c r="D159" s="71"/>
-      <c r="E159" s="86" t="s">
+      <c r="E159" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F159" s="66"/>
       <c r="G159" s="66"/>
       <c r="H159" s="67"/>
-      <c r="I159" s="91"/>
+      <c r="I159" s="94"/>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="68"/>
@@ -48966,13 +48975,13 @@
         <v>11</v>
       </c>
       <c r="D160" s="71"/>
-      <c r="E160" s="86" t="s">
+      <c r="E160" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F160" s="66"/>
       <c r="G160" s="66"/>
       <c r="H160" s="67"/>
-      <c r="I160" s="91"/>
+      <c r="I160" s="94"/>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="68"/>
@@ -48983,13 +48992,13 @@
         <v>11</v>
       </c>
       <c r="D161" s="71"/>
-      <c r="E161" s="86" t="s">
+      <c r="E161" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F161" s="66"/>
       <c r="G161" s="66"/>
       <c r="H161" s="67"/>
-      <c r="I161" s="91"/>
+      <c r="I161" s="94"/>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="76"/>
@@ -49000,7 +49009,7 @@
         <v>11</v>
       </c>
       <c r="D162" s="72"/>
-      <c r="E162" s="86" t="s">
+      <c r="E162" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F162" s="66"/>
@@ -49017,11 +49026,11 @@
       </c>
       <c r="C163" s="41"/>
       <c r="D163" s="67"/>
-      <c r="E163" s="86"/>
+      <c r="E163" s="89"/>
       <c r="F163" s="66"/>
       <c r="G163" s="66"/>
       <c r="H163" s="67"/>
-      <c r="I163" s="94" t="s">
+      <c r="I163" s="97" t="s">
         <v>212</v>
       </c>
     </row>
@@ -49032,52 +49041,52 @@
       </c>
       <c r="C164" s="41"/>
       <c r="D164" s="67"/>
-      <c r="E164" s="86"/>
+      <c r="E164" s="89"/>
       <c r="F164" s="66"/>
       <c r="G164" s="66"/>
       <c r="H164" s="67"/>
-      <c r="I164" s="93"/>
+      <c r="I164" s="96"/>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="68"/>
       <c r="C165" s="41"/>
       <c r="D165" s="67"/>
-      <c r="E165" s="86"/>
+      <c r="E165" s="89"/>
       <c r="F165" s="66"/>
       <c r="G165" s="66"/>
       <c r="H165" s="67"/>
-      <c r="I165" s="93"/>
+      <c r="I165" s="96"/>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="68"/>
       <c r="C166" s="41"/>
       <c r="D166" s="67"/>
-      <c r="E166" s="86"/>
+      <c r="E166" s="89"/>
       <c r="F166" s="66"/>
       <c r="G166" s="66"/>
       <c r="H166" s="67"/>
-      <c r="I166" s="93"/>
+      <c r="I166" s="96"/>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="68"/>
       <c r="C167" s="41"/>
       <c r="D167" s="67"/>
-      <c r="E167" s="86"/>
+      <c r="E167" s="89"/>
       <c r="F167" s="66"/>
       <c r="G167" s="66"/>
       <c r="H167" s="67"/>
-      <c r="I167" s="93"/>
+      <c r="I167" s="96"/>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="68"/>
       <c r="B168" s="66"/>
       <c r="C168" s="41"/>
       <c r="D168" s="67"/>
-      <c r="E168" s="86"/>
+      <c r="E168" s="89"/>
       <c r="F168" s="66"/>
       <c r="G168" s="66"/>
       <c r="H168" s="67"/>
-      <c r="I168" s="93"/>
+      <c r="I168" s="96"/>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="76"/>
@@ -49086,13 +49095,13 @@
         <v>11</v>
       </c>
       <c r="D169" s="67"/>
-      <c r="E169" s="86" t="s">
+      <c r="E169" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F169" s="66"/>
       <c r="G169" s="66"/>
       <c r="H169" s="67"/>
-      <c r="I169" s="95"/>
+      <c r="I169" s="98"/>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="68" t="s">
@@ -49107,13 +49116,13 @@
       <c r="D170" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="E170" s="86" t="s">
+      <c r="E170" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F170" s="66"/>
       <c r="G170" s="66"/>
       <c r="H170" s="67"/>
-      <c r="I170" s="93" t="s">
+      <c r="I170" s="96" t="s">
         <v>217</v>
       </c>
     </row>
@@ -49126,13 +49135,13 @@
         <v>11</v>
       </c>
       <c r="D171" s="71"/>
-      <c r="E171" s="86" t="s">
+      <c r="E171" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F171" s="66"/>
       <c r="G171" s="66"/>
       <c r="H171" s="67"/>
-      <c r="I171" s="93"/>
+      <c r="I171" s="96"/>
     </row>
     <row r="172" ht="157.5" spans="1:9">
       <c r="A172" s="68"/>
@@ -49143,13 +49152,13 @@
         <v>11</v>
       </c>
       <c r="D172" s="71"/>
-      <c r="E172" s="86" t="s">
+      <c r="E172" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F172" s="66"/>
       <c r="G172" s="66"/>
       <c r="H172" s="67"/>
-      <c r="I172" s="93"/>
+      <c r="I172" s="96"/>
     </row>
     <row r="173" ht="225" spans="1:9">
       <c r="A173" s="68"/>
@@ -49160,13 +49169,13 @@
         <v>11</v>
       </c>
       <c r="D173" s="71"/>
-      <c r="E173" s="86" t="s">
+      <c r="E173" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F173" s="66"/>
       <c r="G173" s="66"/>
       <c r="H173" s="67"/>
-      <c r="I173" s="95"/>
+      <c r="I173" s="98"/>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="68"/>
@@ -49177,13 +49186,13 @@
         <v>11</v>
       </c>
       <c r="D174" s="72"/>
-      <c r="E174" s="86" t="s">
+      <c r="E174" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F174" s="66"/>
       <c r="G174" s="66"/>
       <c r="H174" s="67"/>
-      <c r="I174" s="93"/>
+      <c r="I174" s="96"/>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="77" t="s">
@@ -49198,13 +49207,13 @@
       <c r="D175" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="E175" s="86" t="s">
+      <c r="E175" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F175" s="66"/>
       <c r="G175" s="66"/>
-      <c r="H175" s="87"/>
-      <c r="I175" s="86" t="s">
+      <c r="H175" s="90"/>
+      <c r="I175" s="89" t="s">
         <v>225</v>
       </c>
     </row>
@@ -49217,13 +49226,13 @@
         <v>11</v>
       </c>
       <c r="D176" s="71"/>
-      <c r="E176" s="86" t="s">
+      <c r="E176" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F176" s="66"/>
       <c r="G176" s="66"/>
-      <c r="H176" s="87"/>
-      <c r="I176" s="86"/>
+      <c r="H176" s="90"/>
+      <c r="I176" s="89"/>
     </row>
     <row r="177" ht="22.5" spans="1:9">
       <c r="A177" s="68"/>
@@ -49234,13 +49243,13 @@
         <v>11</v>
       </c>
       <c r="D177" s="71"/>
-      <c r="E177" s="86" t="s">
+      <c r="E177" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F177" s="66"/>
       <c r="G177" s="66"/>
-      <c r="H177" s="87"/>
-      <c r="I177" s="86"/>
+      <c r="H177" s="90"/>
+      <c r="I177" s="89"/>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="76"/>
@@ -49251,13 +49260,13 @@
         <v>11</v>
       </c>
       <c r="D178" s="72"/>
-      <c r="E178" s="86" t="s">
+      <c r="E178" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F178" s="66"/>
       <c r="G178" s="66"/>
-      <c r="H178" s="87"/>
-      <c r="I178" s="86"/>
+      <c r="H178" s="90"/>
+      <c r="I178" s="89"/>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="68" t="s">
@@ -49269,16 +49278,16 @@
       <c r="C179" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D179" s="70" t="s">
+      <c r="D179" s="81" t="s">
         <v>231</v>
       </c>
-      <c r="E179" s="86" t="s">
+      <c r="E179" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F179" s="66"/>
       <c r="G179" s="66"/>
       <c r="H179" s="67"/>
-      <c r="I179" s="91" t="s">
+      <c r="I179" s="94" t="s">
         <v>232</v>
       </c>
     </row>
@@ -49290,14 +49299,14 @@
       <c r="C180" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D180" s="71"/>
-      <c r="E180" s="86" t="s">
+      <c r="D180" s="82"/>
+      <c r="E180" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F180" s="66"/>
       <c r="G180" s="66"/>
       <c r="H180" s="67"/>
-      <c r="I180" s="91"/>
+      <c r="I180" s="94"/>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="68"/>
@@ -49307,14 +49316,14 @@
       <c r="C181" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D181" s="71"/>
-      <c r="E181" s="86" t="s">
+      <c r="D181" s="82"/>
+      <c r="E181" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F181" s="66"/>
       <c r="G181" s="66"/>
       <c r="H181" s="67"/>
-      <c r="I181" s="91"/>
+      <c r="I181" s="94"/>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="68"/>
@@ -49324,14 +49333,14 @@
       <c r="C182" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D182" s="71"/>
-      <c r="E182" s="86" t="s">
+      <c r="D182" s="82"/>
+      <c r="E182" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F182" s="66"/>
       <c r="G182" s="66"/>
       <c r="H182" s="67"/>
-      <c r="I182" s="91"/>
+      <c r="I182" s="94"/>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="68"/>
@@ -49341,14 +49350,14 @@
       <c r="C183" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D183" s="71"/>
-      <c r="E183" s="86" t="s">
+      <c r="D183" s="82"/>
+      <c r="E183" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F183" s="66"/>
       <c r="G183" s="66"/>
       <c r="H183" s="67"/>
-      <c r="I183" s="91"/>
+      <c r="I183" s="94"/>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="68"/>
@@ -49358,14 +49367,14 @@
       <c r="C184" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D184" s="71"/>
-      <c r="E184" s="86" t="s">
+      <c r="D184" s="82"/>
+      <c r="E184" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F184" s="66"/>
       <c r="G184" s="66"/>
       <c r="H184" s="67"/>
-      <c r="I184" s="91"/>
+      <c r="I184" s="94"/>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="68"/>
@@ -49375,14 +49384,14 @@
       <c r="C185" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D185" s="71"/>
-      <c r="E185" s="86" t="s">
+      <c r="D185" s="82"/>
+      <c r="E185" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F185" s="66"/>
       <c r="G185" s="66"/>
       <c r="H185" s="67"/>
-      <c r="I185" s="91"/>
+      <c r="I185" s="94"/>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="68"/>
@@ -49392,14 +49401,14 @@
       <c r="C186" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D186" s="71"/>
-      <c r="E186" s="86" t="s">
+      <c r="D186" s="82"/>
+      <c r="E186" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F186" s="66"/>
       <c r="G186" s="66"/>
       <c r="H186" s="67"/>
-      <c r="I186" s="91"/>
+      <c r="I186" s="94"/>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="68"/>
@@ -49409,14 +49418,14 @@
       <c r="C187" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D187" s="71"/>
-      <c r="E187" s="86" t="s">
+      <c r="D187" s="82"/>
+      <c r="E187" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F187" s="66"/>
       <c r="G187" s="66"/>
       <c r="H187" s="67"/>
-      <c r="I187" s="91"/>
+      <c r="I187" s="94"/>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="68"/>
@@ -49426,14 +49435,14 @@
       <c r="C188" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D188" s="71"/>
-      <c r="E188" s="86" t="s">
+      <c r="D188" s="82"/>
+      <c r="E188" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F188" s="66"/>
       <c r="G188" s="66"/>
       <c r="H188" s="67"/>
-      <c r="I188" s="91"/>
+      <c r="I188" s="94"/>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="68"/>
@@ -49443,14 +49452,14 @@
       <c r="C189" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D189" s="71"/>
-      <c r="E189" s="86" t="s">
+      <c r="D189" s="82"/>
+      <c r="E189" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F189" s="66"/>
       <c r="G189" s="66"/>
       <c r="H189" s="67"/>
-      <c r="I189" s="91"/>
+      <c r="I189" s="94"/>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="68"/>
@@ -49460,14 +49469,14 @@
       <c r="C190" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D190" s="72"/>
-      <c r="E190" s="86" t="s">
+      <c r="D190" s="83"/>
+      <c r="E190" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F190" s="66"/>
       <c r="G190" s="66"/>
       <c r="H190" s="67"/>
-      <c r="I190" s="92"/>
+      <c r="I190" s="95"/>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="77" t="s">
@@ -49479,16 +49488,16 @@
       <c r="C191" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D191" s="70" t="s">
+      <c r="D191" s="81" t="s">
         <v>246</v>
       </c>
-      <c r="E191" s="86" t="s">
+      <c r="E191" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F191" s="66"/>
       <c r="G191" s="66"/>
       <c r="H191" s="67"/>
-      <c r="I191" s="90" t="s">
+      <c r="I191" s="93" t="s">
         <v>247</v>
       </c>
     </row>
@@ -49500,14 +49509,14 @@
       <c r="C192" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D192" s="71"/>
-      <c r="E192" s="86" t="s">
+      <c r="D192" s="82"/>
+      <c r="E192" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F192" s="66"/>
       <c r="G192" s="66"/>
       <c r="H192" s="67"/>
-      <c r="I192" s="91"/>
+      <c r="I192" s="94"/>
     </row>
     <row r="193" ht="112.5" spans="1:9">
       <c r="A193" s="68"/>
@@ -49517,14 +49526,14 @@
       <c r="C193" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D193" s="71"/>
-      <c r="E193" s="86" t="s">
+      <c r="D193" s="82"/>
+      <c r="E193" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F193" s="66"/>
       <c r="G193" s="66"/>
       <c r="H193" s="67"/>
-      <c r="I193" s="91"/>
+      <c r="I193" s="94"/>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="68"/>
@@ -49534,31 +49543,31 @@
       <c r="C194" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D194" s="71"/>
-      <c r="E194" s="86" t="s">
+      <c r="D194" s="82"/>
+      <c r="E194" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F194" s="66"/>
       <c r="G194" s="66"/>
       <c r="H194" s="67"/>
-      <c r="I194" s="91"/>
+      <c r="I194" s="94"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="96"/>
+      <c r="A195" s="99"/>
       <c r="B195" s="66" t="s">
         <v>251</v>
       </c>
       <c r="C195" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D195" s="72"/>
-      <c r="E195" s="86" t="s">
+      <c r="D195" s="83"/>
+      <c r="E195" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F195" s="66"/>
       <c r="G195" s="66"/>
       <c r="H195" s="67"/>
-      <c r="I195" s="92"/>
+      <c r="I195" s="95"/>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="73" t="s">
@@ -49569,7 +49578,7 @@
         <v>11</v>
       </c>
       <c r="D196" s="67"/>
-      <c r="E196" s="86" t="s">
+      <c r="E196" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F196" s="66"/>

--- a/list/tool.xlsx
+++ b/list/tool.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12375" tabRatio="992"/>
+    <workbookView windowWidth="28695" windowHeight="12375" tabRatio="992" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="tool" sheetId="1" r:id="rId1"/>
+    <sheet name="tool1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$196</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$I$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tool!$A$1:$I$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tool1!$A$1:$I$101</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -3590,12 +3590,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>LLDP</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>是一种邻近发现协议。它为以太网网络设备，如交换机、路由器和无线局域网接入点定义了一种标准的方法，使其可以向网络中其他节点公告自身的存在，并保存各个邻近设备的发现信息</t>
@@ -4291,12 +4298,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="39">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -4437,109 +4444,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -4555,14 +4465,106 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4605,7 +4607,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4617,13 +4643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4635,7 +4655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4653,19 +4679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4677,7 +4697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4689,13 +4709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4707,7 +4721,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4719,37 +4745,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4761,19 +4769,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5072,6 +5074,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -5093,21 +5104,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -5122,11 +5118,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5155,127 +5157,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5284,7 +5286,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5293,7 +5295,7 @@
     </xf>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5506,13 +5508,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="36" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="44" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="44" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="44" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5521,13 +5523,22 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="36" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="44" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5539,7 +5550,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="36" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6022,10 +6033,10 @@
   <sheetPr/>
   <dimension ref="A1:AMJ196"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D179" sqref="D179:D190"/>
+      <selection pane="bottomLeft" activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -48643,15 +48654,15 @@
       <c r="D140" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="E140" s="84" t="s">
+      <c r="E140" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="F140" s="85" t="s">
+      <c r="F140" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="G140" s="86"/>
-      <c r="H140" s="87"/>
-      <c r="I140" s="91"/>
+      <c r="G140" s="89"/>
+      <c r="H140" s="90"/>
+      <c r="I140" s="94"/>
     </row>
     <row r="141" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A141" s="63" t="s">
@@ -48662,11 +48673,11 @@
       </c>
       <c r="C141" s="61"/>
       <c r="D141" s="62"/>
-      <c r="E141" s="84"/>
-      <c r="F141" s="85"/>
-      <c r="G141" s="86"/>
-      <c r="H141" s="87"/>
-      <c r="I141" s="92" t="s">
+      <c r="E141" s="87"/>
+      <c r="F141" s="88"/>
+      <c r="G141" s="89"/>
+      <c r="H141" s="90"/>
+      <c r="I141" s="95" t="s">
         <v>185</v>
       </c>
     </row>
@@ -48677,44 +48688,44 @@
       </c>
       <c r="C142" s="61"/>
       <c r="D142" s="62"/>
-      <c r="E142" s="84"/>
-      <c r="F142" s="85"/>
-      <c r="G142" s="86"/>
-      <c r="H142" s="87"/>
-      <c r="I142" s="92"/>
+      <c r="E142" s="87"/>
+      <c r="F142" s="88"/>
+      <c r="G142" s="89"/>
+      <c r="H142" s="90"/>
+      <c r="I142" s="95"/>
     </row>
     <row r="143" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A143" s="64"/>
       <c r="B143" s="60"/>
       <c r="C143" s="61"/>
       <c r="D143" s="62"/>
-      <c r="E143" s="84"/>
-      <c r="F143" s="85"/>
-      <c r="G143" s="86"/>
-      <c r="H143" s="87"/>
-      <c r="I143" s="92"/>
+      <c r="E143" s="87"/>
+      <c r="F143" s="88"/>
+      <c r="G143" s="89"/>
+      <c r="H143" s="90"/>
+      <c r="I143" s="95"/>
     </row>
     <row r="144" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A144" s="64"/>
       <c r="B144" s="60"/>
       <c r="C144" s="61"/>
       <c r="D144" s="62"/>
-      <c r="E144" s="84"/>
-      <c r="F144" s="85"/>
-      <c r="G144" s="86"/>
-      <c r="H144" s="87"/>
-      <c r="I144" s="92"/>
+      <c r="E144" s="87"/>
+      <c r="F144" s="88"/>
+      <c r="G144" s="89"/>
+      <c r="H144" s="90"/>
+      <c r="I144" s="95"/>
     </row>
     <row r="145" s="31" customFormat="1" ht="13" customHeight="1" spans="1:9">
       <c r="A145" s="64"/>
       <c r="B145" s="60"/>
       <c r="C145" s="61"/>
       <c r="D145" s="62"/>
-      <c r="E145" s="84"/>
-      <c r="F145" s="85"/>
-      <c r="G145" s="86"/>
-      <c r="H145" s="87"/>
-      <c r="I145" s="92"/>
+      <c r="E145" s="87"/>
+      <c r="F145" s="88"/>
+      <c r="G145" s="89"/>
+      <c r="H145" s="90"/>
+      <c r="I145" s="95"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="65"/>
@@ -48723,7 +48734,7 @@
         <v>11</v>
       </c>
       <c r="D146" s="67"/>
-      <c r="E146" s="88"/>
+      <c r="E146" s="91"/>
       <c r="F146" s="66"/>
       <c r="G146" s="66"/>
       <c r="H146" s="67"/>
@@ -48742,13 +48753,13 @@
       <c r="D147" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="E147" s="89" t="s">
+      <c r="E147" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F147" s="66"/>
       <c r="G147" s="66"/>
       <c r="H147" s="67"/>
-      <c r="I147" s="93" t="s">
+      <c r="I147" s="96" t="s">
         <v>189</v>
       </c>
     </row>
@@ -48761,13 +48772,13 @@
         <v>11</v>
       </c>
       <c r="D148" s="71"/>
-      <c r="E148" s="89" t="s">
+      <c r="E148" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F148" s="66"/>
       <c r="G148" s="66"/>
       <c r="H148" s="67"/>
-      <c r="I148" s="94"/>
+      <c r="I148" s="97"/>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="68"/>
@@ -48778,13 +48789,13 @@
         <v>11</v>
       </c>
       <c r="D149" s="71"/>
-      <c r="E149" s="89" t="s">
+      <c r="E149" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F149" s="66"/>
       <c r="G149" s="66"/>
       <c r="H149" s="67"/>
-      <c r="I149" s="94"/>
+      <c r="I149" s="97"/>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="68"/>
@@ -48795,13 +48806,13 @@
         <v>11</v>
       </c>
       <c r="D150" s="71"/>
-      <c r="E150" s="89" t="s">
+      <c r="E150" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F150" s="66"/>
       <c r="G150" s="66"/>
       <c r="H150" s="67"/>
-      <c r="I150" s="94"/>
+      <c r="I150" s="97"/>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="68"/>
@@ -48812,13 +48823,13 @@
         <v>11</v>
       </c>
       <c r="D151" s="71"/>
-      <c r="E151" s="89" t="s">
+      <c r="E151" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F151" s="66"/>
       <c r="G151" s="66"/>
       <c r="H151" s="67"/>
-      <c r="I151" s="94"/>
+      <c r="I151" s="97"/>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="68"/>
@@ -48829,13 +48840,13 @@
         <v>11</v>
       </c>
       <c r="D152" s="72"/>
-      <c r="E152" s="89" t="s">
+      <c r="E152" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F152" s="66"/>
       <c r="G152" s="66"/>
       <c r="H152" s="67"/>
-      <c r="I152" s="95"/>
+      <c r="I152" s="98"/>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="73" t="s">
@@ -48847,41 +48858,41 @@
       <c r="C153" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D153" s="70" t="s">
+      <c r="D153" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="E153" s="89" t="s">
+      <c r="E153" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F153" s="66"/>
       <c r="G153" s="66"/>
       <c r="H153" s="67"/>
-      <c r="I153" s="96" t="s">
+      <c r="I153" s="99" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="154" ht="81" spans="1:9">
       <c r="A154" s="73"/>
-      <c r="B154" s="75" t="s">
+      <c r="B154" s="76" t="s">
         <v>199</v>
       </c>
       <c r="C154" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D154" s="72"/>
-      <c r="E154" s="89" t="s">
+      <c r="D154" s="77"/>
+      <c r="E154" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F154" s="66"/>
       <c r="G154" s="66"/>
       <c r="H154" s="67"/>
-      <c r="I154" s="94"/>
+      <c r="I154" s="97"/>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="B155" s="75" t="s">
+      <c r="B155" s="76" t="s">
         <v>201</v>
       </c>
       <c r="C155" s="41" t="s">
@@ -48890,30 +48901,30 @@
       <c r="D155" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="E155" s="89" t="s">
+      <c r="E155" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F155" s="66"/>
       <c r="G155" s="66"/>
       <c r="H155" s="67"/>
-      <c r="I155" s="94"/>
+      <c r="I155" s="97"/>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="68"/>
-      <c r="B156" s="75" t="s">
+      <c r="B156" s="76" t="s">
         <v>203</v>
       </c>
       <c r="C156" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D156" s="71"/>
-      <c r="E156" s="89" t="s">
+      <c r="E156" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F156" s="66"/>
       <c r="G156" s="66"/>
       <c r="H156" s="67"/>
-      <c r="I156" s="94"/>
+      <c r="I156" s="97"/>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="68"/>
@@ -48924,13 +48935,13 @@
         <v>11</v>
       </c>
       <c r="D157" s="71"/>
-      <c r="E157" s="89" t="s">
+      <c r="E157" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F157" s="66"/>
       <c r="G157" s="66"/>
       <c r="H157" s="67"/>
-      <c r="I157" s="94"/>
+      <c r="I157" s="97"/>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="68"/>
@@ -48941,13 +48952,13 @@
         <v>11</v>
       </c>
       <c r="D158" s="71"/>
-      <c r="E158" s="89" t="s">
+      <c r="E158" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F158" s="66"/>
       <c r="G158" s="66"/>
       <c r="H158" s="67"/>
-      <c r="I158" s="94"/>
+      <c r="I158" s="97"/>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="68"/>
@@ -48958,50 +48969,50 @@
         <v>11</v>
       </c>
       <c r="D159" s="71"/>
-      <c r="E159" s="89" t="s">
+      <c r="E159" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F159" s="66"/>
       <c r="G159" s="66"/>
       <c r="H159" s="67"/>
-      <c r="I159" s="94"/>
+      <c r="I159" s="97"/>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="68"/>
-      <c r="B160" s="75" t="s">
+      <c r="B160" s="76" t="s">
         <v>207</v>
       </c>
       <c r="C160" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D160" s="71"/>
-      <c r="E160" s="89" t="s">
+      <c r="E160" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F160" s="66"/>
       <c r="G160" s="66"/>
       <c r="H160" s="67"/>
-      <c r="I160" s="94"/>
+      <c r="I160" s="97"/>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="68"/>
-      <c r="B161" s="75" t="s">
+      <c r="B161" s="76" t="s">
         <v>208</v>
       </c>
       <c r="C161" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D161" s="71"/>
-      <c r="E161" s="89" t="s">
+      <c r="E161" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F161" s="66"/>
       <c r="G161" s="66"/>
       <c r="H161" s="67"/>
-      <c r="I161" s="94"/>
+      <c r="I161" s="97"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="76"/>
+      <c r="A162" s="78"/>
       <c r="B162" s="66" t="s">
         <v>209</v>
       </c>
@@ -49009,7 +49020,7 @@
         <v>11</v>
       </c>
       <c r="D162" s="72"/>
-      <c r="E162" s="89" t="s">
+      <c r="E162" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F162" s="66"/>
@@ -49018,7 +49029,7 @@
       <c r="I162" s="66"/>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="77" t="s">
+      <c r="A163" s="79" t="s">
         <v>210</v>
       </c>
       <c r="B163" s="66" t="s">
@@ -49026,11 +49037,11 @@
       </c>
       <c r="C163" s="41"/>
       <c r="D163" s="67"/>
-      <c r="E163" s="89"/>
+      <c r="E163" s="92"/>
       <c r="F163" s="66"/>
       <c r="G163" s="66"/>
       <c r="H163" s="67"/>
-      <c r="I163" s="97" t="s">
+      <c r="I163" s="100" t="s">
         <v>212</v>
       </c>
     </row>
@@ -49041,67 +49052,67 @@
       </c>
       <c r="C164" s="41"/>
       <c r="D164" s="67"/>
-      <c r="E164" s="89"/>
+      <c r="E164" s="92"/>
       <c r="F164" s="66"/>
       <c r="G164" s="66"/>
       <c r="H164" s="67"/>
-      <c r="I164" s="96"/>
+      <c r="I164" s="99"/>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="68"/>
       <c r="C165" s="41"/>
       <c r="D165" s="67"/>
-      <c r="E165" s="89"/>
+      <c r="E165" s="92"/>
       <c r="F165" s="66"/>
       <c r="G165" s="66"/>
       <c r="H165" s="67"/>
-      <c r="I165" s="96"/>
+      <c r="I165" s="99"/>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="68"/>
       <c r="C166" s="41"/>
       <c r="D166" s="67"/>
-      <c r="E166" s="89"/>
+      <c r="E166" s="92"/>
       <c r="F166" s="66"/>
       <c r="G166" s="66"/>
       <c r="H166" s="67"/>
-      <c r="I166" s="96"/>
+      <c r="I166" s="99"/>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="68"/>
       <c r="C167" s="41"/>
       <c r="D167" s="67"/>
-      <c r="E167" s="89"/>
+      <c r="E167" s="92"/>
       <c r="F167" s="66"/>
       <c r="G167" s="66"/>
       <c r="H167" s="67"/>
-      <c r="I167" s="96"/>
+      <c r="I167" s="99"/>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="68"/>
       <c r="B168" s="66"/>
       <c r="C168" s="41"/>
       <c r="D168" s="67"/>
-      <c r="E168" s="89"/>
+      <c r="E168" s="92"/>
       <c r="F168" s="66"/>
       <c r="G168" s="66"/>
       <c r="H168" s="67"/>
-      <c r="I168" s="96"/>
+      <c r="I168" s="99"/>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="76"/>
+      <c r="A169" s="78"/>
       <c r="B169" s="66"/>
       <c r="C169" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D169" s="67"/>
-      <c r="E169" s="89" t="s">
+      <c r="E169" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F169" s="66"/>
       <c r="G169" s="66"/>
       <c r="H169" s="67"/>
-      <c r="I169" s="98"/>
+      <c r="I169" s="101"/>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="68" t="s">
@@ -49113,16 +49124,16 @@
       <c r="C170" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D170" s="70" t="s">
+      <c r="D170" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="E170" s="89" t="s">
+      <c r="E170" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F170" s="66"/>
       <c r="G170" s="66"/>
       <c r="H170" s="67"/>
-      <c r="I170" s="96" t="s">
+      <c r="I170" s="99" t="s">
         <v>217</v>
       </c>
     </row>
@@ -49134,352 +49145,352 @@
       <c r="C171" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D171" s="71"/>
-      <c r="E171" s="89" t="s">
+      <c r="D171" s="80"/>
+      <c r="E171" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F171" s="66"/>
       <c r="G171" s="66"/>
       <c r="H171" s="67"/>
-      <c r="I171" s="96"/>
+      <c r="I171" s="99"/>
     </row>
     <row r="172" ht="157.5" spans="1:9">
       <c r="A172" s="68"/>
-      <c r="B172" s="78" t="s">
+      <c r="B172" s="81" t="s">
         <v>219</v>
       </c>
       <c r="C172" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D172" s="71"/>
-      <c r="E172" s="89" t="s">
+      <c r="D172" s="80"/>
+      <c r="E172" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F172" s="66"/>
       <c r="G172" s="66"/>
       <c r="H172" s="67"/>
-      <c r="I172" s="96"/>
+      <c r="I172" s="99"/>
     </row>
     <row r="173" ht="225" spans="1:9">
       <c r="A173" s="68"/>
-      <c r="B173" s="78" t="s">
+      <c r="B173" s="81" t="s">
         <v>220</v>
       </c>
       <c r="C173" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D173" s="71"/>
-      <c r="E173" s="89" t="s">
+      <c r="D173" s="80"/>
+      <c r="E173" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F173" s="66"/>
       <c r="G173" s="66"/>
       <c r="H173" s="67"/>
-      <c r="I173" s="98"/>
+      <c r="I173" s="101"/>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="68"/>
-      <c r="B174" s="79" t="s">
+      <c r="B174" s="82" t="s">
         <v>221</v>
       </c>
       <c r="C174" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D174" s="72"/>
-      <c r="E174" s="89" t="s">
+      <c r="D174" s="77"/>
+      <c r="E174" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F174" s="66"/>
       <c r="G174" s="66"/>
       <c r="H174" s="67"/>
-      <c r="I174" s="96"/>
+      <c r="I174" s="99"/>
     </row>
     <row r="175" spans="1:9">
-      <c r="A175" s="77" t="s">
+      <c r="A175" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="B175" s="80" t="s">
+      <c r="B175" s="83" t="s">
         <v>223</v>
       </c>
       <c r="C175" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D175" s="70" t="s">
+      <c r="D175" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="E175" s="89" t="s">
+      <c r="E175" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F175" s="66"/>
       <c r="G175" s="66"/>
-      <c r="H175" s="90"/>
-      <c r="I175" s="89" t="s">
+      <c r="H175" s="93"/>
+      <c r="I175" s="92" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="68"/>
-      <c r="B176" s="80" t="s">
+      <c r="B176" s="83" t="s">
         <v>226</v>
       </c>
       <c r="C176" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D176" s="71"/>
-      <c r="E176" s="89" t="s">
+      <c r="D176" s="80"/>
+      <c r="E176" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F176" s="66"/>
       <c r="G176" s="66"/>
-      <c r="H176" s="90"/>
-      <c r="I176" s="89"/>
+      <c r="H176" s="93"/>
+      <c r="I176" s="92"/>
     </row>
     <row r="177" ht="22.5" spans="1:9">
       <c r="A177" s="68"/>
-      <c r="B177" s="79" t="s">
+      <c r="B177" s="82" t="s">
         <v>227</v>
       </c>
       <c r="C177" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D177" s="71"/>
-      <c r="E177" s="89" t="s">
+      <c r="D177" s="80"/>
+      <c r="E177" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F177" s="66"/>
       <c r="G177" s="66"/>
-      <c r="H177" s="90"/>
-      <c r="I177" s="89"/>
+      <c r="H177" s="93"/>
+      <c r="I177" s="92"/>
     </row>
     <row r="178" spans="1:9">
-      <c r="A178" s="76"/>
-      <c r="B178" s="80" t="s">
+      <c r="A178" s="78"/>
+      <c r="B178" s="83" t="s">
         <v>228</v>
       </c>
       <c r="C178" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="72"/>
-      <c r="E178" s="89" t="s">
+      <c r="D178" s="77"/>
+      <c r="E178" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F178" s="66"/>
       <c r="G178" s="66"/>
-      <c r="H178" s="90"/>
-      <c r="I178" s="89"/>
+      <c r="H178" s="93"/>
+      <c r="I178" s="92"/>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="B179" s="80" t="s">
+      <c r="B179" s="83" t="s">
         <v>230</v>
       </c>
       <c r="C179" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D179" s="81" t="s">
+      <c r="D179" s="84" t="s">
         <v>231</v>
       </c>
-      <c r="E179" s="89" t="s">
+      <c r="E179" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F179" s="66"/>
       <c r="G179" s="66"/>
       <c r="H179" s="67"/>
-      <c r="I179" s="94" t="s">
+      <c r="I179" s="97" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="68"/>
-      <c r="B180" s="79" t="s">
+      <c r="B180" s="82" t="s">
         <v>233</v>
       </c>
       <c r="C180" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D180" s="82"/>
-      <c r="E180" s="89" t="s">
+      <c r="D180" s="85"/>
+      <c r="E180" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F180" s="66"/>
       <c r="G180" s="66"/>
       <c r="H180" s="67"/>
-      <c r="I180" s="94"/>
+      <c r="I180" s="97"/>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="68"/>
-      <c r="B181" s="79" t="s">
+      <c r="B181" s="82" t="s">
         <v>234</v>
       </c>
       <c r="C181" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D181" s="82"/>
-      <c r="E181" s="89" t="s">
+      <c r="D181" s="85"/>
+      <c r="E181" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F181" s="66"/>
       <c r="G181" s="66"/>
       <c r="H181" s="67"/>
-      <c r="I181" s="94"/>
+      <c r="I181" s="97"/>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="68"/>
-      <c r="B182" s="80" t="s">
+      <c r="B182" s="83" t="s">
         <v>235</v>
       </c>
       <c r="C182" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D182" s="82"/>
-      <c r="E182" s="89" t="s">
+      <c r="D182" s="85"/>
+      <c r="E182" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F182" s="66"/>
       <c r="G182" s="66"/>
       <c r="H182" s="67"/>
-      <c r="I182" s="94"/>
+      <c r="I182" s="97"/>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="68"/>
-      <c r="B183" s="80" t="s">
+      <c r="B183" s="83" t="s">
         <v>236</v>
       </c>
       <c r="C183" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D183" s="82"/>
-      <c r="E183" s="89" t="s">
+      <c r="D183" s="85"/>
+      <c r="E183" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F183" s="66"/>
       <c r="G183" s="66"/>
       <c r="H183" s="67"/>
-      <c r="I183" s="94"/>
+      <c r="I183" s="97"/>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="68"/>
-      <c r="B184" s="80" t="s">
+      <c r="B184" s="83" t="s">
         <v>237</v>
       </c>
       <c r="C184" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D184" s="82"/>
-      <c r="E184" s="89" t="s">
+      <c r="D184" s="85"/>
+      <c r="E184" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F184" s="66"/>
       <c r="G184" s="66"/>
       <c r="H184" s="67"/>
-      <c r="I184" s="94"/>
+      <c r="I184" s="97"/>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="68"/>
-      <c r="B185" s="80" t="s">
+      <c r="B185" s="83" t="s">
         <v>238</v>
       </c>
       <c r="C185" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D185" s="82"/>
-      <c r="E185" s="89" t="s">
+      <c r="D185" s="85"/>
+      <c r="E185" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F185" s="66"/>
       <c r="G185" s="66"/>
       <c r="H185" s="67"/>
-      <c r="I185" s="94"/>
+      <c r="I185" s="97"/>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="68"/>
-      <c r="B186" s="79" t="s">
+      <c r="B186" s="82" t="s">
         <v>239</v>
       </c>
       <c r="C186" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D186" s="82"/>
-      <c r="E186" s="89" t="s">
+      <c r="D186" s="85"/>
+      <c r="E186" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F186" s="66"/>
       <c r="G186" s="66"/>
       <c r="H186" s="67"/>
-      <c r="I186" s="94"/>
+      <c r="I186" s="97"/>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="68"/>
-      <c r="B187" s="80" t="s">
+      <c r="B187" s="83" t="s">
         <v>240</v>
       </c>
       <c r="C187" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D187" s="82"/>
-      <c r="E187" s="89" t="s">
+      <c r="D187" s="85"/>
+      <c r="E187" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F187" s="66"/>
       <c r="G187" s="66"/>
       <c r="H187" s="67"/>
-      <c r="I187" s="94"/>
+      <c r="I187" s="97"/>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="68"/>
-      <c r="B188" s="80" t="s">
+      <c r="B188" s="83" t="s">
         <v>241</v>
       </c>
       <c r="C188" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D188" s="82"/>
-      <c r="E188" s="89" t="s">
+      <c r="D188" s="85"/>
+      <c r="E188" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F188" s="66"/>
       <c r="G188" s="66"/>
       <c r="H188" s="67"/>
-      <c r="I188" s="94"/>
+      <c r="I188" s="97"/>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="68"/>
-      <c r="B189" s="80" t="s">
+      <c r="B189" s="83" t="s">
         <v>242</v>
       </c>
       <c r="C189" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D189" s="82"/>
-      <c r="E189" s="89" t="s">
+      <c r="D189" s="85"/>
+      <c r="E189" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F189" s="66"/>
       <c r="G189" s="66"/>
       <c r="H189" s="67"/>
-      <c r="I189" s="94"/>
+      <c r="I189" s="97"/>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="68"/>
-      <c r="B190" s="80" t="s">
+      <c r="B190" s="83" t="s">
         <v>243</v>
       </c>
       <c r="C190" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D190" s="83"/>
-      <c r="E190" s="89" t="s">
+      <c r="D190" s="86"/>
+      <c r="E190" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F190" s="66"/>
       <c r="G190" s="66"/>
       <c r="H190" s="67"/>
-      <c r="I190" s="95"/>
+      <c r="I190" s="98"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="77" t="s">
+      <c r="A191" s="79" t="s">
         <v>244</v>
       </c>
       <c r="B191" s="66" t="s">
@@ -49488,16 +49499,16 @@
       <c r="C191" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D191" s="81" t="s">
+      <c r="D191" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="E191" s="89" t="s">
+      <c r="E191" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F191" s="66"/>
       <c r="G191" s="66"/>
       <c r="H191" s="67"/>
-      <c r="I191" s="93" t="s">
+      <c r="I191" s="96" t="s">
         <v>247</v>
       </c>
     </row>
@@ -49509,31 +49520,31 @@
       <c r="C192" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D192" s="82"/>
-      <c r="E192" s="89" t="s">
+      <c r="D192" s="85"/>
+      <c r="E192" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F192" s="66"/>
       <c r="G192" s="66"/>
       <c r="H192" s="67"/>
-      <c r="I192" s="94"/>
+      <c r="I192" s="97"/>
     </row>
     <row r="193" ht="112.5" spans="1:9">
       <c r="A193" s="68"/>
-      <c r="B193" s="78" t="s">
+      <c r="B193" s="81" t="s">
         <v>249</v>
       </c>
       <c r="C193" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D193" s="82"/>
-      <c r="E193" s="89" t="s">
+      <c r="D193" s="85"/>
+      <c r="E193" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F193" s="66"/>
       <c r="G193" s="66"/>
       <c r="H193" s="67"/>
-      <c r="I193" s="94"/>
+      <c r="I193" s="97"/>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="68"/>
@@ -49543,31 +49554,31 @@
       <c r="C194" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D194" s="82"/>
-      <c r="E194" s="89" t="s">
+      <c r="D194" s="85"/>
+      <c r="E194" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F194" s="66"/>
       <c r="G194" s="66"/>
       <c r="H194" s="67"/>
-      <c r="I194" s="94"/>
+      <c r="I194" s="97"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="99"/>
+      <c r="A195" s="102"/>
       <c r="B195" s="66" t="s">
         <v>251</v>
       </c>
       <c r="C195" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D195" s="83"/>
-      <c r="E195" s="89" t="s">
+      <c r="D195" s="86"/>
+      <c r="E195" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F195" s="66"/>
       <c r="G195" s="66"/>
       <c r="H195" s="67"/>
-      <c r="I195" s="95"/>
+      <c r="I195" s="98"/>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="73" t="s">
@@ -49578,7 +49589,7 @@
         <v>11</v>
       </c>
       <c r="D196" s="67"/>
-      <c r="E196" s="89" t="s">
+      <c r="E196" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F196" s="66"/>
@@ -49646,10 +49657,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2 H3 H140 H4:H9 H23:H85 H101:H119 H120:H139 H141:H145"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G140 G4:G119 G120:G139 G141:G145">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2 H3 H140 H4:H9 H23:H85 H101:H119 H120:H139 H141:H145"/>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F2 F3 F140 F4:F119 F120:F139 F141:F145">
       <formula1>"是,否"</formula1>
     </dataValidation>
@@ -49700,8 +49711,8 @@
   <sheetPr/>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D98" sqref="D98:D101"/>
     </sheetView>
@@ -50110,7 +50121,7 @@
       </c>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" ht="13.5" spans="1:9">
+    <row r="17" spans="1:9">
       <c r="A17" s="6"/>
       <c r="B17" s="10" t="s">
         <v>162</v>
@@ -50143,7 +50154,7 @@
       <c r="C18" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>263</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -50160,7 +50171,7 @@
       </c>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" ht="13.5" spans="1:9">
+    <row r="19" spans="1:9">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>160</v>
@@ -50168,7 +50179,7 @@
       <c r="C19" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="15" t="s">
         <v>13</v>
       </c>
@@ -50191,7 +50202,7 @@
       <c r="C20" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="15" t="s">
         <v>13</v>
       </c>
@@ -50214,7 +50225,7 @@
       <c r="C21" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
         <v>13</v>
       </c>
@@ -50302,7 +50313,7 @@
       </c>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" ht="13.5" spans="1:9">
       <c r="A25" s="6"/>
       <c r="B25" s="10" t="s">
         <v>162</v>
@@ -50335,7 +50346,7 @@
       <c r="C26" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="9" t="s">
         <v>267</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -50352,7 +50363,7 @@
       </c>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" ht="13.5" spans="1:9">
       <c r="A27" s="6"/>
       <c r="B27" s="7" t="s">
         <v>160</v>
@@ -50360,7 +50371,7 @@
       <c r="C27" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D27" s="14"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="15" t="s">
         <v>13</v>
       </c>
@@ -50383,7 +50394,7 @@
       <c r="C28" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="15" t="s">
         <v>13</v>
       </c>
@@ -50406,7 +50417,7 @@
       <c r="C29" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="15" t="s">
         <v>13</v>
       </c>

--- a/list/tool.xlsx
+++ b/list/tool.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12375" tabRatio="992"/>
+    <workbookView windowWidth="28695" windowHeight="12375" tabRatio="992" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tool" sheetId="1" r:id="rId1"/>
@@ -3628,7 +3628,7 @@
     <t>1. install lldptool: yum install -y lldpad</t>
   </si>
   <si>
-    <t>lldptool.md</t>
+    <t>lldptool.sh</t>
   </si>
   <si>
     <r>
@@ -6087,12 +6087,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMJ218"/>
+  <dimension ref="A1:AMJ208"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F101" sqref="F101:F113"/>
+      <selection pane="bottomLeft" activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -49885,11 +49885,6 @@
       <c r="H208" s="69"/>
       <c r="I208" s="68"/>
     </row>
-    <row r="218" spans="2:2">
-      <c r="B218" s="33">
-        <v>180</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:I208"/>
   <mergeCells count="49">
@@ -49992,7 +49987,7 @@
     <hyperlink ref="D182:D186" r:id="rId28" display="valgrind.md"/>
     <hyperlink ref="D187:D190" r:id="rId29" display="overlayfs.md"/>
     <hyperlink ref="D191:D202" r:id="rId30" display="oprofile.md"/>
-    <hyperlink ref="D203:D207" r:id="rId31" display="lldptool.md"/>
+    <hyperlink ref="D203:D207" r:id="rId31" display="lldptool.sh"/>
     <hyperlink ref="D159:D164" r:id="rId32" display="pidstat.sh"/>
     <hyperlink ref="D101:D113" r:id="rId33" display="bcc.md"/>
   </hyperlinks>
@@ -50005,9 +50000,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
@@ -52447,11 +52442,6 @@
         <v>13</v>
       </c>
       <c r="I101" s="27"/>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I101"/>

--- a/list/tool.xlsx
+++ b/list/tool.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12375" tabRatio="992" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12375" tabRatio="992"/>
   </bookViews>
   <sheets>
     <sheet name="tool" sheetId="1" r:id="rId1"/>
     <sheet name="tool1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tool!$A$1:$I$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tool!$A$1:$I$220</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tool1!$A$1:$I$101</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353">
   <si>
     <t>测试项目</t>
   </si>
@@ -52,7 +52,7 @@
     <t>strace</t>
   </si>
   <si>
-    <t>能否正常安装</t>
+    <t>1. 能否正常安装</t>
   </si>
   <si>
     <t>A</t>
@@ -67,25 +67,25 @@
     <t>否</t>
   </si>
   <si>
-    <t>追踪某个命令</t>
+    <t>2. 追踪某个命令</t>
   </si>
   <si>
-    <t>追踪某个进程</t>
+    <t>3. 追踪某个进程</t>
   </si>
   <si>
-    <t>输出系统调用的统计结果</t>
+    <t>4. 输出系统调用的统计结果</t>
   </si>
   <si>
-    <t>输出系统调用花费时间</t>
+    <t>5. 输出系统调用花费时间</t>
   </si>
   <si>
-    <t>打印系统调用的发生时间</t>
+    <t>6. 打印系统调用的发生时间</t>
   </si>
   <si>
-    <t>指定某个系统调用</t>
+    <t>7. 指定某个系统调用</t>
   </si>
   <si>
-    <t>跟踪信号传递</t>
+    <t>8. 跟踪信号传递</t>
   </si>
   <si>
     <t>ltrace
@@ -329,13 +329,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查看系统没有自动挂载</t>
+      <t>1. 查看系统没有自动挂载</t>
     </r>
     <r>
       <rPr>
@@ -364,13 +358,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查看当前是否可以使用</t>
+      <t>2. 查看当前是否可以使用</t>
     </r>
     <r>
       <rPr>
@@ -393,13 +381,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能否设置函数过滤器，仅记录</t>
+      <t>3. 能否设置函数过滤器，仅记录</t>
     </r>
     <r>
       <rPr>
@@ -413,13 +395,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能否将函数追踪器</t>
+      <t>4. 能否将函数追踪器</t>
     </r>
     <r>
       <rPr>
@@ -459,20 +435,14 @@
     </r>
   </si>
   <si>
-    <t>读取追踪结果是否成功</t>
+    <t>5. 读取追踪结果是否成功</t>
   </si>
   <si>
-    <t>能否使用多个函数名称或通配符向过滤器指定模式</t>
+    <t>6. 能否使用多个函数名称或通配符向过滤器指定模式</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能否在参数前面加上</t>
+      <t>7. 能否在参数前面加上</t>
     </r>
     <r>
       <rPr>
@@ -495,13 +465,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能否清空</t>
+      <t>8. 能否清空</t>
     </r>
     <r>
       <rPr>
@@ -515,13 +479,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能否使用</t>
+      <t>9. 能否使用</t>
     </r>
     <r>
       <rPr>
@@ -544,13 +502,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查看</t>
+      <t>10. 查看</t>
     </r>
     <r>
       <rPr>
@@ -572,10 +524,10 @@
     </r>
   </si>
   <si>
-    <t>启用事件追踪器</t>
+    <t>11. 启用事件追踪器</t>
   </si>
   <si>
-    <t>禁用事件追踪器</t>
+    <t>12. 禁用事件追踪器</t>
   </si>
   <si>
     <t>blktrace
@@ -696,20 +648,14 @@
     <t>gdb</t>
   </si>
   <si>
-    <t>编译test.c</t>
+    <t>1. 编译test.c</t>
   </si>
   <si>
     <t>gdb.md</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>启动</t>
+      <t>2. 启动</t>
     </r>
     <r>
       <rPr>
@@ -722,44 +668,38 @@
     </r>
   </si>
   <si>
-    <t>列出源码</t>
+    <t>3. 列出源码</t>
   </si>
   <si>
-    <t>任意行设置断点</t>
+    <t>4. 任意行设置断点</t>
   </si>
   <si>
-    <t>在函数处设置断点</t>
+    <t>5. 在函数处设置断点</t>
   </si>
   <si>
-    <t>查看断点信息</t>
+    <t>6. 查看断点信息</t>
   </si>
   <si>
-    <t>运行程序</t>
+    <t>7. 运行程序</t>
   </si>
   <si>
-    <t>单句执行程序</t>
+    <t>8. 单句执行程序</t>
   </si>
   <si>
-    <t>继续运行程序</t>
+    <t>9. 继续运行程序</t>
   </si>
   <si>
-    <t>打印变量值</t>
+    <t>10. 打印变量值</t>
   </si>
   <si>
-    <t>查看函数堆栈</t>
+    <t>11. 查看函数堆栈</t>
   </si>
   <si>
-    <t>退出函数</t>
+    <t>12. 退出函数</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>退出</t>
+      <t>13. 退出</t>
     </r>
     <r>
       <rPr>
@@ -3698,6 +3638,60 @@
     <t>5. remove lldptool: yum remove -y lldpad</t>
   </si>
   <si>
+    <t>libbcc</t>
+  </si>
+  <si>
+    <t>1. install package: yum install -y libbcc</t>
+  </si>
+  <si>
+    <t>libbcc.sh</t>
+  </si>
+  <si>
+    <t>2. check version: yum info libbcc |grep Version</t>
+  </si>
+  <si>
+    <t>3. check repo: yum info libbcc |grep "From repo"</t>
+  </si>
+  <si>
+    <t>4. remove package: yum remove -y libbcc</t>
+  </si>
+  <si>
+    <t>liblsan</t>
+  </si>
+  <si>
+    <t>1. install package: yum install -y liblsan</t>
+  </si>
+  <si>
+    <t>liblsan.sh</t>
+  </si>
+  <si>
+    <t>2. check version: yum info liblsan |grep Version</t>
+  </si>
+  <si>
+    <t>3. check repo: yum info liblsan |grep "From repo"</t>
+  </si>
+  <si>
+    <t>4. remove package: yum remove -y liblsan</t>
+  </si>
+  <si>
+    <t>libtsan</t>
+  </si>
+  <si>
+    <t>1. install package: yum install -y libtsan</t>
+  </si>
+  <si>
+    <t>libtsan.sh</t>
+  </si>
+  <si>
+    <t>2. check version: yum info libtsan |grep Version</t>
+  </si>
+  <si>
+    <t>3. check repo: yum info libtsan |grep "From repo"</t>
+  </si>
+  <si>
+    <t>4. remove package: yum remove -y libtsan</t>
+  </si>
+  <si>
     <t>wlan-smoke</t>
   </si>
   <si>
@@ -5354,7 +5348,7 @@
     </xf>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5664,6 +5658,18 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -6087,12 +6093,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMJ208"/>
+  <dimension ref="A1:AMJ220"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B218" sqref="B218"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -49869,25 +49875,241 @@
       <c r="I207" s="97"/>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="75" t="s">
+      <c r="A208" s="102" t="s">
         <v>266</v>
       </c>
-      <c r="B208" s="68"/>
+      <c r="B208" s="68" t="s">
+        <v>267</v>
+      </c>
       <c r="C208" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D208" s="69"/>
+      <c r="D208" s="103" t="s">
+        <v>268</v>
+      </c>
       <c r="E208" s="91" t="s">
         <v>13</v>
       </c>
       <c r="F208" s="68"/>
       <c r="G208" s="68"/>
       <c r="H208" s="69"/>
-      <c r="I208" s="68"/>
+      <c r="I208" s="105"/>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="102"/>
+      <c r="B209" s="68" t="s">
+        <v>269</v>
+      </c>
+      <c r="C209" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D209" s="103"/>
+      <c r="E209" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F209" s="68"/>
+      <c r="G209" s="68"/>
+      <c r="H209" s="69"/>
+      <c r="I209" s="105"/>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="102"/>
+      <c r="B210" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="C210" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D210" s="103"/>
+      <c r="E210" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F210" s="68"/>
+      <c r="G210" s="68"/>
+      <c r="H210" s="69"/>
+      <c r="I210" s="105"/>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="104"/>
+      <c r="B211" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="C211" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D211" s="103"/>
+      <c r="E211" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F211" s="68"/>
+      <c r="G211" s="68"/>
+      <c r="H211" s="69"/>
+      <c r="I211" s="105"/>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="102" t="s">
+        <v>272</v>
+      </c>
+      <c r="B212" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="C212" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D212" s="103" t="s">
+        <v>274</v>
+      </c>
+      <c r="E212" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F212" s="68"/>
+      <c r="G212" s="68"/>
+      <c r="H212" s="69"/>
+      <c r="I212" s="105"/>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="102"/>
+      <c r="B213" s="68" t="s">
+        <v>275</v>
+      </c>
+      <c r="C213" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D213" s="103"/>
+      <c r="E213" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F213" s="68"/>
+      <c r="G213" s="68"/>
+      <c r="H213" s="69"/>
+      <c r="I213" s="105"/>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="102"/>
+      <c r="B214" s="68" t="s">
+        <v>276</v>
+      </c>
+      <c r="C214" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D214" s="103"/>
+      <c r="E214" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F214" s="68"/>
+      <c r="G214" s="68"/>
+      <c r="H214" s="69"/>
+      <c r="I214" s="105"/>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="104"/>
+      <c r="B215" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="C215" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D215" s="103"/>
+      <c r="E215" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F215" s="68"/>
+      <c r="G215" s="68"/>
+      <c r="H215" s="69"/>
+      <c r="I215" s="105"/>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="102" t="s">
+        <v>278</v>
+      </c>
+      <c r="B216" s="68" t="s">
+        <v>279</v>
+      </c>
+      <c r="C216" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D216" s="103" t="s">
+        <v>280</v>
+      </c>
+      <c r="E216" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F216" s="68"/>
+      <c r="G216" s="68"/>
+      <c r="H216" s="69"/>
+      <c r="I216" s="105"/>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" s="102"/>
+      <c r="B217" s="68" t="s">
+        <v>281</v>
+      </c>
+      <c r="C217" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D217" s="103"/>
+      <c r="E217" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F217" s="68"/>
+      <c r="G217" s="68"/>
+      <c r="H217" s="69"/>
+      <c r="I217" s="105"/>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" s="102"/>
+      <c r="B218" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="C218" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D218" s="103"/>
+      <c r="E218" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F218" s="68"/>
+      <c r="G218" s="68"/>
+      <c r="H218" s="69"/>
+      <c r="I218" s="105"/>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" s="104"/>
+      <c r="B219" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="C219" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D219" s="103"/>
+      <c r="E219" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F219" s="68"/>
+      <c r="G219" s="68"/>
+      <c r="H219" s="69"/>
+      <c r="I219" s="105"/>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="B220" s="68"/>
+      <c r="C220" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D220" s="69"/>
+      <c r="E220" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F220" s="68"/>
+      <c r="G220" s="68"/>
+      <c r="H220" s="69"/>
+      <c r="I220" s="68"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I208"/>
-  <mergeCells count="49">
+  <autoFilter ref="A1:I220"/>
+  <mergeCells count="55">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A22"/>
     <mergeCell ref="A23:A34"/>
@@ -49910,6 +50132,9 @@
     <mergeCell ref="A187:A190"/>
     <mergeCell ref="A191:A202"/>
     <mergeCell ref="A203:A207"/>
+    <mergeCell ref="A208:A211"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="A216:A219"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="D10:D22"/>
     <mergeCell ref="D23:D34"/>
@@ -49930,6 +50155,9 @@
     <mergeCell ref="D187:D190"/>
     <mergeCell ref="D191:D202"/>
     <mergeCell ref="D203:D207"/>
+    <mergeCell ref="D208:D211"/>
+    <mergeCell ref="D212:D215"/>
+    <mergeCell ref="D216:D219"/>
     <mergeCell ref="I159:I164"/>
     <mergeCell ref="I165:I166"/>
     <mergeCell ref="I175:I181"/>
@@ -49938,7 +50166,7 @@
     <mergeCell ref="I191:I202"/>
     <mergeCell ref="I203:I207"/>
   </mergeCells>
-  <conditionalFormatting sqref="G105:G157 G2:G102 G103:G104">
+  <conditionalFormatting sqref="G2:G157">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -49960,7 +50188,7 @@
     <hyperlink ref="D10" r:id="rId2" display="ltrace.sh"/>
     <hyperlink ref="D23" r:id="rId3" display="ftrace.md"/>
     <hyperlink ref="D35" r:id="rId4" display="blktrace.sh"/>
-    <hyperlink ref="B41" r:id="rId5" display="编译test.c"/>
+    <hyperlink ref="B41" r:id="rId5" display="1. 编译test.c"/>
     <hyperlink ref="D41" r:id="rId6" display="gdb.md"/>
     <hyperlink ref="D54" r:id="rId7" display="pointer-tagging.sh"/>
     <hyperlink ref="D84" r:id="rId8" display="toolchain-smoke.sh"/>
@@ -49990,6 +50218,9 @@
     <hyperlink ref="D203:D207" r:id="rId31" display="lldptool.sh"/>
     <hyperlink ref="D159:D164" r:id="rId32" display="pidstat.sh"/>
     <hyperlink ref="D101:D113" r:id="rId33" display="bcc.md"/>
+    <hyperlink ref="D208:D211" r:id="rId34" display="libbcc.sh"/>
+    <hyperlink ref="D212:D215" r:id="rId35" display="liblsan.sh"/>
+    <hyperlink ref="D216:D219" r:id="rId36" display="libtsan.sh"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -50002,8 +50233,8 @@
   <sheetPr/>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
@@ -50053,16 +50284,16 @@
     </row>
     <row r="2" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>13</v>
@@ -50084,7 +50315,7 @@
         <v>174</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="13" t="s">
@@ -50107,7 +50338,7 @@
         <v>175</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="13" t="s">
@@ -50130,7 +50361,7 @@
         <v>176</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="13" t="s">
@@ -50149,16 +50380,16 @@
     </row>
     <row r="6" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>13</v>
@@ -50180,7 +50411,7 @@
         <v>174</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
@@ -50203,7 +50434,7 @@
         <v>175</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
@@ -50226,7 +50457,7 @@
         <v>176</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
@@ -50245,16 +50476,16 @@
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>13</v>
@@ -50276,7 +50507,7 @@
         <v>174</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13" t="s">
@@ -50299,7 +50530,7 @@
         <v>175</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
@@ -50322,7 +50553,7 @@
         <v>176</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
@@ -50341,16 +50572,16 @@
     </row>
     <row r="14" ht="13.5" customHeight="1" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>13</v>
@@ -50372,7 +50603,7 @@
         <v>174</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="13" t="s">
@@ -50395,7 +50626,7 @@
         <v>175</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="13" t="s">
@@ -50418,7 +50649,7 @@
         <v>176</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13" t="s">
@@ -50437,16 +50668,16 @@
     </row>
     <row r="18" ht="13.5" customHeight="1" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>13</v>
@@ -50468,7 +50699,7 @@
         <v>174</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="13" t="s">
@@ -50491,7 +50722,7 @@
         <v>175</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="13" t="s">
@@ -50514,7 +50745,7 @@
         <v>176</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="13" t="s">
@@ -50533,16 +50764,16 @@
     </row>
     <row r="22" ht="13.5" customHeight="1" spans="1:9">
       <c r="A22" s="6" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>13</v>
@@ -50564,7 +50795,7 @@
         <v>174</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="13" t="s">
@@ -50587,7 +50818,7 @@
         <v>175</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="13" t="s">
@@ -50610,7 +50841,7 @@
         <v>176</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="13" t="s">
@@ -50629,16 +50860,16 @@
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="1:9">
       <c r="A26" s="6" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>13</v>
@@ -50660,7 +50891,7 @@
         <v>174</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="13" t="s">
@@ -50683,7 +50914,7 @@
         <v>175</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="13" t="s">
@@ -50706,7 +50937,7 @@
         <v>176</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="13" t="s">
@@ -50725,16 +50956,16 @@
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:9">
       <c r="A30" s="6" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>13</v>
@@ -50756,7 +50987,7 @@
         <v>174</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="13" t="s">
@@ -50779,7 +51010,7 @@
         <v>175</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="13" t="s">
@@ -50802,7 +51033,7 @@
         <v>176</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="13" t="s">
@@ -50821,16 +51052,16 @@
     </row>
     <row r="34" ht="13.5" customHeight="1" spans="1:9">
       <c r="A34" s="6" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>13</v>
@@ -50852,7 +51083,7 @@
         <v>174</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="13" t="s">
@@ -50875,7 +51106,7 @@
         <v>175</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="13" t="s">
@@ -50898,7 +51129,7 @@
         <v>176</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="13" t="s">
@@ -50917,16 +51148,16 @@
     </row>
     <row r="38" ht="13.5" customHeight="1" spans="1:9">
       <c r="A38" s="6" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>13</v>
@@ -50948,7 +51179,7 @@
         <v>174</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="13" t="s">
@@ -50971,7 +51202,7 @@
         <v>175</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="13" t="s">
@@ -50994,7 +51225,7 @@
         <v>176</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="13" t="s">
@@ -51013,16 +51244,16 @@
     </row>
     <row r="42" ht="13.5" customHeight="1" spans="1:9">
       <c r="A42" s="6" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>13</v>
@@ -51044,7 +51275,7 @@
         <v>174</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="13" t="s">
@@ -51067,7 +51298,7 @@
         <v>175</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="13" t="s">
@@ -51090,7 +51321,7 @@
         <v>176</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="13" t="s">
@@ -51109,16 +51340,16 @@
     </row>
     <row r="46" ht="13.5" customHeight="1" spans="1:9">
       <c r="A46" s="6" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>13</v>
@@ -51140,7 +51371,7 @@
         <v>174</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="13" t="s">
@@ -51163,7 +51394,7 @@
         <v>175</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="13" t="s">
@@ -51186,7 +51417,7 @@
         <v>176</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="13" t="s">
@@ -51205,16 +51436,16 @@
     </row>
     <row r="50" ht="13.5" customHeight="1" spans="1:9">
       <c r="A50" s="6" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>13</v>
@@ -51236,7 +51467,7 @@
         <v>174</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="13" t="s">
@@ -51259,7 +51490,7 @@
         <v>175</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="13" t="s">
@@ -51282,7 +51513,7 @@
         <v>176</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="13" t="s">
@@ -51301,16 +51532,16 @@
     </row>
     <row r="54" ht="13.5" customHeight="1" spans="1:9">
       <c r="A54" s="6" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>13</v>
@@ -51332,7 +51563,7 @@
         <v>174</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="13" t="s">
@@ -51355,7 +51586,7 @@
         <v>175</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="13" t="s">
@@ -51378,7 +51609,7 @@
         <v>176</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="13" t="s">
@@ -51397,16 +51628,16 @@
     </row>
     <row r="58" ht="13.5" customHeight="1" spans="1:9">
       <c r="A58" s="6" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>13</v>
@@ -51428,7 +51659,7 @@
         <v>174</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="13" t="s">
@@ -51451,7 +51682,7 @@
         <v>175</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="13" t="s">
@@ -51474,7 +51705,7 @@
         <v>176</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="13" t="s">
@@ -51493,16 +51724,16 @@
     </row>
     <row r="62" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A62" s="6" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>13</v>
@@ -51524,7 +51755,7 @@
         <v>174</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="13" t="s">
@@ -51547,7 +51778,7 @@
         <v>175</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="13" t="s">
@@ -51567,10 +51798,10 @@
     <row r="65" spans="1:9">
       <c r="A65" s="6"/>
       <c r="B65" s="10" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="13" t="s">
@@ -51590,10 +51821,10 @@
     <row r="66" spans="1:9">
       <c r="A66" s="6"/>
       <c r="B66" s="10" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="13" t="s">
@@ -51613,10 +51844,10 @@
     <row r="67" spans="1:9">
       <c r="A67" s="6"/>
       <c r="B67" s="10" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="13" t="s">
@@ -51636,10 +51867,10 @@
     <row r="68" spans="1:9">
       <c r="A68" s="6"/>
       <c r="B68" s="10" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="13" t="s">
@@ -51659,10 +51890,10 @@
     <row r="69" spans="1:9">
       <c r="A69" s="6"/>
       <c r="B69" s="10" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="13" t="s">
@@ -51682,10 +51913,10 @@
     <row r="70" spans="1:9">
       <c r="A70" s="6"/>
       <c r="B70" s="10" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="13" t="s">
@@ -51705,10 +51936,10 @@
     <row r="71" spans="1:9">
       <c r="A71" s="6"/>
       <c r="B71" s="10" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="13" t="s">
@@ -51728,10 +51959,10 @@
     <row r="72" spans="1:9">
       <c r="A72" s="6"/>
       <c r="B72" s="10" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="13" t="s">
@@ -51750,16 +51981,16 @@
     </row>
     <row r="73" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A73" s="6" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>13</v>
@@ -51781,7 +52012,7 @@
         <v>174</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="13" t="s">
@@ -51804,7 +52035,7 @@
         <v>175</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="13" t="s">
@@ -51824,10 +52055,10 @@
     <row r="76" customFormat="1" ht="13.5" spans="1:9">
       <c r="A76" s="6"/>
       <c r="B76" s="19" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="13" t="s">
@@ -51847,10 +52078,10 @@
     <row r="77" customFormat="1" ht="13.5" spans="1:9">
       <c r="A77" s="6"/>
       <c r="B77" s="19" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="13" t="s">
@@ -51870,10 +52101,10 @@
     <row r="78" customFormat="1" ht="13.5" spans="1:9">
       <c r="A78" s="6"/>
       <c r="B78" s="19" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="13" t="s">
@@ -51893,10 +52124,10 @@
     <row r="79" customFormat="1" ht="13.5" spans="1:9">
       <c r="A79" s="6"/>
       <c r="B79" s="19" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="13" t="s">
@@ -51916,10 +52147,10 @@
     <row r="80" customFormat="1" ht="13.5" spans="1:9">
       <c r="A80" s="6"/>
       <c r="B80" s="19" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="13" t="s">
@@ -51938,16 +52169,16 @@
     </row>
     <row r="81" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A81" s="6" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>13</v>
@@ -51969,7 +52200,7 @@
         <v>174</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="13" t="s">
@@ -51992,7 +52223,7 @@
         <v>175</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="13" t="s">
@@ -52015,7 +52246,7 @@
         <v>176</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="13" t="s">
@@ -52034,16 +52265,16 @@
     </row>
     <row r="85" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A85" s="6" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E85" s="13" t="s">
         <v>13</v>
@@ -52062,10 +52293,10 @@
     <row r="86" customFormat="1" ht="13.5" spans="1:9">
       <c r="A86" s="6"/>
       <c r="B86" s="10" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="13" t="s">
@@ -52085,10 +52316,10 @@
     <row r="87" customFormat="1" ht="13.5" spans="1:9">
       <c r="A87" s="6"/>
       <c r="B87" s="7" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="13" t="s">
@@ -52108,10 +52339,10 @@
     <row r="88" customFormat="1" ht="13.5" spans="1:9">
       <c r="A88" s="6"/>
       <c r="B88" s="7" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="13" t="s">
@@ -52131,10 +52362,10 @@
     <row r="89" customFormat="1" ht="13.5" spans="1:9">
       <c r="A89" s="6"/>
       <c r="B89" s="10" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="13" t="s">
@@ -52154,10 +52385,10 @@
     <row r="90" spans="1:9">
       <c r="A90" s="6"/>
       <c r="B90" s="10" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D90" s="12"/>
       <c r="E90" s="13" t="s">
@@ -52177,10 +52408,10 @@
     <row r="91" spans="1:9">
       <c r="A91" s="6"/>
       <c r="B91" s="10" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D91" s="12"/>
       <c r="E91" s="13" t="s">
@@ -52200,10 +52431,10 @@
     <row r="92" spans="1:9">
       <c r="A92" s="6"/>
       <c r="B92" s="10" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="13" t="s">
@@ -52223,10 +52454,10 @@
     <row r="93" spans="1:9">
       <c r="A93" s="6"/>
       <c r="B93" s="10" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="13" t="s">
@@ -52245,16 +52476,16 @@
     </row>
     <row r="94" ht="13.5" customHeight="1" spans="1:9">
       <c r="A94" s="6" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>13</v>
@@ -52269,7 +52500,7 @@
         <v>13</v>
       </c>
       <c r="I94" s="17" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -52278,7 +52509,7 @@
         <v>174</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="13" t="s">
@@ -52294,7 +52525,7 @@
         <v>13</v>
       </c>
       <c r="I95" s="17" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -52303,7 +52534,7 @@
         <v>175</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D96" s="12"/>
       <c r="E96" s="13" t="s">
@@ -52319,7 +52550,7 @@
         <v>13</v>
       </c>
       <c r="I96" s="17" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -52328,7 +52559,7 @@
         <v>176</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D97" s="12"/>
       <c r="E97" s="13" t="s">
@@ -52344,21 +52575,21 @@
         <v>13</v>
       </c>
       <c r="I97" s="17" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
     </row>
     <row r="98" ht="13.5" customHeight="1" spans="1:9">
       <c r="A98" s="21" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="E98" s="13" t="s">
         <v>13</v>
@@ -52380,7 +52611,7 @@
         <v>174</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D99" s="22"/>
       <c r="E99" s="13" t="s">
@@ -52403,7 +52634,7 @@
         <v>175</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D100" s="22"/>
       <c r="E100" s="13" t="s">
@@ -52426,7 +52657,7 @@
         <v>176</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D101" s="22"/>
       <c r="E101" s="25" t="s">

--- a/list/tool.xlsx
+++ b/list/tool.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12375" tabRatio="992" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12375" tabRatio="992"/>
   </bookViews>
   <sheets>
     <sheet name="tool" sheetId="1" r:id="rId1"/>
     <sheet name="tool1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tool!$A$1:$G$232</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tool!$A$1:$G$228</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tool1!$A$1:$G$101</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359">
   <si>
     <t>测试项目</t>
   </si>
@@ -1900,7 +1900,7 @@
     </r>
   </si>
   <si>
-    <t>使用-p选项，查看特定进程的系统资源使用情况：pidstat -p 1 1</t>
+    <t>使用-p选项，查看特定进程的系统资源使用情况：pidstat -p 1 1 2</t>
   </si>
   <si>
     <t>setpci</t>
@@ -3770,24 +3770,6 @@
     <t>4. remove package: yum remove -y libasan3</t>
   </si>
   <si>
-    <t>libbson</t>
-  </si>
-  <si>
-    <t>1. install package: yum install -y libbson</t>
-  </si>
-  <si>
-    <t>libbson.sh</t>
-  </si>
-  <si>
-    <t>2. check version: yum info libbson |grep Version</t>
-  </si>
-  <si>
-    <t>3. check repo: yum info libbson |grep "From repo"</t>
-  </si>
-  <si>
-    <t>4. remove package: yum remove -y libbson</t>
-  </si>
-  <si>
     <t>wlan-smoke</t>
   </si>
   <si>
@@ -4430,10 +4412,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -4541,21 +4523,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4570,21 +4559,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4597,17 +4580,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4629,24 +4603,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4658,15 +4624,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -4742,7 +4724,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4754,25 +4742,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4790,7 +4772,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4802,13 +4832,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4820,37 +4862,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4862,55 +4892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5261,41 +5243,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -5312,9 +5259,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5323,127 +5305,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5452,14 +5434,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6190,15 +6172,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH232"/>
+  <dimension ref="A1:AMH228"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G203" sqref="G203:G207"/>
+      <selection pane="bottomLeft" activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.0083333333333" style="30"/>
     <col min="2" max="2" width="70.125" style="31" customWidth="1"/>
@@ -48744,7 +48726,7 @@
       <c r="F185" s="69"/>
       <c r="G185" s="98"/>
     </row>
-    <row r="186" ht="13.5" spans="1:7">
+    <row r="186" spans="1:7">
       <c r="A186" s="71"/>
       <c r="B186" s="85" t="s">
         <v>229</v>
@@ -49329,77 +49311,21 @@
       <c r="G227" s="95"/>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="71" t="s">
+      <c r="A228" s="76" t="s">
         <v>290</v>
       </c>
-      <c r="B228" s="69" t="s">
-        <v>291</v>
-      </c>
+      <c r="B228" s="69"/>
       <c r="C228" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D228" s="80" t="s">
-        <v>292</v>
-      </c>
+      <c r="D228" s="70"/>
       <c r="E228" s="69"/>
       <c r="F228" s="69"/>
-      <c r="G228" s="95"/>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="71"/>
-      <c r="B229" s="69" t="s">
-        <v>293</v>
-      </c>
-      <c r="C229" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="80"/>
-      <c r="E229" s="69"/>
-      <c r="F229" s="69"/>
-      <c r="G229" s="95"/>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="71"/>
-      <c r="B230" s="69" t="s">
-        <v>294</v>
-      </c>
-      <c r="C230" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D230" s="80"/>
-      <c r="E230" s="69"/>
-      <c r="F230" s="69"/>
-      <c r="G230" s="95"/>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231" s="81"/>
-      <c r="B231" s="69" t="s">
-        <v>295</v>
-      </c>
-      <c r="C231" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D231" s="80"/>
-      <c r="E231" s="69"/>
-      <c r="F231" s="69"/>
-      <c r="G231" s="95"/>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="76" t="s">
-        <v>296</v>
-      </c>
-      <c r="B232" s="69"/>
-      <c r="C232" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232" s="70"/>
-      <c r="E232" s="69"/>
-      <c r="F232" s="69"/>
-      <c r="G232" s="69"/>
+      <c r="G228" s="69"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G232"/>
-  <mergeCells count="62">
+  <autoFilter ref="A1:G228"/>
+  <mergeCells count="60">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A22"/>
     <mergeCell ref="A23:A34"/>
@@ -49427,7 +49353,6 @@
     <mergeCell ref="A216:A219"/>
     <mergeCell ref="A220:A223"/>
     <mergeCell ref="A224:A227"/>
-    <mergeCell ref="A228:A231"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="D10:D22"/>
     <mergeCell ref="D23:D34"/>
@@ -49453,7 +49378,6 @@
     <mergeCell ref="D216:D219"/>
     <mergeCell ref="D220:D223"/>
     <mergeCell ref="D224:D227"/>
-    <mergeCell ref="D228:D231"/>
     <mergeCell ref="G153:G158"/>
     <mergeCell ref="G159:G164"/>
     <mergeCell ref="G165:G166"/>
@@ -49519,7 +49443,6 @@
     <hyperlink ref="D216:D219" r:id="rId36" display="libtsan.sh"/>
     <hyperlink ref="D220:D223" r:id="rId37" display="libasan2.sh"/>
     <hyperlink ref="D224:D227" r:id="rId38" display="libasan3.sh"/>
-    <hyperlink ref="D228:D231" r:id="rId39" display="libbson.sh"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -49532,8 +49455,8 @@
   <sheetPr/>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
@@ -49575,16 +49498,16 @@
     </row>
     <row r="2" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>22</v>
@@ -49600,7 +49523,7 @@
         <v>168</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="14" t="s">
@@ -49617,7 +49540,7 @@
         <v>169</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="14" t="s">
@@ -49634,7 +49557,7 @@
         <v>170</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="14" t="s">
@@ -49647,16 +49570,16 @@
     </row>
     <row r="6" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>22</v>
@@ -49672,7 +49595,7 @@
         <v>168</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="14" t="s">
@@ -49689,7 +49612,7 @@
         <v>169</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="14" t="s">
@@ -49706,7 +49629,7 @@
         <v>170</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="14" t="s">
@@ -49719,16 +49642,16 @@
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:7">
       <c r="A10" s="6" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>22</v>
@@ -49738,13 +49661,13 @@
       </c>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" ht="13.5" spans="1:7">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="14" t="s">
@@ -49755,13 +49678,13 @@
       </c>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" ht="13.5" spans="1:7">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="14" t="s">
@@ -49772,13 +49695,13 @@
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" ht="13.5" spans="1:7">
       <c r="A13" s="6"/>
       <c r="B13" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="14" t="s">
@@ -49791,16 +49714,16 @@
     </row>
     <row r="14" ht="13.5" customHeight="1" spans="1:7">
       <c r="A14" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>22</v>
@@ -49810,13 +49733,13 @@
       </c>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" ht="13.5" spans="1:7">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="14" t="s">
@@ -49827,13 +49750,13 @@
       </c>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" ht="13.5" spans="1:7">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="14" t="s">
@@ -49844,13 +49767,13 @@
       </c>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" ht="13.5" spans="1:7">
       <c r="A17" s="6"/>
       <c r="B17" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="14" t="s">
@@ -49863,16 +49786,16 @@
     </row>
     <row r="18" ht="13.5" customHeight="1" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>22</v>
@@ -49882,13 +49805,13 @@
       </c>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" ht="13.5" spans="1:7">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="14" t="s">
@@ -49899,13 +49822,13 @@
       </c>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" ht="13.5" spans="1:7">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="14" t="s">
@@ -49916,13 +49839,13 @@
       </c>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" ht="13.5" spans="1:7">
       <c r="A21" s="6"/>
       <c r="B21" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="14" t="s">
@@ -49935,16 +49858,16 @@
     </row>
     <row r="22" ht="13.5" customHeight="1" spans="1:7">
       <c r="A22" s="6" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>22</v>
@@ -49954,13 +49877,13 @@
       </c>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" ht="13.5" spans="1:7">
       <c r="A23" s="6"/>
       <c r="B23" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="14" t="s">
@@ -49971,13 +49894,13 @@
       </c>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" ht="13.5" spans="1:7">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="14" t="s">
@@ -49988,13 +49911,13 @@
       </c>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" ht="13.5" spans="1:7">
       <c r="A25" s="6"/>
       <c r="B25" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="14" t="s">
@@ -50007,16 +49930,16 @@
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="1:7">
       <c r="A26" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>22</v>
@@ -50026,13 +49949,13 @@
       </c>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" ht="13.5" spans="1:7">
       <c r="A27" s="6"/>
       <c r="B27" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="14" t="s">
@@ -50043,13 +49966,13 @@
       </c>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" ht="13.5" spans="1:7">
       <c r="A28" s="6"/>
       <c r="B28" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="14" t="s">
@@ -50060,13 +49983,13 @@
       </c>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" ht="13.5" spans="1:7">
       <c r="A29" s="6"/>
       <c r="B29" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="14" t="s">
@@ -50079,16 +50002,16 @@
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:7">
       <c r="A30" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>22</v>
@@ -50098,13 +50021,13 @@
       </c>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" ht="13.5" spans="1:7">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="14" t="s">
@@ -50115,13 +50038,13 @@
       </c>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" ht="13.5" spans="1:7">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="14" t="s">
@@ -50132,13 +50055,13 @@
       </c>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" ht="13.5" spans="1:7">
       <c r="A33" s="6"/>
       <c r="B33" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="14" t="s">
@@ -50151,16 +50074,16 @@
     </row>
     <row r="34" ht="13.5" customHeight="1" spans="1:7">
       <c r="A34" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>22</v>
@@ -50170,13 +50093,13 @@
       </c>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" ht="13.5" spans="1:7">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="14" t="s">
@@ -50187,13 +50110,13 @@
       </c>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" ht="13.5" spans="1:7">
       <c r="A36" s="6"/>
       <c r="B36" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="14" t="s">
@@ -50204,13 +50127,13 @@
       </c>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" ht="13.5" spans="1:7">
       <c r="A37" s="6"/>
       <c r="B37" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="14" t="s">
@@ -50223,16 +50146,16 @@
     </row>
     <row r="38" ht="13.5" customHeight="1" spans="1:7">
       <c r="A38" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>22</v>
@@ -50242,13 +50165,13 @@
       </c>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" ht="13.5" spans="1:7">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="14" t="s">
@@ -50259,13 +50182,13 @@
       </c>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" ht="13.5" spans="1:7">
       <c r="A40" s="6"/>
       <c r="B40" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="14" t="s">
@@ -50276,13 +50199,13 @@
       </c>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" ht="13.5" spans="1:7">
       <c r="A41" s="6"/>
       <c r="B41" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="14" t="s">
@@ -50295,16 +50218,16 @@
     </row>
     <row r="42" ht="13.5" customHeight="1" spans="1:7">
       <c r="A42" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>22</v>
@@ -50314,13 +50237,13 @@
       </c>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" ht="13.5" spans="1:7">
       <c r="A43" s="6"/>
       <c r="B43" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="14" t="s">
@@ -50331,13 +50254,13 @@
       </c>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" ht="13.5" spans="1:7">
       <c r="A44" s="6"/>
       <c r="B44" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="14" t="s">
@@ -50348,13 +50271,13 @@
       </c>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" ht="13.5" spans="1:7">
       <c r="A45" s="6"/>
       <c r="B45" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="14" t="s">
@@ -50367,16 +50290,16 @@
     </row>
     <row r="46" ht="13.5" customHeight="1" spans="1:7">
       <c r="A46" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>22</v>
@@ -50386,13 +50309,13 @@
       </c>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" ht="13.5" spans="1:7">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="14" t="s">
@@ -50403,13 +50326,13 @@
       </c>
       <c r="G47" s="16"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" ht="13.5" spans="1:7">
       <c r="A48" s="6"/>
       <c r="B48" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="14" t="s">
@@ -50420,13 +50343,13 @@
       </c>
       <c r="G48" s="16"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" ht="13.5" spans="1:7">
       <c r="A49" s="6"/>
       <c r="B49" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="14" t="s">
@@ -50439,16 +50362,16 @@
     </row>
     <row r="50" ht="13.5" customHeight="1" spans="1:7">
       <c r="A50" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>22</v>
@@ -50458,13 +50381,13 @@
       </c>
       <c r="G50" s="16"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" ht="13.5" spans="1:7">
       <c r="A51" s="6"/>
       <c r="B51" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="14" t="s">
@@ -50475,13 +50398,13 @@
       </c>
       <c r="G51" s="16"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" ht="13.5" spans="1:7">
       <c r="A52" s="6"/>
       <c r="B52" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="14" t="s">
@@ -50492,13 +50415,13 @@
       </c>
       <c r="G52" s="16"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" ht="13.5" spans="1:7">
       <c r="A53" s="6"/>
       <c r="B53" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="14" t="s">
@@ -50511,16 +50434,16 @@
     </row>
     <row r="54" ht="13.5" customHeight="1" spans="1:7">
       <c r="A54" s="6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>22</v>
@@ -50530,13 +50453,13 @@
       </c>
       <c r="G54" s="16"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" ht="13.5" spans="1:7">
       <c r="A55" s="6"/>
       <c r="B55" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="14" t="s">
@@ -50547,13 +50470,13 @@
       </c>
       <c r="G55" s="16"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" ht="13.5" spans="1:7">
       <c r="A56" s="6"/>
       <c r="B56" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="14" t="s">
@@ -50564,13 +50487,13 @@
       </c>
       <c r="G56" s="16"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" ht="13.5" spans="1:7">
       <c r="A57" s="6"/>
       <c r="B57" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="14" t="s">
@@ -50583,16 +50506,16 @@
     </row>
     <row r="58" ht="13.5" customHeight="1" spans="1:7">
       <c r="A58" s="6" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>22</v>
@@ -50602,13 +50525,13 @@
       </c>
       <c r="G58" s="16"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" ht="13.5" spans="1:7">
       <c r="A59" s="6"/>
       <c r="B59" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="14" t="s">
@@ -50619,13 +50542,13 @@
       </c>
       <c r="G59" s="16"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" ht="13.5" spans="1:7">
       <c r="A60" s="6"/>
       <c r="B60" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="14" t="s">
@@ -50636,13 +50559,13 @@
       </c>
       <c r="G60" s="16"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" ht="13.5" spans="1:7">
       <c r="A61" s="6"/>
       <c r="B61" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="14" t="s">
@@ -50655,16 +50578,16 @@
     </row>
     <row r="62" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
       <c r="A62" s="6" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E62" s="14" t="s">
         <v>22</v>
@@ -50674,13 +50597,13 @@
       </c>
       <c r="G62" s="17"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" ht="13.5" spans="1:7">
       <c r="A63" s="6"/>
       <c r="B63" s="10" t="s">
         <v>168</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="14" t="s">
@@ -50691,13 +50614,13 @@
       </c>
       <c r="G63" s="17"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" ht="13.5" spans="1:7">
       <c r="A64" s="6"/>
       <c r="B64" s="10" t="s">
         <v>169</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="14" t="s">
@@ -50708,13 +50631,13 @@
       </c>
       <c r="G64" s="17"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" ht="13.5" spans="1:7">
       <c r="A65" s="6"/>
       <c r="B65" s="10" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="14" t="s">
@@ -50725,13 +50648,13 @@
       </c>
       <c r="G65" s="17"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" ht="13.5" spans="1:7">
       <c r="A66" s="6"/>
       <c r="B66" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="14" t="s">
@@ -50742,13 +50665,13 @@
       </c>
       <c r="G66" s="17"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" ht="13.5" spans="1:7">
       <c r="A67" s="6"/>
       <c r="B67" s="10" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="14" t="s">
@@ -50759,13 +50682,13 @@
       </c>
       <c r="G67" s="17"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" ht="13.5" spans="1:7">
       <c r="A68" s="6"/>
       <c r="B68" s="10" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="14" t="s">
@@ -50776,13 +50699,13 @@
       </c>
       <c r="G68" s="17"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" ht="13.5" spans="1:7">
       <c r="A69" s="6"/>
       <c r="B69" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="14" t="s">
@@ -50793,13 +50716,13 @@
       </c>
       <c r="G69" s="17"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" ht="13.5" spans="1:7">
       <c r="A70" s="6"/>
       <c r="B70" s="10" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="14" t="s">
@@ -50810,13 +50733,13 @@
       </c>
       <c r="G70" s="17"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" ht="13.5" spans="1:7">
       <c r="A71" s="6"/>
       <c r="B71" s="10" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="14" t="s">
@@ -50827,13 +50750,13 @@
       </c>
       <c r="G71" s="17"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" ht="13.5" spans="1:7">
       <c r="A72" s="6"/>
       <c r="B72" s="10" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="14" t="s">
@@ -50846,16 +50769,16 @@
     </row>
     <row r="73" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
       <c r="A73" s="6" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E73" s="14" t="s">
         <v>22</v>
@@ -50871,7 +50794,7 @@
         <v>168</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="14" t="s">
@@ -50888,7 +50811,7 @@
         <v>169</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="14" t="s">
@@ -50902,10 +50825,10 @@
     <row r="76" customFormat="1" ht="13.5" spans="1:7">
       <c r="A76" s="6"/>
       <c r="B76" s="18" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="14" t="s">
@@ -50919,10 +50842,10 @@
     <row r="77" customFormat="1" ht="13.5" spans="1:7">
       <c r="A77" s="6"/>
       <c r="B77" s="18" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="14" t="s">
@@ -50936,10 +50859,10 @@
     <row r="78" customFormat="1" ht="13.5" spans="1:7">
       <c r="A78" s="6"/>
       <c r="B78" s="18" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="14" t="s">
@@ -50953,10 +50876,10 @@
     <row r="79" customFormat="1" ht="13.5" spans="1:7">
       <c r="A79" s="6"/>
       <c r="B79" s="18" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="14" t="s">
@@ -50970,10 +50893,10 @@
     <row r="80" customFormat="1" ht="13.5" spans="1:7">
       <c r="A80" s="6"/>
       <c r="B80" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="14" t="s">
@@ -50986,16 +50909,16 @@
     </row>
     <row r="81" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
       <c r="A81" s="6" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E81" s="14" t="s">
         <v>22</v>
@@ -51011,7 +50934,7 @@
         <v>168</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="14" t="s">
@@ -51028,7 +50951,7 @@
         <v>169</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="14" t="s">
@@ -51045,7 +50968,7 @@
         <v>170</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="14" t="s">
@@ -51058,16 +50981,16 @@
     </row>
     <row r="85" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
       <c r="A85" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E85" s="14" t="s">
         <v>22</v>
@@ -51080,10 +51003,10 @@
     <row r="86" customFormat="1" ht="13.5" spans="1:7">
       <c r="A86" s="6"/>
       <c r="B86" s="10" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="14" t="s">
@@ -51097,10 +51020,10 @@
     <row r="87" customFormat="1" ht="13.5" spans="1:7">
       <c r="A87" s="6"/>
       <c r="B87" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="14" t="s">
@@ -51114,10 +51037,10 @@
     <row r="88" customFormat="1" ht="13.5" spans="1:7">
       <c r="A88" s="6"/>
       <c r="B88" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="14" t="s">
@@ -51131,10 +51054,10 @@
     <row r="89" customFormat="1" ht="13.5" spans="1:7">
       <c r="A89" s="6"/>
       <c r="B89" s="10" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="14" t="s">
@@ -51145,13 +51068,13 @@
       </c>
       <c r="G89" s="16"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" ht="13.5" spans="1:7">
       <c r="A90" s="6"/>
       <c r="B90" s="10" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D90" s="12"/>
       <c r="E90" s="14" t="s">
@@ -51162,13 +51085,13 @@
       </c>
       <c r="G90" s="16"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" ht="13.5" spans="1:7">
       <c r="A91" s="6"/>
       <c r="B91" s="10" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D91" s="12"/>
       <c r="E91" s="14" t="s">
@@ -51179,13 +51102,13 @@
       </c>
       <c r="G91" s="16"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" ht="13.5" spans="1:7">
       <c r="A92" s="6"/>
       <c r="B92" s="10" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="14" t="s">
@@ -51196,13 +51119,13 @@
       </c>
       <c r="G92" s="16"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" ht="13.5" spans="1:7">
       <c r="A93" s="6"/>
       <c r="B93" s="10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="14" t="s">
@@ -51215,16 +51138,16 @@
     </row>
     <row r="94" ht="13.5" customHeight="1" spans="1:7">
       <c r="A94" s="6" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E94" s="14" t="s">
         <v>22</v>
@@ -51233,16 +51156,16 @@
         <v>150</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" ht="13.5" spans="1:7">
       <c r="A95" s="6"/>
       <c r="B95" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="14" t="s">
@@ -51252,16 +51175,16 @@
         <v>150</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" ht="13.5" spans="1:7">
       <c r="A96" s="6"/>
       <c r="B96" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D96" s="12"/>
       <c r="E96" s="14" t="s">
@@ -51271,16 +51194,16 @@
         <v>150</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" ht="13.5" spans="1:7">
       <c r="A97" s="6"/>
       <c r="B97" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D97" s="12"/>
       <c r="E97" s="14" t="s">
@@ -51290,21 +51213,21 @@
         <v>150</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="98" ht="13.5" customHeight="1" spans="1:7">
       <c r="A98" s="20" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E98" s="14" t="s">
         <v>22</v>
@@ -51320,7 +51243,7 @@
         <v>168</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D99" s="21"/>
       <c r="E99" s="14" t="s">
@@ -51337,7 +51260,7 @@
         <v>169</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D100" s="21"/>
       <c r="E100" s="14" t="s">
@@ -51354,7 +51277,7 @@
         <v>170</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D101" s="21"/>
       <c r="E101" s="24" t="s">
